--- a/results/DRSA/FileVC_DRSA_DOMApriori_NEW1.xlsx
+++ b/results/DRSA/FileVC_DRSA_DOMApriori_NEW1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="495">
   <si>
     <t>name</t>
   </si>
@@ -1058,1798 +1058,424 @@
     <t>Reguła 140</t>
   </si>
   <si>
-    <t>Reguła 141</t>
-  </si>
-  <si>
-    <t>Reguła 142</t>
-  </si>
-  <si>
-    <t>Reguła 143</t>
-  </si>
-  <si>
-    <t>Reguła 144</t>
-  </si>
-  <si>
-    <t>Reguła 145</t>
-  </si>
-  <si>
-    <t>Reguła 146</t>
-  </si>
-  <si>
-    <t>Reguła 147</t>
-  </si>
-  <si>
-    <t>Reguła 148</t>
-  </si>
-  <si>
-    <t>Reguła 149</t>
-  </si>
-  <si>
-    <t>Reguła 150</t>
-  </si>
-  <si>
-    <t>Reguła 151</t>
-  </si>
-  <si>
-    <t>Reguła 152</t>
-  </si>
-  <si>
-    <t>Reguła 153</t>
-  </si>
-  <si>
-    <t>Reguła 154</t>
-  </si>
-  <si>
-    <t>Reguła 155</t>
-  </si>
-  <si>
-    <t>Reguła 156</t>
-  </si>
-  <si>
-    <t>Reguła 157</t>
-  </si>
-  <si>
-    <t>Reguła 158</t>
-  </si>
-  <si>
-    <t>Reguła 159</t>
-  </si>
-  <si>
-    <t>Reguła 160</t>
-  </si>
-  <si>
-    <t>Reguła 161</t>
-  </si>
-  <si>
-    <t>Reguła 162</t>
-  </si>
-  <si>
-    <t>Reguła 163</t>
-  </si>
-  <si>
-    <t>Reguła 164</t>
-  </si>
-  <si>
-    <t>Reguła 165</t>
-  </si>
-  <si>
-    <t>Reguła 166</t>
-  </si>
-  <si>
-    <t>Reguła 167</t>
-  </si>
-  <si>
-    <t>Reguła 168</t>
-  </si>
-  <si>
-    <t>Reguła 169</t>
-  </si>
-  <si>
-    <t>Reguła 170</t>
-  </si>
-  <si>
-    <t>Reguła 171</t>
-  </si>
-  <si>
-    <t>Reguła 172</t>
-  </si>
-  <si>
-    <t>Reguła 173</t>
-  </si>
-  <si>
-    <t>Reguła 174</t>
-  </si>
-  <si>
-    <t>Reguła 175</t>
-  </si>
-  <si>
-    <t>Reguła 176</t>
-  </si>
-  <si>
-    <t>Reguła 177</t>
-  </si>
-  <si>
-    <t>Reguła 178</t>
-  </si>
-  <si>
-    <t>Reguła 179</t>
-  </si>
-  <si>
-    <t>Reguła 180</t>
-  </si>
-  <si>
-    <t>Reguła 181</t>
-  </si>
-  <si>
-    <t>Reguła 182</t>
-  </si>
-  <si>
-    <t>Reguła 183</t>
-  </si>
-  <si>
-    <t>Reguła 184</t>
-  </si>
-  <si>
-    <t>Reguła 185</t>
-  </si>
-  <si>
-    <t>Reguła 186</t>
-  </si>
-  <si>
-    <t>Reguła 187</t>
-  </si>
-  <si>
-    <t>Reguła 188</t>
-  </si>
-  <si>
-    <t>Reguła 189</t>
-  </si>
-  <si>
-    <t>Reguła 190</t>
-  </si>
-  <si>
-    <t>Reguła 191</t>
-  </si>
-  <si>
-    <t>Reguła 192</t>
-  </si>
-  <si>
-    <t>Reguła 193</t>
-  </si>
-  <si>
-    <t>Reguła 194</t>
-  </si>
-  <si>
-    <t>Reguła 195</t>
-  </si>
-  <si>
-    <t>Reguła 196</t>
-  </si>
-  <si>
-    <t>Reguła 197</t>
-  </si>
-  <si>
-    <t>Reguła 198</t>
-  </si>
-  <si>
-    <t>Reguła 199</t>
-  </si>
-  <si>
-    <t>Reguła 200</t>
-  </si>
-  <si>
-    <t>Reguła 201</t>
-  </si>
-  <si>
-    <t>Reguła 202</t>
-  </si>
-  <si>
-    <t>Reguła 203</t>
-  </si>
-  <si>
-    <t>Reguła 204</t>
-  </si>
-  <si>
-    <t>Reguła 205</t>
-  </si>
-  <si>
-    <t>Reguła 206</t>
-  </si>
-  <si>
-    <t>Reguła 207</t>
-  </si>
-  <si>
-    <t>Reguła 208</t>
-  </si>
-  <si>
-    <t>Reguła 209</t>
-  </si>
-  <si>
-    <t>Reguła 210</t>
-  </si>
-  <si>
-    <t>Reguła 211</t>
-  </si>
-  <si>
-    <t>Reguła 212</t>
-  </si>
-  <si>
-    <t>Reguła 213</t>
-  </si>
-  <si>
-    <t>Reguła 214</t>
-  </si>
-  <si>
-    <t>Reguła 215</t>
-  </si>
-  <si>
-    <t>Reguła 216</t>
-  </si>
-  <si>
-    <t>Reguła 217</t>
-  </si>
-  <si>
-    <t>Reguła 218</t>
-  </si>
-  <si>
-    <t>Reguła 219</t>
-  </si>
-  <si>
-    <t>Reguła 220</t>
-  </si>
-  <si>
-    <t>Reguła 221</t>
-  </si>
-  <si>
-    <t>Reguła 222</t>
-  </si>
-  <si>
-    <t>Reguła 223</t>
-  </si>
-  <si>
-    <t>Reguła 224</t>
-  </si>
-  <si>
-    <t>Reguła 225</t>
-  </si>
-  <si>
-    <t>Reguła 226</t>
-  </si>
-  <si>
-    <t>Reguła 227</t>
-  </si>
-  <si>
-    <t>Reguła 228</t>
-  </si>
-  <si>
-    <t>Reguła 229</t>
-  </si>
-  <si>
-    <t>Reguła 230</t>
-  </si>
-  <si>
-    <t>Reguła 231</t>
-  </si>
-  <si>
-    <t>Reguła 232</t>
-  </si>
-  <si>
-    <t>Reguła 233</t>
-  </si>
-  <si>
-    <t>Reguła 234</t>
-  </si>
-  <si>
-    <t>Reguła 235</t>
-  </si>
-  <si>
-    <t>Reguła 236</t>
-  </si>
-  <si>
-    <t>Reguła 237</t>
-  </si>
-  <si>
-    <t>Reguła 238</t>
-  </si>
-  <si>
-    <t>Reguła 239</t>
-  </si>
-  <si>
-    <t>Reguła 240</t>
-  </si>
-  <si>
-    <t>Reguła 241</t>
-  </si>
-  <si>
-    <t>Reguła 242</t>
-  </si>
-  <si>
-    <t>Reguła 243</t>
-  </si>
-  <si>
-    <t>Reguła 244</t>
-  </si>
-  <si>
-    <t>Reguła 245</t>
-  </si>
-  <si>
-    <t>Reguła 246</t>
-  </si>
-  <si>
-    <t>Reguła 247</t>
-  </si>
-  <si>
-    <t>Reguła 248</t>
-  </si>
-  <si>
-    <t>Reguła 249</t>
-  </si>
-  <si>
-    <t>Reguła 250</t>
-  </si>
-  <si>
-    <t>Reguła 251</t>
-  </si>
-  <si>
-    <t>Reguła 252</t>
-  </si>
-  <si>
-    <t>Reguła 253</t>
-  </si>
-  <si>
-    <t>Reguła 254</t>
-  </si>
-  <si>
-    <t>Reguła 255</t>
-  </si>
-  <si>
-    <t>Reguła 256</t>
-  </si>
-  <si>
-    <t>Reguła 257</t>
-  </si>
-  <si>
-    <t>Reguła 258</t>
-  </si>
-  <si>
-    <t>Reguła 259</t>
-  </si>
-  <si>
-    <t>Reguła 260</t>
-  </si>
-  <si>
-    <t>Reguła 261</t>
-  </si>
-  <si>
-    <t>Reguła 262</t>
-  </si>
-  <si>
-    <t>Reguła 263</t>
-  </si>
-  <si>
-    <t>Reguła 264</t>
-  </si>
-  <si>
-    <t>Reguła 265</t>
-  </si>
-  <si>
-    <t>Reguła 266</t>
-  </si>
-  <si>
-    <t>Reguła 267</t>
-  </si>
-  <si>
-    <t>Reguła 268</t>
-  </si>
-  <si>
-    <t>Reguła 269</t>
-  </si>
-  <si>
-    <t>Reguła 270</t>
-  </si>
-  <si>
-    <t>Reguła 271</t>
-  </si>
-  <si>
-    <t>Reguła 272</t>
-  </si>
-  <si>
-    <t>Reguła 273</t>
-  </si>
-  <si>
-    <t>Reguła 274</t>
-  </si>
-  <si>
-    <t>Reguła 275</t>
-  </si>
-  <si>
-    <t>Reguła 276</t>
-  </si>
-  <si>
-    <t>Reguła 277</t>
-  </si>
-  <si>
-    <t>Reguła 278</t>
-  </si>
-  <si>
-    <t>Reguła 279</t>
-  </si>
-  <si>
-    <t>Reguła 280</t>
-  </si>
-  <si>
-    <t>Reguła 281</t>
-  </si>
-  <si>
-    <t>Reguła 282</t>
-  </si>
-  <si>
-    <t>Reguła 283</t>
-  </si>
-  <si>
-    <t>Reguła 284</t>
-  </si>
-  <si>
-    <t>Reguła 285</t>
-  </si>
-  <si>
-    <t>Reguła 286</t>
-  </si>
-  <si>
-    <t>Reguła 287</t>
-  </si>
-  <si>
-    <t>Reguła 288</t>
-  </si>
-  <si>
-    <t>Reguła 289</t>
-  </si>
-  <si>
-    <t>Reguła 290</t>
-  </si>
-  <si>
-    <t>Reguła 291</t>
-  </si>
-  <si>
-    <t>Reguła 292</t>
-  </si>
-  <si>
-    <t>Reguła 293</t>
-  </si>
-  <si>
-    <t>Reguła 294</t>
-  </si>
-  <si>
-    <t>Reguła 295</t>
-  </si>
-  <si>
-    <t>Reguła 296</t>
-  </si>
-  <si>
-    <t>Reguła 297</t>
-  </si>
-  <si>
-    <t>Reguła 298</t>
-  </si>
-  <si>
-    <t>Reguła 299</t>
-  </si>
-  <si>
-    <t>Reguła 300</t>
-  </si>
-  <si>
-    <t>Reguła 301</t>
-  </si>
-  <si>
-    <t>Reguła 302</t>
-  </si>
-  <si>
-    <t>Reguła 303</t>
-  </si>
-  <si>
-    <t>Reguła 304</t>
-  </si>
-  <si>
-    <t>Reguła 305</t>
-  </si>
-  <si>
-    <t>Reguła 306</t>
-  </si>
-  <si>
-    <t>Reguła 307</t>
-  </si>
-  <si>
-    <t>Reguła 308</t>
-  </si>
-  <si>
-    <t>Reguła 309</t>
-  </si>
-  <si>
-    <t>Reguła 310</t>
-  </si>
-  <si>
-    <t>Reguła 311</t>
-  </si>
-  <si>
-    <t>Reguła 312</t>
-  </si>
-  <si>
-    <t>Reguła 313</t>
-  </si>
-  <si>
-    <t>Reguła 314</t>
-  </si>
-  <si>
-    <t>Reguła 315</t>
-  </si>
-  <si>
-    <t>Reguła 316</t>
-  </si>
-  <si>
-    <t>Reguła 317</t>
-  </si>
-  <si>
-    <t>Reguła 318</t>
-  </si>
-  <si>
-    <t>Reguła 319</t>
-  </si>
-  <si>
-    <t>Reguła 320</t>
-  </si>
-  <si>
-    <t>Reguła 321</t>
-  </si>
-  <si>
-    <t>Reguła 322</t>
-  </si>
-  <si>
-    <t>Reguła 323</t>
-  </si>
-  <si>
-    <t>Reguła 324</t>
-  </si>
-  <si>
-    <t>Reguła 325</t>
-  </si>
-  <si>
-    <t>Reguła 326</t>
-  </si>
-  <si>
-    <t>Reguła 327</t>
-  </si>
-  <si>
-    <t>Reguła 328</t>
-  </si>
-  <si>
-    <t>Reguła 329</t>
-  </si>
-  <si>
-    <t>Reguła 330</t>
-  </si>
-  <si>
-    <t>Reguła 331</t>
-  </si>
-  <si>
-    <t>Reguła 332</t>
-  </si>
-  <si>
-    <t>Reguła 333</t>
-  </si>
-  <si>
-    <t>Reguła 334</t>
-  </si>
-  <si>
-    <t>Reguła 335</t>
-  </si>
-  <si>
-    <t>Reguła 336</t>
-  </si>
-  <si>
-    <t>Reguła 337</t>
-  </si>
-  <si>
-    <t>Reguła 338</t>
-  </si>
-  <si>
-    <t>Reguła 339</t>
-  </si>
-  <si>
-    <t>Reguła 340</t>
-  </si>
-  <si>
-    <t>Reguła 341</t>
-  </si>
-  <si>
-    <t>Reguła 342</t>
-  </si>
-  <si>
-    <t>Reguła 343</t>
-  </si>
-  <si>
-    <t>Reguła 344</t>
-  </si>
-  <si>
-    <t>Reguła 345</t>
-  </si>
-  <si>
-    <t>Reguła 346</t>
-  </si>
-  <si>
-    <t>Reguła 347</t>
-  </si>
-  <si>
-    <t>Reguła 348</t>
-  </si>
-  <si>
-    <t>Reguła 349</t>
-  </si>
-  <si>
-    <t>Reguła 350</t>
-  </si>
-  <si>
-    <t>Reguła 351</t>
-  </si>
-  <si>
-    <t>Reguła 352</t>
-  </si>
-  <si>
-    <t>Reguła 353</t>
-  </si>
-  <si>
-    <t>Reguła 354</t>
-  </si>
-  <si>
-    <t>Reguła 355</t>
-  </si>
-  <si>
-    <t>Reguła 356</t>
-  </si>
-  <si>
-    <t>Reguła 357</t>
-  </si>
-  <si>
-    <t>Reguła 358</t>
-  </si>
-  <si>
-    <t>Reguła 359</t>
-  </si>
-  <si>
-    <t>Reguła 360</t>
-  </si>
-  <si>
-    <t>Reguła 361</t>
-  </si>
-  <si>
-    <t>Reguła 362</t>
-  </si>
-  <si>
-    <t>Reguła 363</t>
-  </si>
-  <si>
-    <t>Reguła 364</t>
-  </si>
-  <si>
-    <t>Reguła 365</t>
-  </si>
-  <si>
-    <t>Reguła 366</t>
-  </si>
-  <si>
-    <t>Reguła 367</t>
-  </si>
-  <si>
-    <t>Reguła 368</t>
-  </si>
-  <si>
-    <t>Reguła 369</t>
-  </si>
-  <si>
-    <t>(age &gt;=  38.0) =&gt; (class &lt;= 2) ['a49', 'a11', 'a41', 'a36', 'a17', 'a51', 'a23', 'a33', 'a6', 'a5', 'a3', 'a48']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a9', 'a30', 'a4', 'a11', 'a33', 'a7']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  11.0) =&gt; (class &lt;= 2) ['a24', 'a9', 'a30', 'a4', 'a11', 'a41', 'a33', 'a5']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 2) ['a24', 'a26', 'a28', 'a9', 'a30', 'a4', 'a11', 'a41', 'a36', 'a17', 'a51', 'a23', 'a33', 'a5', 'a40']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  12.0) =&gt; (class &lt;= 2) ['a24', 'a26', 'a9', 'a30', 'a4', 'a11', 'a41', 'a51', 'a23', 'a33', 'a5']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a9', 'a30', 'a4', 'a11', 'a33']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a33', 'a4', 'a11']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  4.0) &amp; (morpho_quality &lt;=  14.0) =&gt; (class &lt;= 2) ['a30', 'a4', 'a41', 'a21', 'a36', 'a17', 'a51', 'a6', 'a32']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  4.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 2) ['a30', 'a4', 'a41', 'a36', 'a17', 'a51']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  4.0) &amp; (morpho_quality &lt;=  12.0) =&gt; (class &lt;= 2) ['a51', 'a30', 'a4', 'a41']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  5.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 2) ['a17', 'a30', 'a4', 'a41']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  2.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a9', 'a30', 'a4', 'a11', 'a33', 'a7']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  2.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a33', 'a4', 'a11', 'a7']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  4.0) &amp; (morpho_quality &lt;=  11.0) =&gt; (class &lt;= 2) ['a9', 'a30', 'a11', 'a41', 'a33', 'a7']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  4.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 2) ['a26', 'a9', 'a30', 'a11', 'a41', 'a36', 'a51', 'a33', 'a49', 'a7']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  4.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a9', 'a30', 'a11', 'a33', 'a7']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  4.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a33', 'a7', 'a11']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  3.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a9', 'a30', 'a11', 'a33', 'a7']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a33', 'a7', 'a11']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  1.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a9', 'a30', 'a4', 'a11', 'a33', 'a7']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  1.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a33', 'a4', 'a11', 'a7']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  5.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a9', 'a33', 'a30', 'a7']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  11.0) =&gt; (class &lt;= 2) ['a24', 'a9', 'a43', 'a11', 'a33', 'a5']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a9', 'a33', 'a11']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a33', 'a11']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  4.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a9', 'a30', 'a11', 'a33', 'a7']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  4.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a33', 'a7', 'a11']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  2.0) &amp; (morpho_quality &lt;=  12.0) =&gt; (class &lt;= 2) ['a23', 'a9', 'a33', 'a49']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  5.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a9', 'a30', 'a11', 'a33', 'a7']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  5.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a33', 'a7', 'a11']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  3.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a9', 'a30', 'a4', 'a11', 'a33', 'a7']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a33', 'a4', 'a11', 'a7']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  3.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &lt;=  20.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(develop_quality &lt;=  5.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  6.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  1.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  26.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) &amp; (woman_eval &lt;=  4.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a43', 'a11', 'a46', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) &amp; (woman_eval &lt;=  5.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a43', 'a11', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) &amp; (woman_eval &lt;=  6.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) &amp; (woman_eval &lt;=  3.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a42', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a51', 'a14', 'a49', 'a50', 'a26', 'a28', 'a9', 'a38', 'a3', 'a32', 'a25', 'a20', 'a48', 'a43', 'a11', 'a46', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) &amp; (woman_eval &lt;=  2.0) =&gt; (class &lt;= 3) ['a15', 'a31', 'a49', 'a28', 'a9', 'a42', 'a35', 'a46', 'a23', 'a33', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (woman_eval &lt;=  4.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a34', 'a42', 'a30', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a17', 'a16', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a32', 'a40', 'a20', 'a11', 'a23', 'a6']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (woman_eval &lt;=  5.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a34', 'a42', 'a30', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a17', 'a16', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a32', 'a40', 'a20', 'a11', 'a37', 'a36', 'a23', 'a6']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (woman_eval &lt;=  6.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a34', 'a42', 'a30', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a17', 'a16', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a32', 'a40', 'a20', 'a4', 'a11', 'a37', 'a36', 'a23', 'a6']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  2.0) &amp; (woman_eval &lt;=  4.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a34', 'a42', 'a30', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a32', 'a40', 'a25', 'a20', 'a48', 'a43', 'a11', 'a46', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  2.0) &amp; (woman_eval &lt;=  5.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a32', 'a40', 'a25', 'a20', 'a48', 'a43', 'a11', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  2.0) &amp; (woman_eval &lt;=  6.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a32', 'a40', 'a20', 'a25', 'a48', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  2.0) &amp; (woman_eval &lt;=  3.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a42', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a51', 'a14', 'a49', 'a50', 'a26', 'a28', 'a9', 'a38', 'a32', 'a25', 'a20', 'a48', 'a43', 'a11', 'a46', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) &amp; (sperm &lt;=  3.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  2.0) &amp; (sperm &lt;=  3.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a32', 'a40', 'a20', 'a25', 'a48', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) &amp; (morpho_quality &lt;=  16.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a51', 'a49', 'a50', 'a26', 'a28', 'a9', 'a41', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) &amp; (morpho_quality &lt;=  20.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) &amp; (morpho_quality &lt;=  14.0) =&gt; (class &lt;= 3) ['a19', 'a24', 'a30', 'a12', 'a21', 'a33', 'a5', 'a44', 'a35', 'a17', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a36', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) &amp; (morpho_quality &lt;=  17.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a51', 'a49', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) &amp; (morpho_quality &lt;=  15.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a29', 'a44', 'a35', 'a17', 'a47', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a36', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) &amp; (morpho_quality &lt;=  18.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 3) ['a24', 'a30', 'a33', 'a5', 'a17', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a7', 'a40', 'a25', 'a45', 'a4', 'a11', 'a43', 'a36', 'a23']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) &amp; (morpho_quality &lt;=  19.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  16.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a34', 'a42', 'a30', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a17', 'a16', 'a51', 'a50', 'a26', 'a28', 'a9', 'a41', 'a32', 'a40', 'a4', 'a11', 'a37', 'a36', 'a23', 'a6']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  20.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a34', 'a42', 'a30', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a17', 'a16', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a32', 'a40', 'a20', 'a4', 'a11', 'a37', 'a36', 'a23', 'a6']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  14.0) =&gt; (class &lt;= 3) ['a19', 'a24', 'a30', 'a21', 'a33', 'a5', 'a44', 'a35', 'a17', 'a51', 'a26', 'a28', 'a9', 'a41', 'a32', 'a40', 'a4', 'a11', 'a36', 'a23', 'a6']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  17.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a34', 'a42', 'a30', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a17', 'a16', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a32', 'a40', 'a4', 'a11', 'a37', 'a36', 'a23', 'a6']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  15.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a42', 'a30', 'a21', 'a33', 'a5', 'a29', 'a44', 'a35', 'a17', 'a51', 'a26', 'a28', 'a9', 'a41', 'a32', 'a40', 'a4', 'a11', 'a36', 'a23', 'a6']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  18.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a34', 'a42', 'a30', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a17', 'a16', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a32', 'a40', 'a4', 'a11', 'a37', 'a36', 'a23', 'a6']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 3) ['a24', 'a26', 'a28', 'a9', 'a30', 'a4', 'a11', 'a41', 'a36', 'a17', 'a51', 'a23', 'a33', 'a5', 'a40']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  19.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a34', 'a42', 'a30', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a17', 'a16', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a32', 'a40', 'a4', 'a11', 'a37', 'a36', 'a23', 'a6']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  2.0) &amp; (morpho_quality &lt;=  16.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a17', 'a10', 'a47', 'a16', 'a51', 'a49', 'a50', 'a26', 'a28', 'a9', 'a41', 'a38', 'a32', 'a40', 'a25', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  2.0) &amp; (morpho_quality &lt;=  20.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a32', 'a40', 'a20', 'a25', 'a48', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  2.0) &amp; (morpho_quality &lt;=  14.0) =&gt; (class &lt;= 3) ['a19', 'a24', 'a30', 'a21', 'a33', 'a5', 'a44', 'a35', 'a17', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a32', 'a40', 'a25', 'a4', 'a11', 'a43', 'a36', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  2.0) &amp; (morpho_quality &lt;=  17.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a51', 'a49', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a32', 'a40', 'a25', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  2.0) &amp; (morpho_quality &lt;=  15.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a42', 'a30', 'a21', 'a33', 'a5', 'a29', 'a44', 'a35', 'a17', 'a47', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a32', 'a40', 'a25', 'a4', 'a11', 'a43', 'a36', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  2.0) &amp; (morpho_quality &lt;=  18.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a32', 'a40', 'a25', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  2.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 3) ['a49', 'a24', 'a26', 'a28', 'a9', 'a30', 'a4', 'a11', 'a41', 'a43', 'a36', 'a17', 'a51', 'a23', 'a33', 'a5', 'a40', 'a25']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  2.0) &amp; (morpho_quality &lt;=  19.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a32', 'a40', 'a25', 'a48', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) &amp; (oocytes &gt;=  2.0) =&gt; (class &lt;= 3) ['a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a26', 'a28', 'a9', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) &amp; (oocytes &gt;=  3.0) =&gt; (class &lt;= 3) ['a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a26', 'a28', 'a9', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a20', 'a48', 'a45', 'a43', 'a11', 'a37', 'a36', 'a46', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  2.0) &amp; (oocytes &gt;=  3.0) =&gt; (class &lt;= 3) ['a6', 'a34', 'a42', 'a30', 'a21', 'a33', 'a15', 'a29', 'a44', 'a39', 'a35', 'a17', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a26', 'a28', 'a9', 'a41', 'a8', 'a38', 'a32', 'a25', 'a20', 'a48', 'a43', 'a11', 'a37', 'a36', 'a46', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) &amp; (develop_quality &lt;=  5.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (develop_quality &lt;=  5.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a34', 'a42', 'a30', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a17', 'a16', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a32', 'a40', 'a20', 'a4', 'a11', 'a37', 'a36', 'a23', 'a6']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  2.0) &amp; (develop_quality &lt;=  5.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a32', 'a40', 'a20', 'a25', 'a48', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  2.0) &amp; (sperm &lt;=  3.0) =&gt; (class &lt;= 3) ['a15', 'a31', 'a49', 'a28', 'a9', 'a42', 'a35', 'a46', 'a23', 'a33', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  4.0) &amp; (morpho_quality &lt;=  16.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a51', 'a49', 'a50', 'a26', 'a28', 'a9', 'a41', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a43', 'a11', 'a46', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  4.0) &amp; (morpho_quality &lt;=  20.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a43', 'a11', 'a46', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  4.0) &amp; (morpho_quality &lt;=  14.0) =&gt; (class &lt;= 3) ['a19', 'a24', 'a30', 'a12', 'a21', 'a33', 'a5', 'a44', 'a35', 'a17', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a7', 'a3', 'a32', 'a25', 'a40', 'a43', 'a11', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  4.0) &amp; (morpho_quality &lt;=  17.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a51', 'a49', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a43', 'a11', 'a46', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  4.0) &amp; (morpho_quality &lt;=  15.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a29', 'a44', 'a35', 'a17', 'a47', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a7', 'a3', 'a32', 'a25', 'a40', 'a43', 'a11', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  4.0) &amp; (morpho_quality &lt;=  18.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a43', 'a11', 'a46', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  4.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 3) ['a49', 'a24', 'a26', 'a28', 'a9', 'a30', 'a43', 'a11', 'a41', 'a17', 'a51', 'a23', 'a33', 'a5', 'a7', 'a40', 'a25']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  4.0) &amp; (morpho_quality &lt;=  19.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a48', 'a43', 'a11', 'a46', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  5.0) &amp; (morpho_quality &lt;=  16.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a51', 'a49', 'a50', 'a26', 'a28', 'a9', 'a41', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a43', 'a11', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  5.0) &amp; (morpho_quality &lt;=  20.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a43', 'a11', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  5.0) &amp; (morpho_quality &lt;=  14.0) =&gt; (class &lt;= 3) ['a19', 'a24', 'a30', 'a12', 'a21', 'a33', 'a5', 'a44', 'a35', 'a17', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a7', 'a3', 'a32', 'a25', 'a40', 'a43', 'a11', 'a36', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  5.0) &amp; (morpho_quality &lt;=  17.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a51', 'a49', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a43', 'a11', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  5.0) &amp; (morpho_quality &lt;=  15.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a29', 'a44', 'a35', 'a17', 'a47', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a7', 'a3', 'a32', 'a25', 'a40', 'a43', 'a11', 'a36', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  5.0) &amp; (morpho_quality &lt;=  18.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a43', 'a11', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  5.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 3) ['a49', 'a24', 'a26', 'a28', 'a9', 'a30', 'a43', 'a11', 'a41', 'a36', 'a17', 'a51', 'a23', 'a33', 'a5', 'a7', 'a40', 'a25']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  5.0) &amp; (morpho_quality &lt;=  19.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a48', 'a43', 'a11', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  6.0) &amp; (morpho_quality &lt;=  16.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a51', 'a49', 'a50', 'a26', 'a28', 'a9', 'a41', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  6.0) &amp; (morpho_quality &lt;=  20.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  6.0) &amp; (morpho_quality &lt;=  14.0) =&gt; (class &lt;= 3) ['a19', 'a24', 'a30', 'a12', 'a21', 'a33', 'a5', 'a44', 'a35', 'a17', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a36', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  6.0) &amp; (morpho_quality &lt;=  17.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a51', 'a49', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  6.0) &amp; (morpho_quality &lt;=  15.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a29', 'a44', 'a35', 'a17', 'a47', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a36', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  6.0) &amp; (morpho_quality &lt;=  18.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  6.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 3) ['a24', 'a30', 'a33', 'a5', 'a17', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a7', 'a40', 'a25', 'a45', 'a4', 'a11', 'a43', 'a36', 'a23']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  6.0) &amp; (morpho_quality &lt;=  19.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  16.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a42', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a51', 'a49', 'a50', 'a26', 'a28', 'a9', 'a38', 'a3', 'a32', 'a25', 'a43', 'a11', 'a46', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  20.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a42', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a51', 'a14', 'a49', 'a50', 'a26', 'a28', 'a9', 'a38', 'a3', 'a32', 'a25', 'a20', 'a48', 'a43', 'a11', 'a46', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  14.0) =&gt; (class &lt;= 3) ['a19', 'a24', 'a12', 'a21', 'a33', 'a5', 'a44', 'a35', 'a51', 'a49', 'a26', 'a28', 'a9', 'a3', 'a32', 'a25', 'a43', 'a11', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  17.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a42', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a51', 'a49', 'a50', 'a26', 'a28', 'a9', 'a38', 'a3', 'a32', 'a25', 'a43', 'a11', 'a46', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  15.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a42', 'a12', 'a21', 'a33', 'a5', 'a29', 'a44', 'a35', 'a51', 'a49', 'a26', 'a28', 'a9', 'a3', 'a32', 'a25', 'a43', 'a11', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  18.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a42', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a51', 'a14', 'a49', 'a50', 'a26', 'a28', 'a9', 'a38', 'a3', 'a32', 'a25', 'a43', 'a11', 'a46', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 3) ['a49', 'a24', 'a26', 'a28', 'a9', 'a43', 'a11', 'a51', 'a23', 'a33', 'a5', 'a25']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  19.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a42', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a51', 'a14', 'a49', 'a50', 'a26', 'a28', 'a9', 'a38', 'a3', 'a32', 'a25', 'a48', 'a43', 'a11', 'a46', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  2.0) &amp; (morpho_quality &lt;=  16.0) =&gt; (class &lt;= 3) ['a15', 'a31', 'a49', 'a28', 'a9', 'a42', 'a35', 'a46', 'a23', 'a33', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  2.0) &amp; (morpho_quality &lt;=  20.0) =&gt; (class &lt;= 3) ['a15', 'a31', 'a49', 'a28', 'a9', 'a42', 'a35', 'a46', 'a23', 'a33', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  2.0) &amp; (morpho_quality &lt;=  14.0) =&gt; (class &lt;= 3) ['a49', 'a28', 'a9', 'a35', 'a23', 'a33', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  2.0) &amp; (morpho_quality &lt;=  17.0) =&gt; (class &lt;= 3) ['a15', 'a31', 'a49', 'a28', 'a9', 'a42', 'a35', 'a46', 'a23', 'a33', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  2.0) &amp; (morpho_quality &lt;=  15.0) =&gt; (class &lt;= 3) ['a31', 'a49', 'a28', 'a9', 'a42', 'a35', 'a23', 'a33', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  2.0) &amp; (morpho_quality &lt;=  18.0) =&gt; (class &lt;= 3) ['a15', 'a31', 'a49', 'a28', 'a9', 'a42', 'a35', 'a46', 'a23', 'a33', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  2.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 3) ['a28', 'a9', 'a23', 'a33', 'a49']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  2.0) &amp; (morpho_quality &lt;=  19.0) =&gt; (class &lt;= 3) ['a15', 'a31', 'a49', 'a28', 'a9', 'a42', 'a35', 'a46', 'a23', 'a33', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  4.0) &amp; (develop_quality &lt;=  5.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a43', 'a11', 'a46', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (develop_quality &lt;=  5.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a42', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a51', 'a14', 'a49', 'a50', 'a26', 'a28', 'a9', 'a38', 'a3', 'a32', 'a25', 'a20', 'a48', 'a43', 'a11', 'a46', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  2.0) &amp; (develop_quality &lt;=  5.0) =&gt; (class &lt;= 3) ['a15', 'a31', 'a49', 'a28', 'a9', 'a42', 'a35', 'a46', 'a23', 'a33', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  3.0) &amp; (morpho_quality &lt;=  16.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a51', 'a49', 'a50', 'a26', 'a28', 'a9', 'a41', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  3.0) &amp; (morpho_quality &lt;=  20.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  3.0) &amp; (morpho_quality &lt;=  14.0) =&gt; (class &lt;= 3) ['a19', 'a24', 'a30', 'a12', 'a21', 'a33', 'a5', 'a44', 'a35', 'a17', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a36', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  3.0) &amp; (morpho_quality &lt;=  17.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a51', 'a49', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  3.0) &amp; (morpho_quality &lt;=  15.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a29', 'a44', 'a35', 'a17', 'a47', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a36', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  3.0) &amp; (morpho_quality &lt;=  18.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  3.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 3) ['a24', 'a30', 'a33', 'a5', 'a17', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a7', 'a40', 'a25', 'a45', 'a4', 'a11', 'a43', 'a36', 'a23']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  3.0) &amp; (morpho_quality &lt;=  19.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  3.0) &amp; (develop_quality &lt;=  5.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  2.0) &amp; (woman_eval &lt;=  4.0) =&gt; (class &lt;= 3) ['a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a26', 'a28', 'a9', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a20', 'a40', 'a48', 'a43', 'a11', 'a46', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  2.0) &amp; (woman_eval &lt;=  5.0) =&gt; (class &lt;= 3) ['a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a26', 'a28', 'a9', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a43', 'a11', 'a37', 'a36', 'a46', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  2.0) &amp; (woman_eval &lt;=  6.0) =&gt; (class &lt;= 3) ['a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a26', 'a28', 'a9', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  2.0) &amp; (woman_eval &lt;=  3.0) =&gt; (class &lt;= 3) ['a42', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a51', 'a14', 'a49', 'a26', 'a28', 'a9', 'a38', 'a3', 'a32', 'a25', 'a20', 'a48', 'a43', 'a11', 'a46', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  3.0) &amp; (woman_eval &lt;=  4.0) =&gt; (class &lt;= 3) ['a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a26', 'a28', 'a9', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a20', 'a48', 'a43', 'a11', 'a46', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  3.0) &amp; (woman_eval &lt;=  5.0) =&gt; (class &lt;= 3) ['a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a26', 'a28', 'a9', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a20', 'a48', 'a43', 'a11', 'a37', 'a36', 'a46', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  3.0) &amp; (woman_eval &lt;=  6.0) =&gt; (class &lt;= 3) ['a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a26', 'a28', 'a9', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a20', 'a48', 'a45', 'a43', 'a11', 'a37', 'a36', 'a46', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  1.0) &amp; (woman_eval &lt;=  4.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a43', 'a11', 'a46', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  1.0) &amp; (woman_eval &lt;=  5.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a43', 'a11', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  1.0) &amp; (woman_eval &lt;=  6.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  1.0) &amp; (woman_eval &lt;=  3.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a42', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a35', 'a51', 'a14', 'a49', 'a50', 'a26', 'a28', 'a9', 'a38', 'a3', 'a32', 'a25', 'a20', 'a48', 'a43', 'a11', 'a46', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  1.0) &amp; (woman_eval &lt;=  2.0) =&gt; (class &lt;= 3) ['a15', 'a31', 'a49', 'a28', 'a9', 'a42', 'a35', 'a46', 'a23', 'a33', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  2.0) &amp; (sperm &lt;=  3.0) =&gt; (class &lt;= 3) ['a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a26', 'a28', 'a9', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  1.0) &amp; (sperm &lt;=  3.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  2.0) &amp; (morpho_quality &lt;=  16.0) =&gt; (class &lt;= 3) ['a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  2.0) &amp; (morpho_quality &lt;=  20.0) =&gt; (class &lt;= 3) ['a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a26', 'a28', 'a9', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  2.0) &amp; (morpho_quality &lt;=  14.0) =&gt; (class &lt;= 3) ['a30', 'a12', 'a21', 'a33', 'a5', 'a44', 'a35', 'a17', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a36', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  2.0) &amp; (morpho_quality &lt;=  17.0) =&gt; (class &lt;= 3) ['a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  2.0) &amp; (morpho_quality &lt;=  15.0) =&gt; (class &lt;= 3) ['a6', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a29', 'a44', 'a35', 'a17', 'a47', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a36', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  2.0) &amp; (morpho_quality &lt;=  18.0) =&gt; (class &lt;= 3) ['a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a26', 'a28', 'a9', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  2.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 3) ['a49', 'a26', 'a28', 'a9', 'a45', 'a30', 'a4', 'a11', 'a41', 'a43', 'a36', 'a17', 'a51', 'a33', 'a5', 'a7', 'a40', 'a25']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  2.0) &amp; (morpho_quality &lt;=  19.0) =&gt; (class &lt;= 3) ['a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a26', 'a28', 'a9', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  3.0) &amp; (morpho_quality &lt;=  16.0) =&gt; (class &lt;= 3) ['a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a47', 'a16', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a38', 'a7', 'a3', 'a32', 'a25', 'a45', 'a43', 'a11', 'a37', 'a36', 'a46', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  3.0) &amp; (morpho_quality &lt;=  20.0) =&gt; (class &lt;= 3) ['a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a26', 'a28', 'a9', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a20', 'a48', 'a45', 'a43', 'a11', 'a37', 'a36', 'a46', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  3.0) &amp; (morpho_quality &lt;=  14.0) =&gt; (class &lt;= 3) ['a30', 'a12', 'a21', 'a33', 'a44', 'a35', 'a17', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a7', 'a3', 'a32', 'a25', 'a45', 'a43', 'a11', 'a36', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  3.0) &amp; (morpho_quality &lt;=  17.0) =&gt; (class &lt;= 3) ['a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a47', 'a16', 'a18', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a45', 'a43', 'a11', 'a37', 'a36', 'a46', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  3.0) &amp; (morpho_quality &lt;=  15.0) =&gt; (class &lt;= 3) ['a6', 'a42', 'a30', 'a12', 'a21', 'a33', 'a29', 'a44', 'a35', 'a17', 'a47', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a7', 'a3', 'a32', 'a25', 'a45', 'a43', 'a11', 'a36', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  3.0) &amp; (morpho_quality &lt;=  18.0) =&gt; (class &lt;= 3) ['a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a26', 'a28', 'a9', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a45', 'a43', 'a11', 'a37', 'a36', 'a46', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  3.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 3) ['a26', 'a28', 'a9', 'a45', 'a30', 'a43', 'a11', 'a41', 'a36', 'a17', 'a51', 'a33', 'a49', 'a7', 'a25']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  3.0) &amp; (morpho_quality &lt;=  19.0) =&gt; (class &lt;= 3) ['a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a26', 'a28', 'a9', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a48', 'a45', 'a43', 'a11', 'a37', 'a36', 'a46', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  1.0) &amp; (morpho_quality &lt;=  16.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a51', 'a49', 'a50', 'a26', 'a28', 'a9', 'a41', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  1.0) &amp; (morpho_quality &lt;=  20.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  1.0) &amp; (morpho_quality &lt;=  14.0) =&gt; (class &lt;= 3) ['a19', 'a24', 'a30', 'a12', 'a21', 'a33', 'a5', 'a44', 'a35', 'a17', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a36', 'a23', 'a6', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  1.0) &amp; (morpho_quality &lt;=  17.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a51', 'a49', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  1.0) &amp; (morpho_quality &lt;=  15.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a29', 'a44', 'a35', 'a17', 'a47', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a36', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  1.0) &amp; (morpho_quality &lt;=  18.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  1.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 3) ['a24', 'a30', 'a33', 'a5', 'a17', 'a51', 'a49', 'a26', 'a28', 'a9', 'a41', 'a7', 'a40', 'a25', 'a45', 'a4', 'a11', 'a43', 'a36', 'a23']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  1.0) &amp; (morpho_quality &lt;=  19.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  2.0) &amp; (develop_quality &lt;=  5.0) =&gt; (class &lt;= 3) ['a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a26', 'a28', 'a9', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  3.0) &amp; (develop_quality &lt;=  5.0) =&gt; (class &lt;= 3) ['a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a26', 'a28', 'a9', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a25', 'a20', 'a48', 'a45', 'a43', 'a11', 'a37', 'a36', 'a46', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  1.0) &amp; (develop_quality &lt;=  5.0) =&gt; (class &lt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  28.0) =&gt; (class &gt;= 3) ['a44', 'a42', 'a4', 'a10', 'a2', 'a14', 'a25']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) =&gt; (class &gt;= 3) ['a7', 'a45', 'a12', 'a1', 'a2', 'a3']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a19', 'a24', 'a27', 'a4', 'a10', 'a23', 'a2', 'a5', 'a40']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a45', 'a4', 'a39', 'a37', 'a36', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a30', 'a12', 'a21', 'a33', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  20.0) =&gt; (class &gt;= 3) ['a2', 'a20']</t>
-  </si>
-  <si>
-    <t>(develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a31', 'a42', 'a15', 'a39', 'a35', 'a10', 'a18', 'a28', 'a27', 'a8', 'a32', 'a40', 'a48', 'a20', 'a37', 'a36', 'a46', 'a2', 'a6']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  6.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  1.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  3.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a30', 'a12', 'a21', 'a33', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a3', 'a32', 'a40', 'a20', 'a25', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a6', 'a34', 'a42', 'a12', 'a21', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a10', 'a47', 'a16', 'a18', 'a14', 'a50', 'a27', 'a8', 'a38', 'a3', 'a32', 'a20', 'a48', 'a37', 'a46', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a34', 'a42', 'a30', 'a21', 'a15', 'a29', 'a44', 'a39', 'a35', 'a17', 'a10', 'a47', 'a18', 'a14', 'a51', 'a50', 'a28', 'a27', 'a8', 'a38', 'a3', 'a32', 'a40', 'a25', 'a20', 'a48', 'a37', 'a36', 'a46', 'a2', 'a6']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  6.0) =&gt; (class &gt;= 3) ['a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  6.0) =&gt; (class &gt;= 3) ['a45', 'a4']</t>
-  </si>
-  <si>
-    <t>(develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a21', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a51', 'a50', 'a28', 'a27', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a4', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  30.0) =&gt; (class &gt;= 3) ['a15', 'a44', 'a45', 'a25', 'a18', 'a4', 'a42', 'a10', 'a2', 'a14', 'a7', 'a20']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a34', 'a30', 'a39', 'a1', 'a17', 'a10', 'a47', 'a16', 'a18', 'a27', 'a41', 'a8', 'a7', 'a40', 'a45', 'a4', 'a37', 'a36', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  33.0) =&gt; (class &gt;= 3) ['a19', 'a42', 'a30', 'a21', 'a15', 'a44', 'a10', 'a47', 'a16', 'a18', 'a14', 'a50', 'a26', 'a8', 'a7', 'a32', 'a25', 'a20', 'a45', 'a4', 'a37', 'a46', 'a2']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) =&gt; (class &gt;= 3) ['a12', 'a39', 'a1', 'a10', 'a47', 'a18', 'a14', 'a49', 'a8', 'a38', 'a7', 'a3', 'a48', 'a25', 'a45', 'a43', 'a46', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  4.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a6', 'a42', 'a12', 'a5', 'a15', 'a29', 'a44', 'a39', 'a35', 'a17', 'a10', 'a47', 'a18', 'a14', 'a50', 'a28', 'a27', 'a8', 'a38', 'a32', 'a40', 'a25', 'a20', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  17.0) =&gt; (class &gt;= 3) ['a27', 'a18', 'a39', 'a8', 'a48', 'a2', 'a14', 'a20']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  36.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a42', 'a30', 'a12', 'a21', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a10', 'a47', 'a16', 'a18', 'a14', 'a50', 'a26', 'a28', 'a9', 'a8', 'a38', 'a7', 'a32', 'a40', 'a25', 'a20', 'a45', 'a4', 'a43', 'a37', 'a46', 'a2']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) =&gt; (class &gt;= 3) ['a19', 'a24', 'a34', 'a12', 'a33', 'a5', 'a15', 'a44', 'a39', 'a1', 'a35', 'a10', 'a47', 'a18', 'a14', 'a49', 'a50', 'a26', 'a28', 'a9', 'a8', 'a38', 'a7', 'a3', 'a40', 'a20', 'a25', 'a48', 'a45', 'a43', 'a11', 'a37', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a8', 'a38', 'a32', 'a40', 'a20', 'a25', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  2.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a32', 'a40', 'a20', 'a25', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a4', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  27.0) =&gt; (class &gt;= 3) ['a14', 'a10', 'a42']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a34', 'a27', 'a18', 'a39', 'a1', 'a8', 'a37', 'a48', 'a10', 'a46', 'a16', 'a2', 'a14', 'a38', 'a20']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a19', 'a24', 'a6', 'a34', 'a30', 'a12', 'a21', 'a5', 'a29', 'a44', 'a39', 'a1', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a51', 'a50', 'a26', 'a27', 'a41', 'a8', 'a38', 'a7', 'a32', 'a40', 'a20', 'a25', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  37.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a34', 'a42', 'a30', 'a12', 'a21', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a10', 'a47', 'a16', 'a18', 'a14', 'a50', 'a26', 'a28', 'a9', 'a27', 'a8', 'a38', 'a7', 'a32', 'a40', 'a25', 'a20', 'a45', 'a4', 'a43', 'a37', 'a46', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a31', 'a34', 'a42', 'a15', 'a29', 'a39', 'a1', 'a10', 'a47', 'a16', 'a18', 'a14', 'a50', 'a27', 'a8', 'a38', 'a20', 'a48', 'a37', 'a46', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a42', 'a5', 'a15', 'a29', 'a39', 'a35', 'a17', 'a10', 'a47', 'a18', 'a14', 'a50', 'a28', 'a27', 'a40', 'a25', 'a20', 'a48', 'a45', 'a4', 'a43', 'a46', 'a23', 'a2']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  18.0) =&gt; (class &gt;= 3) ['a20', 'a39', 'a2', 'a14', 'a48']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  4.0) =&gt; (class &gt;= 3) ['a19', 'a24', 'a6', 'a34', 'a12', 'a33', 'a5', 'a15', 'a44', 'a39', 'a1', 'a35', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a8', 'a38', 'a7', 'a3', 'a40', 'a20', 'a25', 'a48', 'a45', 'a43', 'a11', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  32.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a19', 'a44', 'a45', 'a25', 'a18', 'a4', 'a42', 'a10', 'a46', 'a2', 'a14', 'a7', 'a20']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a19', 'a24', 'a27', 'a23']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  12.0) =&gt; (class &gt;= 3) ['a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(develop_quality &gt;=  1.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  34.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a42', 'a30', 'a21', 'a15', 'a44', 'a35', 'a10', 'a47', 'a16', 'a18', 'a14', 'a50', 'a26', 'a28', 'a8', 'a38', 'a7', 'a32', 'a40', 'a25', 'a20', 'a45', 'a4', 'a43', 'a37', 'a46', 'a2']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a12', 'a21', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a27', 'a41', 'a8', 'a38', 'a3', 'a32', 'a40', 'a20', 'a25', 'a48', 'a45', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a6', 'a34', 'a42', 'a12', 'a21', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a27', 'a8', 'a38', 'a3', 'a32', 'a40', 'a25', 'a20', 'a48', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a6', 'a34', 'a42', 'a12', 'a21', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a50', 'a28', 'a27', 'a8', 'a38', 'a3', 'a32', 'a40', 'a20', 'a48', 'a37', 'a36', 'a46', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  13.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  5.0) =&gt; (class &gt;= 3) ['a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a33', 'a5', 'a15', 'a44', 'a39', 'a1', 'a35', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a43', 'a11', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  35.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a42', 'a30', 'a21', 'a15', 'a44', 'a39', 'a35', 'a10', 'a47', 'a16', 'a18', 'a14', 'a50', 'a26', 'a28', 'a8', 'a38', 'a7', 'a32', 'a40', 'a25', 'a20', 'a45', 'a4', 'a43', 'a37', 'a46', 'a2']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  19.0) =&gt; (class &gt;= 3) ['a2', 'a48', 'a39', 'a20']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  7.0) =&gt; (class &gt;= 3) ['a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  31.0) =&gt; (class &gt;= 3) ['a15', 'a44', 'a45', 'a25', 'a18', 'a4', 'a42', 'a10', 'a46', 'a2', 'a14', 'a7', 'a20']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (oocytes &lt;=  6.0) =&gt; (class &gt;= 3) ['a7', 'a45', 'a12', 'a1', 'a2', 'a3']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (oocytes &lt;=  4.0) =&gt; (class &gt;= 3) ['a45', 'a2', 'a12']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a45', 'a2', 'a12']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (oocytes &lt;=  3.0) =&gt; (class &gt;= 3) ['a45', 'a2']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (oocytes &lt;=  6.0) =&gt; (class &gt;= 3) ['a12', 'a39', 'a1', 'a10', 'a47', 'a18', 'a14', 'a49', 'a8', 'a38', 'a7', 'a3', 'a48', 'a25', 'a45', 'a43', 'a46', 'a2', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (oocytes &lt;=  4.0) =&gt; (class &gt;= 3) ['a45', 'a18', 'a12', 'a39', 'a43', 'a8', 'a48', 'a10', 'a46', 'a2', 'a13', 'a38', 'a14', 'a47', 'a25']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a49', 'a45', 'a18', 'a12', 'a39', 'a43', 'a8', 'a48', 'a10', 'a46', 'a2', 'a13', 'a38', 'a14', 'a47', 'a25']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (oocytes &lt;=  3.0) =&gt; (class &gt;= 3) ['a45', 'a18', 'a39', 'a43', 'a48', 'a10', 'a46', 'a2', 'a14', 'a47', 'a25']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  4.0) =&gt; (class &gt;= 3) ['a19', 'a24', 'a12', 'a5', 'a15', 'a44', 'a39', 'a35', 'a10', 'a47', 'a18', 'a14', 'a50', 'a28', 'a8', 'a38', 'a40', 'a25', 'a20', 'a48', 'a45', 'a43', 'a11', 'a37', 'a46', 'a23', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a19', 'a24', 'a34', 'a12', 'a33', 'a5', 'a15', 'a44', 'a39', 'a35', 'a10', 'a47', 'a18', 'a14', 'a49', 'a50', 'a26', 'a28', 'a9', 'a8', 'a38', 'a40', 'a25', 'a20', 'a48', 'a45', 'a43', 'a11', 'a37', 'a46', 'a23', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a45', 'a2']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a1', 'a2', 'a7', 'a45']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (woman_eval &gt;=  2.0) =&gt; (class &gt;= 3) ['a45', 'a12', 'a1', 'a2', 'a7']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a45', 'a12', 'a1', 'a2', 'a7']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a45', 'a2', 'a13', 'a39']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a45', 'a18', 'a39', 'a1', 'a8', 'a10', 'a47', 'a2', 'a13', 'a7']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a14', 'a45', 'a18', 'a12', 'a39', 'a43', 'a1', 'a8', 'a48', 'a10', 'a47', 'a2', 'a13', 'a38', 'a7', 'a25']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a45', 'a39', 'a37', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a34', 'a45', 'a18', 'a39', 'a1', 'a8', 'a37', 'a10', 'a47', 'a2', 'a13', 'a7', 'a40']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  4.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a45', 'a39', 'a37', 'a36', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a7', 'a45', 'a12', 'a1', 'a2', 'a3']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (sperm &gt;=  3.0) =&gt; (class &gt;= 3) ['a1', 'a12', 'a3', 'a45']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (sperm &gt;=  3.0) =&gt; (class &gt;= 3) ['a49', 'a14', 'a45', 'a12', 'a39', 'a43', 'a1', 'a8', 'a38', 'a48', 'a10', 'a46', 'a18', 'a13', 'a22', 'a3', 'a47', 'a25']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a2', 'a3']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a1', 'a2', 'a3', 'a7']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a7', 'a12', 'a1', 'a2', 'a3']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a18', 'a39', 'a8', 'a10', 'a46', 'a2', 'a48']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a18', 'a39', 'a8', 'a48', 'a10', 'a46', 'a2', 'a14', 'a38', 'a3', 'a47', 'a25']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a14', 'a7', 'a18', 'a39', 'a43', 'a1', 'a8', 'a48', 'a10', 'a46', 'a2', 'a13', 'a38', 'a3', 'a47', 'a25']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a15', 'a28', 'a18', 'a39', 'a8', 'a37', 'a35', 'a48', 'a10', 'a46', 'a2', 'a40', 'a20']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a19', 'a34', 'a15', 'a44', 'a39', 'a35', 'a10', 'a47', 'a18', 'a14', 'a50', 'a28', 'a8', 'a38', 'a3', 'a40', 'a25', 'a20', 'a48', 'a37', 'a46', 'a2']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  4.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a15', 'a28', 'a18', 'a39', 'a8', 'a37', 'a35', 'a36', 'a48', 'a10', 'a46', 'a2', 'a6', 'a40', 'a20']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a1', 'a2', 'a12', 'a3']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (morpho_quality &gt;=  8.0) =&gt; (class &gt;= 3) ['a45', 'a12', 'a1', 'a2', 'a3']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a7', 'a45', 'a12', 'a1', 'a2', 'a3']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a45', 'a12', 'a1', 'a2', 'a3']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a45', 'a12', 'a1', 'a2', 'a3']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a1', 'a2', 'a12', 'a3']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a1', 'a2', 'a12', 'a3']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  6.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a34', 'a27', 'a18', 'a39', 'a1', 'a8', 'a37', 'a48', 'a10', 'a46', 'a16', 'a2', 'a14', 'a38', 'a20']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  6.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a34', 'a42', 'a15', 'a29', 'a39', 'a1', 'a10', 'a47', 'a16', 'a18', 'a14', 'a50', 'a27', 'a8', 'a38', 'a20', 'a48', 'a37', 'a46', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a14', 'a18', 'a12', 'a39', 'a1', 'a8', 'a38', 'a10', 'a46', 'a2', 'a13', 'a22', 'a3', 'a47', 'a48']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a18', 'a39', 'a1', 'a8', 'a10', 'a46', 'a2', 'a14', 'a38', 'a48']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a18', 'a39', 'a1', 'a8', 'a10', 'a46', 'a2', 'a13', 'a38', 'a14', 'a47', 'a48']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a49', 'a14', 'a18', 'a12', 'a39', 'a1', 'a8', 'a38', 'a48', 'a10', 'a46', 'a2', 'a13', 'a22', 'a3', 'a47', 'a25']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a14', 'a18', 'a12', 'a39', 'a1', 'a8', 'a38', 'a10', 'a46', 'a2', 'a13', 'a22', 'a3', 'a47', 'a48']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a34', 'a18', 'a39', 'a1', 'a8', 'a37', 'a48', 'a10', 'a46', 'a2', 'a14', 'a38', 'a20']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a34', 'a18', 'a39', 'a1', 'a8', 'a37', 'a48', 'a10', 'a46', 'a2', 'a13', 'a38', 'a14', 'a47', 'a20']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  4.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a34', 'a18', 'a39', 'a1', 'a8', 'a37', 'a48', 'a10', 'a46', 'a16', 'a2', 'a14', 'a38', 'a20']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  4.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a34', 'a18', 'a39', 'a1', 'a8', 'a37', 'a48', 'a10', 'a46', 'a16', 'a2', 'a13', 'a38', 'a14', 'a47', 'a20']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  12.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a34', 'a27', 'a18', 'a39', 'a1', 'a8', 'a37', 'a48', 'a10', 'a46', 'a16', 'a2', 'a14', 'a38', 'a20']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  12.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a34', 'a42', 'a15', 'a29', 'a39', 'a1', 'a10', 'a47', 'a16', 'a18', 'a14', 'a50', 'a27', 'a8', 'a38', 'a20', 'a48', 'a37', 'a46', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  13.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a34', 'a27', 'a18', 'a39', 'a1', 'a8', 'a37', 'a48', 'a10', 'a46', 'a16', 'a2', 'a14', 'a38', 'a20']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  13.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a31', 'a34', 'a42', 'a15', 'a29', 'a39', 'a1', 'a10', 'a47', 'a16', 'a18', 'a14', 'a50', 'a27', 'a8', 'a38', 'a20', 'a48', 'a37', 'a46', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a34', 'a18', 'a39', 'a1', 'a8', 'a37', 'a48', 'a10', 'a46', 'a16', 'a2', 'a14', 'a38', 'a20']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a34', 'a42', 'a15', 'a39', 'a1', 'a10', 'a47', 'a16', 'a18', 'a14', 'a50', 'a8', 'a38', 'a48', 'a20', 'a37', 'a46', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  7.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a34', 'a27', 'a18', 'a39', 'a1', 'a8', 'a37', 'a48', 'a10', 'a46', 'a16', 'a2', 'a14', 'a38', 'a20']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  7.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a34', 'a42', 'a15', 'a29', 'a39', 'a1', 'a10', 'a47', 'a16', 'a18', 'a14', 'a50', 'a27', 'a8', 'a38', 'a20', 'a48', 'a37', 'a46', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a2', 'a4']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a27', 'a4', 'a10', 'a2', 'a40']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a50', 'a19', 'a24', 'a27', 'a4', 'a10', 'a2', 'a5', 'a40']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  4.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a45', 'a4', 'a39', 'a37', 'a36', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a45', 'a2', 'a39', 'a4']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a45', 'a27', 'a18', 'a4', 'a39', 'a17', 'a10', 'a47', 'a2', 'a40']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (woman_eval &gt;=  2.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a19', 'a24', 'a27', 'a23']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a27', 'a50', 'a19', 'a24']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (sperm &gt;=  3.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a19', 'a24', 'a27', 'a4', 'a10', 'a23', 'a40']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a19', 'a24', 'a27', 'a23']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (sperm &gt;=  3.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a19', 'a24', 'a27', 'a23']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a31', 'a27', 'a10', 'a2', 'a40']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a19', 'a27', 'a10', 'a2', 'a40']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a19', 'a24', 'a27', 'a4', 'a10', 'a23', 'a2', 'a5', 'a40']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  4.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a31', 'a42', 'a15', 'a39', 'a35', 'a10', 'a18', 'a28', 'a27', 'a8', 'a32', 'a40', 'a48', 'a20', 'a37', 'a36', 'a46', 'a2', 'a6']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a15', 'a31', 'a28', 'a27', 'a18', 'a39', 'a42', 'a48', 'a35', 'a10', 'a46', 'a2', 'a40', 'a20']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a42', 'a15', 'a29', 'a39', 'a35', 'a17', 'a10', 'a47', 'a18', 'a14', 'a50', 'a28', 'a27', 'a40', 'a25', 'a20', 'a48', 'a46', 'a2']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a31', 'a27']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a31', 'a27', 'a50', 'a19']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a19', 'a24', 'a27', 'a23']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a19', 'a24', 'a27', 'a23']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a19', 'a27', 'a10', 'a2']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a2', 'a27', 'a50', 'a10']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a27', 'a10', 'a2']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a19', 'a24', 'a27', 'a10', 'a23', 'a2', 'a5', 'a40']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a19', 'a27', 'a10', 'a23', 'a2', 'a40']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a19', 'a27', 'a10', 'a2', 'a40']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  6.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a34', 'a27', 'a18', 'a39', 'a1', 'a8', 'a37', 'a48', 'a10', 'a46', 'a16', 'a2', 'a14', 'a38', 'a20']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  6.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a31', 'a34', 'a42', 'a15', 'a29', 'a39', 'a1', 'a10', 'a47', 'a16', 'a18', 'a14', 'a50', 'a27', 'a8', 'a38', 'a20', 'a48', 'a37', 'a46', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  4.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a27', 'a18', 'a39', 'a8', 'a37', 'a48', 'a10', 'a46', 'a2', 'a14', 'a38', 'a20']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  4.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a31', 'a42', 'a15', 'a29', 'a39', 'a10', 'a47', 'a18', 'a14', 'a50', 'a27', 'a8', 'a38', 'a48', 'a20', 'a37', 'a46', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a34', 'a27', 'a18', 'a39', 'a8', 'a37', 'a48', 'a10', 'a46', 'a16', 'a2', 'a14', 'a38', 'a20']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a31', 'a34', 'a42', 'a15', 'a29', 'a39', 'a10', 'a47', 'a16', 'a18', 'a14', 'a50', 'a27', 'a8', 'a38', 'a20', 'a48', 'a37', 'a46', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a15', 'a31', 'a50', 'a19', 'a29', 'a27', 'a18', 'a39', 'a42', 'a48', 'a35', 'a10', 'a46', 'a2', 'a14', 'a47', 'a20']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a27', 'a18', 'a39', 'a48', 'a10', 'a46', 'a2', 'a14', 'a20']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a15', 'a31', 'a50', 'a29', 'a27', 'a18', 'a39', 'a42', 'a48', 'a10', 'a46', 'a2', 'a14', 'a47', 'a20']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a31', 'a27', 'a50', 'a19']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a19', 'a24', 'a27', 'a23']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a27', 'a50']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a31', 'a27', 'a50']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a19', 'a24', 'a27', 'a23']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a31', 'a50', 'a19', 'a27', 'a23']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a31', 'a27', 'a50', 'a19']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  4.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a27', 'a18', 'a39', 'a8', 'a37', 'a36', 'a10', 'a2', 'a40']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  3.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a27', 'a18', 'a39', 'a8', 'a37', 'a36', 'a48', 'a10', 'a2', 'a6', 'a32', 'a40', 'a20']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a19', 'a34', 'a30', 'a21', 'a29', 'a44', 'a39', 'a17', 'a10', 'a47', 'a18', 'a14', 'a51', 'a50', 'a27', 'a8', 'a38', 'a32', 'a40', 'a25', 'a20', 'a48', 'a37', 'a36', 'a2', 'a6']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  5.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a2', 'a13', 'a39', 'a37']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  5.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a2', 'a39', 'a37']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  5.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a2', 'a13', 'a39', 'a37']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  5.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a45', 'a39', 'a37', 'a36', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  5.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a39', 'a37', 'a36', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  5.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a39', 'a37', 'a36', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  4.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a34', 'a27', 'a18', 'a39', 'a1', 'a8', 'a37', 'a10', 'a47', 'a16', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  4.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a34', 'a27', 'a18', 'a39', 'a1', 'a8', 'a37', 'a10', 'a16', 'a2']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  4.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a34', 'a27', 'a18', 'a39', 'a1', 'a8', 'a37', 'a10', 'a47', 'a16', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  4.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a34', 'a45', 'a27', 'a18', 'a39', 'a41', 'a1', 'a8', 'a37', 'a36', 'a17', 'a10', 'a47', 'a16', 'a2', 'a13', 'a40']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  4.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a34', 'a27', 'a18', 'a39', 'a1', 'a8', 'a37', 'a36', 'a17', 'a10', 'a47', 'a16', 'a2', 'a13', 'a40']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  4.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a34', 'a27', 'a18', 'a39', 'a1', 'a8', 'a37', 'a36', 'a17', 'a10', 'a47', 'a16', 'a2', 'a13', 'a40']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  3.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a50', 'a34', 'a27', 'a18', 'a39', 'a1', 'a8', 'a37', 'a48', 'a10', 'a16', 'a2', 'a14', 'a38', 'a20']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  3.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a50', 'a29', 'a34', 'a27', 'a18', 'a39', 'a1', 'a8', 'a37', 'a48', 'a10', 'a47', 'a16', 'a2', 'a13', 'a38', 'a14', 'a20']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  2.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a15', 'a31', 'a28', 'a27', 'a18', 'a39', 'a8', 'a37', 'a35', 'a36', 'a48', 'a10', 'a46', 'a2', 'a6', 'a32', 'a40', 'a20']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  2.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a34', 'a30', 'a21', 'a15', 'a29', 'a44', 'a39', 'a35', 'a17', 'a10', 'a47', 'a18', 'a14', 'a51', 'a50', 'a28', 'a27', 'a8', 'a38', 'a3', 'a32', 'a40', 'a25', 'a20', 'a48', 'a37', 'a36', 'a46', 'a2', 'a6']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  2.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a30', 'a21', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a51', 'a50', 'a28', 'a27', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a4', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  3.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a15', 'a31', 'a28', 'a27', 'a39', 'a8', 'a37', 'a35', 'a36', 'a48', 'a10', 'a46', 'a18', 'a6', 'a32', 'a40', 'a20']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a34', 'a30', 'a21', 'a15', 'a29', 'a44', 'a39', 'a35', 'a17', 'a10', 'a47', 'a18', 'a14', 'a51', 'a50', 'a28', 'a27', 'a8', 'a38', 'a3', 'a32', 'a40', 'a25', 'a20', 'a48', 'a37', 'a36', 'a46', 'a6']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a31', 'a42', 'a15', 'a39', 'a35', 'a10', 'a18', 'a28', 'a27', 'a8', 'a32', 'a40', 'a48', 'a20', 'a37', 'a36', 'a46', 'a2', 'a6']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a34', 'a42', 'a30', 'a21', 'a15', 'a29', 'a44', 'a39', 'a35', 'a17', 'a10', 'a47', 'a18', 'a14', 'a51', 'a50', 'a28', 'a27', 'a8', 'a38', 'a3', 'a32', 'a40', 'a25', 'a20', 'a48', 'a37', 'a36', 'a46', 'a2', 'a6']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a21', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a51', 'a50', 'a28', 'a27', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a4', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) &amp; (develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a24', 'a6', 'a34', 'a42', 'a30', 'a12', 'a21', 'a33', 'a5', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a8', 'a38', 'a7', 'a3', 'a32', 'a20', 'a25', 'a40', 'a48', 'a4', 'a43', 'a37', 'a36', 'a46', 'a23', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  2.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a34', 'a27', 'a18', 'a39', 'a1', 'a8', 'a37', 'a48', 'a10', 'a46', 'a16', 'a2', 'a14', 'a38', 'a20']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  2.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a31', 'a34', 'a15', 'a29', 'a39', 'a1', 'a10', 'a47', 'a16', 'a18', 'a14', 'a50', 'a27', 'a8', 'a38', 'a20', 'a48', 'a37', 'a46', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  3.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a31', 'a19', 'a6', 'a34', 'a12', 'a21', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a10', 'a47', 'a16', 'a18', 'a14', 'a50', 'a27', 'a8', 'a38', 'a3', 'a32', 'a20', 'a48', 'a37', 'a46', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  3.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a34', 'a27', 'a39', 'a1', 'a8', 'a37', 'a48', 'a10', 'a46', 'a16', 'a18', 'a14', 'a38', 'a20']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  3.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a31', 'a34', 'a15', 'a29', 'a39', 'a1', 'a10', 'a47', 'a16', 'a18', 'a14', 'a50', 'a27', 'a8', 'a38', 'a48', 'a20', 'a37', 'a46', 'a13']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) &amp; (morpho_quality &gt;=  16.0) =&gt; (class &gt;= 3) ['a15', 'a50', 'a34', 'a27', 'a18', 'a39', 'a1', 'a8', 'a37', 'a48', 'a10', 'a46', 'a16', 'a2', 'a14', 'a38', 'a20']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a31', 'a34', 'a42', 'a15', 'a29', 'a39', 'a1', 'a10', 'a47', 'a16', 'a18', 'a14', 'a50', 'a27', 'a8', 'a38', 'a20', 'a48', 'a37', 'a46', 'a2', 'a13']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) =&gt; (class &gt;= 2) ['a7', 'a45', 'a12', 'a1', 'a2', 'a3']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  3.0) =&gt; (class &gt;= 2) ['a31', 'a19', 'a24', 'a6', 'a34', 'a30', 'a12', 'a21', 'a33', 'a15', 'a29', 'a44', 'a39', 'a1', 'a35', 'a17', 'a10', 'a47', 'a16', 'a18', 'a14', 'a49', 'a51', 'a50', 'a26', 'a28', 'a9', 'a27', 'a41', 'a8', 'a38', 'a3', 'a32', 'a40', 'a20', 'a25', 'a48', 'a45', 'a4', 'a11', 'a43', 'a37', 'a36', 'a46', 'a23', 'a13', 'a22']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  20.0) =&gt; (class &gt;= 2) ['a2', 'a20']</t>
-  </si>
-  <si>
-    <t>(develop_quality &gt;=  5.0) =&gt; (class &gt;= 2) ['a31', 'a42', 'a15', 'a39', 'a35', 'a10', 'a18', 'a28', 'a27', 'a8', 'a32', 'a40', 'a48', 'a20', 'a37', 'a36', 'a46', 'a2', 'a6']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  6.0) =&gt; (class &gt;= 2) ['a45', 'a4']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  27.0) =&gt; (class &gt;= 2) ['a14', 'a10', 'a42']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) =&gt; (class &gt;= 2) ['a31', 'a50', 'a19', 'a24', 'a27', 'a23']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (sperm &gt;=  3.0) =&gt; (class &gt;= 2) ['a31', 'a50', 'a19', 'a24', 'a27', 'a23']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &gt;= 2) ['a31', 'a50', 'a19', 'a24', 'a27', 'a23']</t>
+    <t>(age &gt;=  42.0) =&gt; (class &lt;= 2) ['a5', 'a6']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  39.0) =&gt; (class &lt;= 2) ['a51', 'a49', 'a11', 'a48', 'a5', 'a6', 'a33', 'a23']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  38.0) =&gt; (class &lt;= 2) ['a51', 'a41', 'a49', 'a11', 'a36', 'a48', 'a3', 'a5', 'a6', 'a33', 'a17', 'a23']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a11', 'a7', 'a4', 'a33', 'a9', 'a30']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 2) ['a28', 'a41', 'a51', 'a11', 'a24', 'a40', 'a36', 'a5', 'a26', 'a4', 'a33', 'a9', 'a17', 'a30', 'a23']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  12.0) =&gt; (class &lt;= 2) ['a51', 'a41', 'a11', 'a24', 'a5', 'a26', 'a4', 'a33', 'a9', 'a30', 'a23']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a11', 'a4', 'a33', 'a9', 'a30']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a11', 'a4', 'a33']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  4.0) &amp; (morpho_quality &lt;=  14.0) =&gt; (class &lt;= 2) ['a51', 'a41', 'a32', 'a36', 'a6', 'a4', 'a17', 'a21', 'a30']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  4.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 2) ['a51', 'a41', 'a36', 'a4', 'a17', 'a30']</t>
+  </si>
+  <si>
+    <t>(oocytes &gt;=  4.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 2) ['a51', 'a41', 'a49', 'a11', 'a36', 'a9', 'a7', 'a33', 'a26', 'a30']</t>
+  </si>
+  <si>
+    <t>(oocytes &gt;=  3.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a11', 'a7', 'a33', 'a9', 'a30']</t>
+  </si>
+  <si>
+    <t>(oocytes &gt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a7', 'a11', 'a33']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  11.0) =&gt; (class &lt;= 2) ['a11', 'a24', 'a43', 'a5', 'a33', 'a9']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a11', 'a33', 'a9']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a11', 'a33']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  2.0) &amp; (morpho_quality &lt;=  12.0) =&gt; (class &lt;= 2) ['a49', 'a23', 'a33', 'a9']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  5.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a11', 'a7', 'a33', 'a9', 'a30']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  5.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a7', 'a11', 'a33']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  1.0) =&gt; (class &lt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(sperm &lt;=  3.0) =&gt; (class &lt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(sperm &lt;=  2.0) =&gt; (class &lt;= 3) ['a5', 'a7', 'a2', 'a42']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &lt;=  20.0) =&gt; (class &lt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(develop_quality &lt;=  5.0) =&gt; (class &lt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(develop_quality &lt;=  4.0) =&gt; (class &lt;= 3) ['a11', 'a43', 'a3', 'a50', 'a1', 'a45', 'a34', 'a23', 'a5', 'a29', 'a17', 'a13', 'a38', 'a51', 'a22', 'a49', 'a24', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a25', 'a19', 'a47', 'a12', 'a44', 'a26', 'a21']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  6.0) =&gt; (class &lt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  4.0) =&gt; (class &lt;= 3) ['a51', 'a41', 'a32', 'a36', 'a27', 'a29', 'a6', 'a4', 'a17', 'a31', 'a16', 'a42', 'a21', 'a30']</t>
+  </si>
+  <si>
+    <t>(oocytes &gt;=  4.0) =&gt; (class &lt;= 3) ['a11', 'a3', 'a6', 'a1', 'a34', 'a8', 'a32', 'a13', 'a38', 'a51', 'a22', 'a49', 'a7', 'a33', 'a9', 'a16', 'a30', 'a41', 'a36', 'a37', 'a12', 'a44', 'a26', 'a21']</t>
+  </si>
+  <si>
+    <t>(oocytes &gt;=  1.0) =&gt; (class &lt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &lt;=  12.0) =&gt; (class &lt;= 3) ['a51', 'a41', 'a49', 'a11', 'a25', 'a24', 'a43', 'a5', 'a7', 'a26', 'a4', 'a33', 'a9', 'a45', 'a30', 'a23']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  35.0) =&gt; (class &lt;= 3) ['a11', 'a3', 'a27', 'a6', 'a1', 'a39', 'a34', 'a23', 'a5', 'a29', 'a17', 'a13', 'a51', 'a22', 'a49', 'a48', 'a33', 'a9', 'a41', 'a36', 'a12']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  26.0) =&gt; (class &lt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  1.0) &amp; (oocytes &gt;=  2.0) =&gt; (class &lt;= 3) ['a28', 'a11', 'a43', 'a3', 'a1', 'a6', 'a45', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  2.0) &amp; (sperm &lt;=  3.0) =&gt; (class &lt;= 3) ['a28', 'a22', 'a49', 'a15', 'a3', 'a31', 'a33', 'a9', 'a42', 'a46', 'a35', 'a23']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  4.0) &amp; (develop_quality &lt;=  5.0) =&gt; (class &lt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a40', 'a8', 'a34', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a35', 'a38', 'a51', 'a22', 'a49', 'a24', 'a48', 'a7', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a2', 'a37', 'a36', 'a4', 'a45', 'a39', 'a13']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26', 'a21']</t>
+  </si>
+  <si>
+    <t>(develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a28', 'a27', 'a6', 'a31', 'a40', 'a39', 'a8', 'a20', 'a32', 'a10', 'a46', 'a35', 'a2', 'a48', 'a18', 'a36', 'a37', 'a15', 'a42']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  6.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  1.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a39', 'a8', 'a34', 'a20', 'a32', 'a10', 'a29', 'a46', 'a13', 'a35', 'a38', 'a22', 'a2', 'a48', 'a16', 'a14', 'a18', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a27', 'a6', 'a31', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a35', 'a38', 'a51', 'a2', 'a48', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a42', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  6.0) =&gt; (class &gt;= 3) ['a4', 'a45']</t>
+  </si>
+  <si>
+    <t>(develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a2', 'a24', 'a48', 'a7', 'a4', 'a16', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a42', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) =&gt; (class &gt;= 3) ['a43', 'a3', 'a1', 'a45', 'a39', 'a8', 'a10', 'a46', 'a13', 'a38', 'a22', 'a2', 'a49', 'a48', 'a7', 'a14', 'a18', 'a25', 'a47', 'a12']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  4.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a50', 'a27', 'a6', 'a31', 'a45', 'a39', 'a8', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a2', 'a24', 'a48', 'a4', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  17.0) =&gt; (class &gt;= 3) ['a18', 'a2', 'a20', 'a48', 'a27', 'a39', 'a8', 'a14']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a33', 'a9', 'a14', 'a18', 'a25', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a50', 'a27', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a49', 'a2', 'a24', 'a48', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a49', 'a2', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a50', 'a27', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a13', 'a35', 'a38', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a30', 'a18', 'a25', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a50', 'a27', 'a1', 'a31', 'a39', 'a34', 'a8', 'a20', 'a10', 'a29', 'a46', 'a13', 'a38', 'a2', 'a48', 'a16', 'a14', 'a18', 'a37', 'a15', 'a47', 'a42']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a50', 'a27', 'a31', 'a45', 'a39', 'a40', 'a23', 'a20', 'a10', 'a5', 'a29', 'a46', 'a17', 'a35', 'a2', 'a24', 'a48', 'a4', 'a14', 'a18', 'a25', 'a19', 'a15', 'a47', 'a42']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  4.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a33', 'a9', 'a16', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  32.0) =&gt; (class &gt;= 3) ['a18', 'a2', 'a25', 'a20', 'a19', 'a15', 'a50', 'a10', 'a7', 'a4', 'a42', 'a44', 'a45', 'a46', 'a14']</t>
+  </si>
+  <si>
+    <t>(develop_quality &gt;=  1.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a16', 'a14', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a48', 'a16', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a22', 'a2', 'a48', 'a16', 'a14', 'a18', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  13.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  35.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a50', 'a31', 'a45', 'a39', 'a8', 'a40', 'a20', 'a32', 'a10', 'a46', 'a35', 'a38', 'a2', 'a24', 'a7', 'a4', 'a16', 'a14', 'a30', 'a18', 'a25', 'a37', 'a19', 'a15', 'a47', 'a42', 'a44', 'a26', 'a21']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  1.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a38', 'a18', 'a2', 'a25', 'a49', 'a43', 'a48', 'a10', 'a47', 'a12', 'a45', 'a46', 'a39', 'a8', 'a13', 'a14']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  4.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a50', 'a45', 'a39', 'a8', 'a40', 'a23', 'a20', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a2', 'a24', 'a48', 'a14', 'a18', 'a25', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a50', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a49', 'a2', 'a24', 'a48', 'a33', 'a9', 'a14', 'a18', 'a25', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  4.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a50', 'a6', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a51', 'a49', 'a2', 'a24', 'a48', 'a33', 'a9', 'a16', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (oocytes &lt;=  6.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a33', 'a9', 'a16', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  1.0) &amp; (woman_eval &gt;=  2.0) =&gt; (class &gt;= 3) ['a2', 'a7', 'a1', 'a12', 'a45']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a38', 'a18', 'a2', 'a25', 'a43', 'a48', 'a10', 'a7', 'a47', 'a1', 'a12', 'a45', 'a39', 'a8', 'a13', 'a14']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a2', 'a37', 'a45', 'a39', 'a13']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a18', 'a2', 'a40', 'a37', 'a10', 'a7', 'a34', 'a47', 'a1', 'a45', 'a39', 'a8', 'a13']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  4.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a2', 'a37', 'a36', 'a45', 'a39', 'a13']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a2', 'a3', 'a7', 'a1', 'a12', 'a45']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) &amp; (sperm &gt;=  3.0) =&gt; (class &gt;= 3) ['a38', 'a18', 'a22', 'a25', 'a49', 'a43', 'a48', 'a3', 'a10', 'a47', 'a1', 'a12', 'a45', 'a46', 'a39', 'a8', 'a13', 'a14']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  1.0) &amp; (develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a2', 'a3', 'a7', 'a1', 'a12']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a38', 'a18', 'a2', 'a25', 'a43', 'a48', 'a3', 'a10', 'a7', 'a47', 'a1', 'a46', 'a39', 'a8', 'a13', 'a14']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a40', 'a34', 'a39', 'a8', 'a20', 'a10', 'a46', 'a35', 'a38', 'a2', 'a48', 'a14', 'a18', 'a25', 'a37', 'a19', 'a15', 'a47', 'a44']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  4.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a28', 'a18', 'a2', 'a40', 'a20', 'a36', 'a37', 'a48', 'a15', 'a10', 'a6', 'a46', 'a39', 'a8', 'a35']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  6.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a33', 'a9', 'a14', 'a18', 'a25', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a22', 'a2', 'a49', 'a24', 'a48', 'a9', 'a14', 'a18', 'a25', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a1', 'a39', 'a34', 'a8', 'a40', 'a23', 'a20', 'a10', 'a46', 'a13', 'a35', 'a38', 'a22', 'a2', 'a49', 'a48', 'a14', 'a18', 'a25', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a1', 'a39', 'a34', 'a8', 'a40', 'a20', 'a10', 'a46', 'a13', 'a35', 'a38', 'a22', 'a2', 'a48', 'a14', 'a18', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  4.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a33', 'a9', 'a16', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  4.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a9', 'a16', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  12.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a27', 'a6', 'a1', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a22', 'a2', 'a48', 'a16', 'a14', 'a18', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a33', 'a9', 'a16', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a9', 'a16', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a16', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a6', 'a1', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a46', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a48', 'a16', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a6', 'a1', 'a39', 'a34', 'a8', 'a40', 'a20', 'a32', 'a10', 'a46', 'a13', 'a35', 'a38', 'a22', 'a2', 'a48', 'a16', 'a14', 'a18', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  7.0) &amp; (morpho_quality &gt;=  8.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  7.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  7.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a16', 'a14', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  7.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a27', 'a6', 'a1', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a48', 'a16', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a2', 'a27', 'a10', 'a4', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a39', 'a2', 'a4', 'a45']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a18', 'a2', 'a40', 'a39', 'a27', 'a10', 'a47', 'a4', 'a45', 'a17']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  1.0) &amp; (woman_eval &gt;=  2.0) =&gt; (class &gt;= 3) ['a24', 'a19', 'a50', 'a27', 'a31', 'a23']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  1.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a50', 'a19', 'a27', 'a24']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a24', 'a19', 'a50', 'a27', 'a31', 'a23']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a2', 'a19', 'a50', 'a27', 'a10', 'a31', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a2', 'a24', 'a19', 'a50', 'a27', 'a10', 'a5', 'a4', 'a31', 'a40', 'a23']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a28', 'a18', 'a2', 'a40', 'a20', 'a48', 'a15', 'a27', 'a10', 'a31', 'a42', 'a46', 'a39', 'a35']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a28', 'a50', 'a27', 'a31', 'a40', 'a39', 'a20', 'a10', 'a29', 'a46', 'a17', 'a35', 'a2', 'a48', 'a14', 'a18', 'a25', 'a19', 'a15', 'a47', 'a42']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  1.0) &amp; (develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a24', 'a19', 'a50', 'a27', 'a31', 'a23']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a2', 'a19', 'a50', 'a27', 'a10', 'a31', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  4.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a50', 'a27', 'a6', 'a31', 'a45', 'a39', 'a8', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a2', 'a24', 'a48', 'a4', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  4.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a28', 'a50', 'a27', 'a6', 'a31', 'a39', 'a8', 'a40', 'a23', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a2', 'a48', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a50', 'a27', 'a6', 'a31', 'a39', 'a34', 'a8', 'a20', 'a32', 'a10', 'a29', 'a46', 'a13', 'a35', 'a38', 'a2', 'a48', 'a16', 'a14', 'a18', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a50', 'a27', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a49', 'a2', 'a24', 'a48', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a50', 'a27', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a49', 'a2', 'a24', 'a48', 'a9', 'a16', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a50', 'a27', 'a31', 'a39', 'a34', 'a8', 'a20', 'a10', 'a29', 'a46', 'a13', 'a38', 'a2', 'a48', 'a16', 'a14', 'a18', 'a37', 'a15', 'a47', 'a42']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a50', 'a27', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a49', 'a2', 'a24', 'a48', 'a16', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a28', 'a50', 'a27', 'a6', 'a31', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a49', 'a2', 'a48', 'a16', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a28', 'a50', 'a27', 'a6', 'a31', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a2', 'a48', 'a16', 'a14', 'a18', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a18', 'a2', 'a20', 'a48', 'a19', 'a15', 'a50', 'a27', 'a10', 'a29', 'a47', 'a31', 'a42', 'a46', 'a39', 'a14', 'a35']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a28', 'a50', 'a27', 'a31', 'a40', 'a39', 'a23', 'a20', 'a10', 'a29', 'a46', 'a17', 'a35', 'a2', 'a48', 'a14', 'a18', 'a25', 'a19', 'a15', 'a47', 'a42']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a28', 'a50', 'a27', 'a31', 'a40', 'a39', 'a20', 'a10', 'a29', 'a46', 'a17', 'a35', 'a2', 'a48', 'a14', 'a18', 'a19', 'a15', 'a47', 'a42']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  5.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a39', 'a2', 'a13', 'a37']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  2.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a2', 'a24', 'a48', 'a7', 'a4', 'a16', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  2.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26', 'a21']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  2.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26', 'a21']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  2.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a16', 'a14', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26', 'a21']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  6.0) =&gt; (class &gt;= 2) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  1.0) =&gt; (class &gt;= 2) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(develop_quality &gt;=  4.0) =&gt; (class &gt;= 2) ['a28', 'a3', 'a50', 'a27', 'a6', 'a31', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a35', 'a38', 'a51', 'a2', 'a48', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a42', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  44.0) =&gt; (class &gt;= 2) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  3.0) =&gt; (class &gt;= 2) ['a11', 'a43', 'a50', 'a27', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a5', 'a29', 'a17', 'a13', 'a38', 'a51', 'a2', 'a24', 'a48', 'a7', 'a4', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a47', 'a12', 'a44', 'a26', 'a21']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  1.0) =&gt; (class &gt;= 2) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) =&gt; (class &gt;= 2) ['a43', 'a3', 'a1', 'a45', 'a39', 'a8', 'a10', 'a46', 'a13', 'a38', 'a22', 'a2', 'a49', 'a48', 'a7', 'a14', 'a18', 'a25', 'a47', 'a12']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  39.0) =&gt; (class &gt;= 2) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a22', 'a2', 'a24', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  5.0) =&gt; (class &gt;= 2) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(develop_quality &gt;=  1.0) =&gt; (class &gt;= 2) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  13.0) =&gt; (class &gt;= 2) ['a28', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a22', 'a2', 'a48', 'a16', 'a14', 'a18', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44', 'a21']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  13.0) =&gt; (class &gt;= 2) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
   </si>
   <si>
     <t>support</t>
@@ -4841,7 +3467,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>945</v>
+        <v>487</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4849,7 +3475,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>946</v>
+        <v>488</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4857,7 +3483,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>947</v>
+        <v>489</v>
       </c>
       <c r="B3">
         <v>0.7843137254901961</v>
@@ -4865,7 +3491,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>948</v>
+        <v>490</v>
       </c>
       <c r="B4">
         <v>0.7843137254901961</v>
@@ -4886,18 +3512,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>949</v>
+        <v>491</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>950</v>
+        <v>492</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>951</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>952</v>
+        <v>494</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -6763,7 +5389,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B370"/>
+  <dimension ref="A1:B141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6782,7 +5408,7 @@
         <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>573</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6790,7 +5416,7 @@
         <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>574</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6798,7 +5424,7 @@
         <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>575</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6806,7 +5432,7 @@
         <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>576</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6814,7 +5440,7 @@
         <v>208</v>
       </c>
       <c r="B6" t="s">
-        <v>577</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6822,7 +5448,7 @@
         <v>209</v>
       </c>
       <c r="B7" t="s">
-        <v>578</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6830,7 +5456,7 @@
         <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>579</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6838,7 +5464,7 @@
         <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>580</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6846,7 +5472,7 @@
         <v>212</v>
       </c>
       <c r="B10" t="s">
-        <v>581</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6854,7 +5480,7 @@
         <v>213</v>
       </c>
       <c r="B11" t="s">
-        <v>582</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6862,7 +5488,7 @@
         <v>214</v>
       </c>
       <c r="B12" t="s">
-        <v>583</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6870,7 +5496,7 @@
         <v>215</v>
       </c>
       <c r="B13" t="s">
-        <v>584</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6878,7 +5504,7 @@
         <v>216</v>
       </c>
       <c r="B14" t="s">
-        <v>585</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6886,7 +5512,7 @@
         <v>217</v>
       </c>
       <c r="B15" t="s">
-        <v>586</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6894,7 +5520,7 @@
         <v>218</v>
       </c>
       <c r="B16" t="s">
-        <v>587</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6902,7 +5528,7 @@
         <v>219</v>
       </c>
       <c r="B17" t="s">
-        <v>588</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6910,7 +5536,7 @@
         <v>220</v>
       </c>
       <c r="B18" t="s">
-        <v>589</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6918,7 +5544,7 @@
         <v>221</v>
       </c>
       <c r="B19" t="s">
-        <v>590</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6926,7 +5552,7 @@
         <v>222</v>
       </c>
       <c r="B20" t="s">
-        <v>591</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6934,7 +5560,7 @@
         <v>223</v>
       </c>
       <c r="B21" t="s">
-        <v>592</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6942,7 +5568,7 @@
         <v>224</v>
       </c>
       <c r="B22" t="s">
-        <v>593</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6950,7 +5576,7 @@
         <v>225</v>
       </c>
       <c r="B23" t="s">
-        <v>594</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6958,7 +5584,7 @@
         <v>226</v>
       </c>
       <c r="B24" t="s">
-        <v>595</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6966,7 +5592,7 @@
         <v>227</v>
       </c>
       <c r="B25" t="s">
-        <v>596</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6974,7 +5600,7 @@
         <v>228</v>
       </c>
       <c r="B26" t="s">
-        <v>597</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6982,7 +5608,7 @@
         <v>229</v>
       </c>
       <c r="B27" t="s">
-        <v>598</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6990,7 +5616,7 @@
         <v>230</v>
       </c>
       <c r="B28" t="s">
-        <v>599</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6998,7 +5624,7 @@
         <v>231</v>
       </c>
       <c r="B29" t="s">
-        <v>600</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7006,7 +5632,7 @@
         <v>232</v>
       </c>
       <c r="B30" t="s">
-        <v>601</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7014,7 +5640,7 @@
         <v>233</v>
       </c>
       <c r="B31" t="s">
-        <v>602</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7022,7 +5648,7 @@
         <v>234</v>
       </c>
       <c r="B32" t="s">
-        <v>603</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7030,7 +5656,7 @@
         <v>235</v>
       </c>
       <c r="B33" t="s">
-        <v>604</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -7038,7 +5664,7 @@
         <v>236</v>
       </c>
       <c r="B34" t="s">
-        <v>605</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7046,7 +5672,7 @@
         <v>237</v>
       </c>
       <c r="B35" t="s">
-        <v>606</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7054,7 +5680,7 @@
         <v>238</v>
       </c>
       <c r="B36" t="s">
-        <v>607</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7062,7 +5688,7 @@
         <v>239</v>
       </c>
       <c r="B37" t="s">
-        <v>608</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -7070,7 +5696,7 @@
         <v>240</v>
       </c>
       <c r="B38" t="s">
-        <v>609</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -7078,7 +5704,7 @@
         <v>241</v>
       </c>
       <c r="B39" t="s">
-        <v>610</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -7086,7 +5712,7 @@
         <v>242</v>
       </c>
       <c r="B40" t="s">
-        <v>611</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7094,7 +5720,7 @@
         <v>243</v>
       </c>
       <c r="B41" t="s">
-        <v>612</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -7102,7 +5728,7 @@
         <v>244</v>
       </c>
       <c r="B42" t="s">
-        <v>613</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -7110,7 +5736,7 @@
         <v>245</v>
       </c>
       <c r="B43" t="s">
-        <v>614</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7118,7 +5744,7 @@
         <v>246</v>
       </c>
       <c r="B44" t="s">
-        <v>615</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7126,7 +5752,7 @@
         <v>247</v>
       </c>
       <c r="B45" t="s">
-        <v>616</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7134,7 +5760,7 @@
         <v>248</v>
       </c>
       <c r="B46" t="s">
-        <v>617</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7142,7 +5768,7 @@
         <v>249</v>
       </c>
       <c r="B47" t="s">
-        <v>618</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -7150,7 +5776,7 @@
         <v>250</v>
       </c>
       <c r="B48" t="s">
-        <v>619</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -7158,7 +5784,7 @@
         <v>251</v>
       </c>
       <c r="B49" t="s">
-        <v>620</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7166,7 +5792,7 @@
         <v>252</v>
       </c>
       <c r="B50" t="s">
-        <v>621</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7174,7 +5800,7 @@
         <v>253</v>
       </c>
       <c r="B51" t="s">
-        <v>622</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -7182,7 +5808,7 @@
         <v>254</v>
       </c>
       <c r="B52" t="s">
-        <v>623</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -7190,7 +5816,7 @@
         <v>255</v>
       </c>
       <c r="B53" t="s">
-        <v>624</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -7198,7 +5824,7 @@
         <v>256</v>
       </c>
       <c r="B54" t="s">
-        <v>625</v>
+        <v>396</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -7206,7 +5832,7 @@
         <v>257</v>
       </c>
       <c r="B55" t="s">
-        <v>626</v>
+        <v>397</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -7214,7 +5840,7 @@
         <v>258</v>
       </c>
       <c r="B56" t="s">
-        <v>627</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -7222,7 +5848,7 @@
         <v>259</v>
       </c>
       <c r="B57" t="s">
-        <v>628</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -7230,7 +5856,7 @@
         <v>260</v>
       </c>
       <c r="B58" t="s">
-        <v>629</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -7238,7 +5864,7 @@
         <v>261</v>
       </c>
       <c r="B59" t="s">
-        <v>630</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -7246,7 +5872,7 @@
         <v>262</v>
       </c>
       <c r="B60" t="s">
-        <v>631</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -7254,7 +5880,7 @@
         <v>263</v>
       </c>
       <c r="B61" t="s">
-        <v>632</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -7262,7 +5888,7 @@
         <v>264</v>
       </c>
       <c r="B62" t="s">
-        <v>633</v>
+        <v>404</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -7270,7 +5896,7 @@
         <v>265</v>
       </c>
       <c r="B63" t="s">
-        <v>634</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -7278,7 +5904,7 @@
         <v>266</v>
       </c>
       <c r="B64" t="s">
-        <v>635</v>
+        <v>406</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -7286,7 +5912,7 @@
         <v>267</v>
       </c>
       <c r="B65" t="s">
-        <v>636</v>
+        <v>407</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -7294,7 +5920,7 @@
         <v>268</v>
       </c>
       <c r="B66" t="s">
-        <v>637</v>
+        <v>408</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -7302,7 +5928,7 @@
         <v>269</v>
       </c>
       <c r="B67" t="s">
-        <v>638</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -7310,7 +5936,7 @@
         <v>270</v>
       </c>
       <c r="B68" t="s">
-        <v>639</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -7318,7 +5944,7 @@
         <v>271</v>
       </c>
       <c r="B69" t="s">
-        <v>640</v>
+        <v>411</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -7326,7 +5952,7 @@
         <v>272</v>
       </c>
       <c r="B70" t="s">
-        <v>641</v>
+        <v>412</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -7334,7 +5960,7 @@
         <v>273</v>
       </c>
       <c r="B71" t="s">
-        <v>642</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -7342,7 +5968,7 @@
         <v>274</v>
       </c>
       <c r="B72" t="s">
-        <v>643</v>
+        <v>414</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -7350,7 +5976,7 @@
         <v>275</v>
       </c>
       <c r="B73" t="s">
-        <v>644</v>
+        <v>415</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -7358,7 +5984,7 @@
         <v>276</v>
       </c>
       <c r="B74" t="s">
-        <v>645</v>
+        <v>416</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -7366,7 +5992,7 @@
         <v>277</v>
       </c>
       <c r="B75" t="s">
-        <v>646</v>
+        <v>417</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -7374,7 +6000,7 @@
         <v>278</v>
       </c>
       <c r="B76" t="s">
-        <v>647</v>
+        <v>418</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -7382,7 +6008,7 @@
         <v>279</v>
       </c>
       <c r="B77" t="s">
-        <v>648</v>
+        <v>419</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -7390,7 +6016,7 @@
         <v>280</v>
       </c>
       <c r="B78" t="s">
-        <v>649</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -7398,7 +6024,7 @@
         <v>281</v>
       </c>
       <c r="B79" t="s">
-        <v>650</v>
+        <v>421</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -7406,7 +6032,7 @@
         <v>282</v>
       </c>
       <c r="B80" t="s">
-        <v>651</v>
+        <v>422</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -7414,7 +6040,7 @@
         <v>283</v>
       </c>
       <c r="B81" t="s">
-        <v>652</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -7422,7 +6048,7 @@
         <v>284</v>
       </c>
       <c r="B82" t="s">
-        <v>653</v>
+        <v>424</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -7430,7 +6056,7 @@
         <v>285</v>
       </c>
       <c r="B83" t="s">
-        <v>654</v>
+        <v>425</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -7438,7 +6064,7 @@
         <v>286</v>
       </c>
       <c r="B84" t="s">
-        <v>655</v>
+        <v>426</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -7446,7 +6072,7 @@
         <v>287</v>
       </c>
       <c r="B85" t="s">
-        <v>656</v>
+        <v>427</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -7454,7 +6080,7 @@
         <v>288</v>
       </c>
       <c r="B86" t="s">
-        <v>657</v>
+        <v>428</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -7462,7 +6088,7 @@
         <v>289</v>
       </c>
       <c r="B87" t="s">
-        <v>658</v>
+        <v>429</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -7470,7 +6096,7 @@
         <v>290</v>
       </c>
       <c r="B88" t="s">
-        <v>659</v>
+        <v>430</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -7478,7 +6104,7 @@
         <v>291</v>
       </c>
       <c r="B89" t="s">
-        <v>660</v>
+        <v>431</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -7486,7 +6112,7 @@
         <v>292</v>
       </c>
       <c r="B90" t="s">
-        <v>661</v>
+        <v>432</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -7494,7 +6120,7 @@
         <v>293</v>
       </c>
       <c r="B91" t="s">
-        <v>662</v>
+        <v>433</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -7502,7 +6128,7 @@
         <v>294</v>
       </c>
       <c r="B92" t="s">
-        <v>663</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -7510,7 +6136,7 @@
         <v>295</v>
       </c>
       <c r="B93" t="s">
-        <v>664</v>
+        <v>435</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -7518,7 +6144,7 @@
         <v>296</v>
       </c>
       <c r="B94" t="s">
-        <v>665</v>
+        <v>436</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -7526,7 +6152,7 @@
         <v>297</v>
       </c>
       <c r="B95" t="s">
-        <v>666</v>
+        <v>437</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -7534,7 +6160,7 @@
         <v>298</v>
       </c>
       <c r="B96" t="s">
-        <v>667</v>
+        <v>438</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -7542,7 +6168,7 @@
         <v>299</v>
       </c>
       <c r="B97" t="s">
-        <v>668</v>
+        <v>439</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -7550,7 +6176,7 @@
         <v>300</v>
       </c>
       <c r="B98" t="s">
-        <v>669</v>
+        <v>440</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -7558,7 +6184,7 @@
         <v>301</v>
       </c>
       <c r="B99" t="s">
-        <v>670</v>
+        <v>441</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -7566,7 +6192,7 @@
         <v>302</v>
       </c>
       <c r="B100" t="s">
-        <v>671</v>
+        <v>442</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -7574,7 +6200,7 @@
         <v>303</v>
       </c>
       <c r="B101" t="s">
-        <v>672</v>
+        <v>443</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -7582,7 +6208,7 @@
         <v>304</v>
       </c>
       <c r="B102" t="s">
-        <v>673</v>
+        <v>444</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -7590,7 +6216,7 @@
         <v>305</v>
       </c>
       <c r="B103" t="s">
-        <v>674</v>
+        <v>445</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -7598,7 +6224,7 @@
         <v>306</v>
       </c>
       <c r="B104" t="s">
-        <v>675</v>
+        <v>446</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -7606,7 +6232,7 @@
         <v>307</v>
       </c>
       <c r="B105" t="s">
-        <v>676</v>
+        <v>447</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -7614,7 +6240,7 @@
         <v>308</v>
       </c>
       <c r="B106" t="s">
-        <v>677</v>
+        <v>448</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -7622,7 +6248,7 @@
         <v>309</v>
       </c>
       <c r="B107" t="s">
-        <v>678</v>
+        <v>449</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -7630,7 +6256,7 @@
         <v>310</v>
       </c>
       <c r="B108" t="s">
-        <v>679</v>
+        <v>450</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -7638,7 +6264,7 @@
         <v>311</v>
       </c>
       <c r="B109" t="s">
-        <v>680</v>
+        <v>451</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -7646,7 +6272,7 @@
         <v>312</v>
       </c>
       <c r="B110" t="s">
-        <v>681</v>
+        <v>452</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -7654,7 +6280,7 @@
         <v>313</v>
       </c>
       <c r="B111" t="s">
-        <v>682</v>
+        <v>453</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -7662,7 +6288,7 @@
         <v>314</v>
       </c>
       <c r="B112" t="s">
-        <v>683</v>
+        <v>454</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -7670,7 +6296,7 @@
         <v>315</v>
       </c>
       <c r="B113" t="s">
-        <v>684</v>
+        <v>455</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -7678,7 +6304,7 @@
         <v>316</v>
       </c>
       <c r="B114" t="s">
-        <v>685</v>
+        <v>456</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -7686,7 +6312,7 @@
         <v>317</v>
       </c>
       <c r="B115" t="s">
-        <v>686</v>
+        <v>457</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -7694,7 +6320,7 @@
         <v>318</v>
       </c>
       <c r="B116" t="s">
-        <v>687</v>
+        <v>458</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -7702,7 +6328,7 @@
         <v>319</v>
       </c>
       <c r="B117" t="s">
-        <v>688</v>
+        <v>459</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -7710,7 +6336,7 @@
         <v>320</v>
       </c>
       <c r="B118" t="s">
-        <v>689</v>
+        <v>460</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -7718,7 +6344,7 @@
         <v>321</v>
       </c>
       <c r="B119" t="s">
-        <v>690</v>
+        <v>461</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -7726,7 +6352,7 @@
         <v>322</v>
       </c>
       <c r="B120" t="s">
-        <v>691</v>
+        <v>462</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -7734,7 +6360,7 @@
         <v>323</v>
       </c>
       <c r="B121" t="s">
-        <v>692</v>
+        <v>463</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -7742,7 +6368,7 @@
         <v>324</v>
       </c>
       <c r="B122" t="s">
-        <v>693</v>
+        <v>464</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -7750,7 +6376,7 @@
         <v>325</v>
       </c>
       <c r="B123" t="s">
-        <v>694</v>
+        <v>465</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -7758,7 +6384,7 @@
         <v>326</v>
       </c>
       <c r="B124" t="s">
-        <v>695</v>
+        <v>466</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -7766,7 +6392,7 @@
         <v>327</v>
       </c>
       <c r="B125" t="s">
-        <v>696</v>
+        <v>467</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -7774,7 +6400,7 @@
         <v>328</v>
       </c>
       <c r="B126" t="s">
-        <v>697</v>
+        <v>468</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -7782,7 +6408,7 @@
         <v>329</v>
       </c>
       <c r="B127" t="s">
-        <v>698</v>
+        <v>469</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -7790,7 +6416,7 @@
         <v>330</v>
       </c>
       <c r="B128" t="s">
-        <v>699</v>
+        <v>470</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -7798,7 +6424,7 @@
         <v>331</v>
       </c>
       <c r="B129" t="s">
-        <v>700</v>
+        <v>471</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -7806,7 +6432,7 @@
         <v>332</v>
       </c>
       <c r="B130" t="s">
-        <v>701</v>
+        <v>472</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -7814,7 +6440,7 @@
         <v>333</v>
       </c>
       <c r="B131" t="s">
-        <v>702</v>
+        <v>473</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -7822,7 +6448,7 @@
         <v>334</v>
       </c>
       <c r="B132" t="s">
-        <v>703</v>
+        <v>474</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -7830,7 +6456,7 @@
         <v>335</v>
       </c>
       <c r="B133" t="s">
-        <v>704</v>
+        <v>475</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -7838,7 +6464,7 @@
         <v>336</v>
       </c>
       <c r="B134" t="s">
-        <v>705</v>
+        <v>476</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -7846,7 +6472,7 @@
         <v>337</v>
       </c>
       <c r="B135" t="s">
-        <v>706</v>
+        <v>477</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -7854,7 +6480,7 @@
         <v>338</v>
       </c>
       <c r="B136" t="s">
-        <v>707</v>
+        <v>478</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -7862,7 +6488,7 @@
         <v>339</v>
       </c>
       <c r="B137" t="s">
-        <v>708</v>
+        <v>479</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -7870,7 +6496,7 @@
         <v>340</v>
       </c>
       <c r="B138" t="s">
-        <v>709</v>
+        <v>480</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -7878,7 +6504,7 @@
         <v>341</v>
       </c>
       <c r="B139" t="s">
-        <v>710</v>
+        <v>481</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -7886,7 +6512,7 @@
         <v>342</v>
       </c>
       <c r="B140" t="s">
-        <v>711</v>
+        <v>482</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -7894,1839 +6520,7 @@
         <v>343</v>
       </c>
       <c r="B141" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>344</v>
-      </c>
-      <c r="B142" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>345</v>
-      </c>
-      <c r="B143" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>346</v>
-      </c>
-      <c r="B144" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>347</v>
-      </c>
-      <c r="B145" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>348</v>
-      </c>
-      <c r="B146" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
-        <v>349</v>
-      </c>
-      <c r="B147" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>350</v>
-      </c>
-      <c r="B148" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>351</v>
-      </c>
-      <c r="B149" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>352</v>
-      </c>
-      <c r="B150" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>353</v>
-      </c>
-      <c r="B151" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>354</v>
-      </c>
-      <c r="B152" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
-        <v>355</v>
-      </c>
-      <c r="B153" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>356</v>
-      </c>
-      <c r="B154" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>357</v>
-      </c>
-      <c r="B155" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>358</v>
-      </c>
-      <c r="B156" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>359</v>
-      </c>
-      <c r="B157" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>360</v>
-      </c>
-      <c r="B158" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>361</v>
-      </c>
-      <c r="B159" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
-        <v>362</v>
-      </c>
-      <c r="B160" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
-        <v>363</v>
-      </c>
-      <c r="B161" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
-        <v>364</v>
-      </c>
-      <c r="B162" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
-        <v>365</v>
-      </c>
-      <c r="B163" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
-        <v>366</v>
-      </c>
-      <c r="B164" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
-        <v>367</v>
-      </c>
-      <c r="B165" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
-        <v>368</v>
-      </c>
-      <c r="B166" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
-        <v>369</v>
-      </c>
-      <c r="B167" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
-        <v>370</v>
-      </c>
-      <c r="B168" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
-        <v>371</v>
-      </c>
-      <c r="B169" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
-        <v>372</v>
-      </c>
-      <c r="B170" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
-        <v>373</v>
-      </c>
-      <c r="B171" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
-        <v>374</v>
-      </c>
-      <c r="B172" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
-        <v>375</v>
-      </c>
-      <c r="B173" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
-        <v>376</v>
-      </c>
-      <c r="B174" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
-        <v>377</v>
-      </c>
-      <c r="B175" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
-        <v>378</v>
-      </c>
-      <c r="B176" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
-        <v>379</v>
-      </c>
-      <c r="B177" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
-        <v>380</v>
-      </c>
-      <c r="B178" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
-        <v>381</v>
-      </c>
-      <c r="B179" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
-        <v>382</v>
-      </c>
-      <c r="B180" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
-        <v>383</v>
-      </c>
-      <c r="B181" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
-        <v>384</v>
-      </c>
-      <c r="B182" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
-        <v>385</v>
-      </c>
-      <c r="B183" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
-        <v>386</v>
-      </c>
-      <c r="B184" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
-        <v>387</v>
-      </c>
-      <c r="B185" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
-        <v>388</v>
-      </c>
-      <c r="B186" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
-        <v>389</v>
-      </c>
-      <c r="B187" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="s">
-        <v>390</v>
-      </c>
-      <c r="B188" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
-        <v>391</v>
-      </c>
-      <c r="B189" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
-        <v>392</v>
-      </c>
-      <c r="B190" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
-        <v>393</v>
-      </c>
-      <c r="B191" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
-        <v>394</v>
-      </c>
-      <c r="B192" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
-        <v>395</v>
-      </c>
-      <c r="B193" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
-        <v>396</v>
-      </c>
-      <c r="B194" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
-        <v>397</v>
-      </c>
-      <c r="B195" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
-        <v>398</v>
-      </c>
-      <c r="B196" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
-        <v>399</v>
-      </c>
-      <c r="B197" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
-        <v>400</v>
-      </c>
-      <c r="B198" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
-        <v>401</v>
-      </c>
-      <c r="B199" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
-        <v>402</v>
-      </c>
-      <c r="B200" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
-        <v>403</v>
-      </c>
-      <c r="B201" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
-        <v>404</v>
-      </c>
-      <c r="B202" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
-        <v>405</v>
-      </c>
-      <c r="B203" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
-        <v>406</v>
-      </c>
-      <c r="B204" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
-        <v>407</v>
-      </c>
-      <c r="B205" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="s">
-        <v>408</v>
-      </c>
-      <c r="B206" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
-        <v>409</v>
-      </c>
-      <c r="B207" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="s">
-        <v>410</v>
-      </c>
-      <c r="B208" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="s">
-        <v>411</v>
-      </c>
-      <c r="B209" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="s">
-        <v>412</v>
-      </c>
-      <c r="B210" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" t="s">
-        <v>413</v>
-      </c>
-      <c r="B211" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" t="s">
-        <v>414</v>
-      </c>
-      <c r="B212" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" t="s">
-        <v>415</v>
-      </c>
-      <c r="B213" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" t="s">
-        <v>416</v>
-      </c>
-      <c r="B214" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="s">
-        <v>417</v>
-      </c>
-      <c r="B215" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="s">
-        <v>418</v>
-      </c>
-      <c r="B216" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
-        <v>419</v>
-      </c>
-      <c r="B217" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" t="s">
-        <v>420</v>
-      </c>
-      <c r="B218" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" t="s">
-        <v>421</v>
-      </c>
-      <c r="B219" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" t="s">
-        <v>422</v>
-      </c>
-      <c r="B220" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
-        <v>423</v>
-      </c>
-      <c r="B221" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" t="s">
-        <v>424</v>
-      </c>
-      <c r="B222" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" t="s">
-        <v>425</v>
-      </c>
-      <c r="B223" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" t="s">
-        <v>426</v>
-      </c>
-      <c r="B224" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="s">
-        <v>427</v>
-      </c>
-      <c r="B225" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="s">
-        <v>428</v>
-      </c>
-      <c r="B226" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="s">
-        <v>429</v>
-      </c>
-      <c r="B227" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="s">
-        <v>430</v>
-      </c>
-      <c r="B228" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" t="s">
-        <v>431</v>
-      </c>
-      <c r="B229" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" t="s">
-        <v>432</v>
-      </c>
-      <c r="B230" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" t="s">
-        <v>433</v>
-      </c>
-      <c r="B231" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" t="s">
-        <v>434</v>
-      </c>
-      <c r="B232" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" t="s">
-        <v>435</v>
-      </c>
-      <c r="B233" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" t="s">
-        <v>436</v>
-      </c>
-      <c r="B234" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" t="s">
-        <v>437</v>
-      </c>
-      <c r="B235" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" t="s">
-        <v>438</v>
-      </c>
-      <c r="B236" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" t="s">
-        <v>439</v>
-      </c>
-      <c r="B237" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" t="s">
-        <v>440</v>
-      </c>
-      <c r="B238" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" t="s">
-        <v>441</v>
-      </c>
-      <c r="B239" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" t="s">
-        <v>442</v>
-      </c>
-      <c r="B240" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" t="s">
-        <v>443</v>
-      </c>
-      <c r="B241" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" t="s">
-        <v>444</v>
-      </c>
-      <c r="B242" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" t="s">
-        <v>445</v>
-      </c>
-      <c r="B243" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" t="s">
-        <v>446</v>
-      </c>
-      <c r="B244" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" t="s">
-        <v>447</v>
-      </c>
-      <c r="B245" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" t="s">
-        <v>448</v>
-      </c>
-      <c r="B246" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" t="s">
-        <v>449</v>
-      </c>
-      <c r="B247" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" t="s">
-        <v>450</v>
-      </c>
-      <c r="B248" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" t="s">
-        <v>451</v>
-      </c>
-      <c r="B249" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" t="s">
-        <v>452</v>
-      </c>
-      <c r="B250" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" t="s">
-        <v>453</v>
-      </c>
-      <c r="B251" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" t="s">
-        <v>454</v>
-      </c>
-      <c r="B252" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" t="s">
-        <v>455</v>
-      </c>
-      <c r="B253" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" t="s">
-        <v>456</v>
-      </c>
-      <c r="B254" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" t="s">
-        <v>457</v>
-      </c>
-      <c r="B255" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" t="s">
-        <v>458</v>
-      </c>
-      <c r="B256" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" t="s">
-        <v>459</v>
-      </c>
-      <c r="B257" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" t="s">
-        <v>460</v>
-      </c>
-      <c r="B258" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" t="s">
-        <v>461</v>
-      </c>
-      <c r="B259" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" t="s">
-        <v>462</v>
-      </c>
-      <c r="B260" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" t="s">
-        <v>463</v>
-      </c>
-      <c r="B261" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" t="s">
-        <v>464</v>
-      </c>
-      <c r="B262" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" t="s">
-        <v>465</v>
-      </c>
-      <c r="B263" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" t="s">
-        <v>466</v>
-      </c>
-      <c r="B264" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" t="s">
-        <v>467</v>
-      </c>
-      <c r="B265" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" t="s">
-        <v>468</v>
-      </c>
-      <c r="B266" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" t="s">
-        <v>469</v>
-      </c>
-      <c r="B267" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" t="s">
-        <v>470</v>
-      </c>
-      <c r="B268" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" t="s">
-        <v>471</v>
-      </c>
-      <c r="B269" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" t="s">
-        <v>472</v>
-      </c>
-      <c r="B270" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" t="s">
-        <v>473</v>
-      </c>
-      <c r="B271" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" t="s">
-        <v>474</v>
-      </c>
-      <c r="B272" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" t="s">
-        <v>475</v>
-      </c>
-      <c r="B273" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" t="s">
-        <v>476</v>
-      </c>
-      <c r="B274" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" t="s">
-        <v>477</v>
-      </c>
-      <c r="B275" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" t="s">
-        <v>478</v>
-      </c>
-      <c r="B276" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" t="s">
-        <v>479</v>
-      </c>
-      <c r="B277" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" t="s">
-        <v>480</v>
-      </c>
-      <c r="B278" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" t="s">
-        <v>481</v>
-      </c>
-      <c r="B279" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" t="s">
-        <v>482</v>
-      </c>
-      <c r="B280" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" t="s">
         <v>483</v>
-      </c>
-      <c r="B281" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" t="s">
-        <v>484</v>
-      </c>
-      <c r="B282" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" t="s">
-        <v>485</v>
-      </c>
-      <c r="B283" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" t="s">
-        <v>486</v>
-      </c>
-      <c r="B284" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" t="s">
-        <v>487</v>
-      </c>
-      <c r="B285" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" t="s">
-        <v>488</v>
-      </c>
-      <c r="B286" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" t="s">
-        <v>489</v>
-      </c>
-      <c r="B287" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" t="s">
-        <v>490</v>
-      </c>
-      <c r="B288" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" t="s">
-        <v>491</v>
-      </c>
-      <c r="B289" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" t="s">
-        <v>492</v>
-      </c>
-      <c r="B290" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" t="s">
-        <v>493</v>
-      </c>
-      <c r="B291" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" t="s">
-        <v>494</v>
-      </c>
-      <c r="B292" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" t="s">
-        <v>495</v>
-      </c>
-      <c r="B293" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" t="s">
-        <v>496</v>
-      </c>
-      <c r="B294" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" t="s">
-        <v>497</v>
-      </c>
-      <c r="B295" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" t="s">
-        <v>498</v>
-      </c>
-      <c r="B296" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" t="s">
-        <v>499</v>
-      </c>
-      <c r="B297" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" t="s">
-        <v>500</v>
-      </c>
-      <c r="B298" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" t="s">
-        <v>501</v>
-      </c>
-      <c r="B299" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" t="s">
-        <v>502</v>
-      </c>
-      <c r="B300" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" t="s">
-        <v>503</v>
-      </c>
-      <c r="B301" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" t="s">
-        <v>504</v>
-      </c>
-      <c r="B302" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" t="s">
-        <v>505</v>
-      </c>
-      <c r="B303" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" t="s">
-        <v>506</v>
-      </c>
-      <c r="B304" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" t="s">
-        <v>507</v>
-      </c>
-      <c r="B305" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" t="s">
-        <v>508</v>
-      </c>
-      <c r="B306" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" t="s">
-        <v>509</v>
-      </c>
-      <c r="B307" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" t="s">
-        <v>510</v>
-      </c>
-      <c r="B308" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" t="s">
-        <v>511</v>
-      </c>
-      <c r="B309" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" t="s">
-        <v>512</v>
-      </c>
-      <c r="B310" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" t="s">
-        <v>513</v>
-      </c>
-      <c r="B311" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" t="s">
-        <v>514</v>
-      </c>
-      <c r="B312" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" t="s">
-        <v>515</v>
-      </c>
-      <c r="B313" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" t="s">
-        <v>516</v>
-      </c>
-      <c r="B314" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" t="s">
-        <v>517</v>
-      </c>
-      <c r="B315" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" t="s">
-        <v>518</v>
-      </c>
-      <c r="B316" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" t="s">
-        <v>519</v>
-      </c>
-      <c r="B317" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" t="s">
-        <v>520</v>
-      </c>
-      <c r="B318" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" t="s">
-        <v>521</v>
-      </c>
-      <c r="B319" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" t="s">
-        <v>522</v>
-      </c>
-      <c r="B320" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" t="s">
-        <v>523</v>
-      </c>
-      <c r="B321" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" t="s">
-        <v>524</v>
-      </c>
-      <c r="B322" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" t="s">
-        <v>525</v>
-      </c>
-      <c r="B323" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" t="s">
-        <v>526</v>
-      </c>
-      <c r="B324" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" t="s">
-        <v>527</v>
-      </c>
-      <c r="B325" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" t="s">
-        <v>528</v>
-      </c>
-      <c r="B326" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" t="s">
-        <v>529</v>
-      </c>
-      <c r="B327" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" t="s">
-        <v>530</v>
-      </c>
-      <c r="B328" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" t="s">
-        <v>531</v>
-      </c>
-      <c r="B329" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" t="s">
-        <v>532</v>
-      </c>
-      <c r="B330" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" t="s">
-        <v>533</v>
-      </c>
-      <c r="B331" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
-      <c r="A332" t="s">
-        <v>534</v>
-      </c>
-      <c r="B332" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2">
-      <c r="A333" t="s">
-        <v>535</v>
-      </c>
-      <c r="B333" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" t="s">
-        <v>536</v>
-      </c>
-      <c r="B334" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2">
-      <c r="A335" t="s">
-        <v>537</v>
-      </c>
-      <c r="B335" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
-      <c r="A336" t="s">
-        <v>538</v>
-      </c>
-      <c r="B336" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
-      <c r="A337" t="s">
-        <v>539</v>
-      </c>
-      <c r="B337" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2">
-      <c r="A338" t="s">
-        <v>540</v>
-      </c>
-      <c r="B338" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2">
-      <c r="A339" t="s">
-        <v>541</v>
-      </c>
-      <c r="B339" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2">
-      <c r="A340" t="s">
-        <v>542</v>
-      </c>
-      <c r="B340" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2">
-      <c r="A341" t="s">
-        <v>543</v>
-      </c>
-      <c r="B341" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2">
-      <c r="A342" t="s">
-        <v>544</v>
-      </c>
-      <c r="B342" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
-      <c r="A343" t="s">
-        <v>545</v>
-      </c>
-      <c r="B343" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2">
-      <c r="A344" t="s">
-        <v>546</v>
-      </c>
-      <c r="B344" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2">
-      <c r="A345" t="s">
-        <v>547</v>
-      </c>
-      <c r="B345" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2">
-      <c r="A346" t="s">
-        <v>548</v>
-      </c>
-      <c r="B346" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2">
-      <c r="A347" t="s">
-        <v>549</v>
-      </c>
-      <c r="B347" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2">
-      <c r="A348" t="s">
-        <v>550</v>
-      </c>
-      <c r="B348" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2">
-      <c r="A349" t="s">
-        <v>551</v>
-      </c>
-      <c r="B349" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2">
-      <c r="A350" t="s">
-        <v>552</v>
-      </c>
-      <c r="B350" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2">
-      <c r="A351" t="s">
-        <v>553</v>
-      </c>
-      <c r="B351" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2">
-      <c r="A352" t="s">
-        <v>554</v>
-      </c>
-      <c r="B352" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2">
-      <c r="A353" t="s">
-        <v>555</v>
-      </c>
-      <c r="B353" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2">
-      <c r="A354" t="s">
-        <v>556</v>
-      </c>
-      <c r="B354" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2">
-      <c r="A355" t="s">
-        <v>557</v>
-      </c>
-      <c r="B355" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2">
-      <c r="A356" t="s">
-        <v>558</v>
-      </c>
-      <c r="B356" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2">
-      <c r="A357" t="s">
-        <v>559</v>
-      </c>
-      <c r="B357" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2">
-      <c r="A358" t="s">
-        <v>560</v>
-      </c>
-      <c r="B358" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2">
-      <c r="A359" t="s">
-        <v>561</v>
-      </c>
-      <c r="B359" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2">
-      <c r="A360" t="s">
-        <v>562</v>
-      </c>
-      <c r="B360" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2">
-      <c r="A361" t="s">
-        <v>563</v>
-      </c>
-      <c r="B361" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2">
-      <c r="A362" t="s">
-        <v>564</v>
-      </c>
-      <c r="B362" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2">
-      <c r="A363" t="s">
-        <v>565</v>
-      </c>
-      <c r="B363" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2">
-      <c r="A364" t="s">
-        <v>566</v>
-      </c>
-      <c r="B364" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2">
-      <c r="A365" t="s">
-        <v>567</v>
-      </c>
-      <c r="B365" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2">
-      <c r="A366" t="s">
-        <v>568</v>
-      </c>
-      <c r="B366" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2">
-      <c r="A367" t="s">
-        <v>569</v>
-      </c>
-      <c r="B367" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2">
-      <c r="A368" t="s">
-        <v>570</v>
-      </c>
-      <c r="B368" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2">
-      <c r="A369" t="s">
-        <v>571</v>
-      </c>
-      <c r="B369" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2">
-      <c r="A370" t="s">
-        <v>572</v>
-      </c>
-      <c r="B370" t="s">
-        <v>941</v>
       </c>
     </row>
   </sheetData>
@@ -9736,7 +6530,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C370"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9744,156 +6538,156 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>942</v>
+        <v>484</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>943</v>
+        <v>485</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>944</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0.2352941176470588</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C2">
-        <v>1.333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1176470588235294</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1568627450980392</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C4">
-        <v>0.8888888888888888</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.2941176470588235</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C5">
-        <v>1.666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.2156862745098039</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C6">
-        <v>1.222222222222222</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.09803921568627451</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="C7">
-        <v>0.5555555555555556</v>
+        <v>1.222222222222222</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>0.05882352941176471</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="C8">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>0.1764705882352941</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0.1176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>0.07843137254901961</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C11">
-        <v>0.4444444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>0.07843137254901961</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="C12">
-        <v>0.4444444444444444</v>
+        <v>1.111111111111111</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>0.1176470588235294</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="C13">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>0.07843137254901961</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C14">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9909,35 +6703,35 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>0.196078431372549</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C16">
-        <v>1.111111111111111</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>0.09803921568627451</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C17">
-        <v>0.5555555555555556</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>0.05882352941176471</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="C18">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9964,24 +6758,24 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B21">
-        <v>0.1176470588235294</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0.6666666666666666</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B22">
-        <v>0.07843137254901961</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0.4444444444444444</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9992,1162 +6786,1162 @@
         <v>0.07843137254901961</v>
       </c>
       <c r="C23">
-        <v>0.4444444444444444</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B24">
-        <v>0.1176470588235294</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0.6666666666666666</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B25">
-        <v>0.05882352941176471</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0.3333333333333333</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.0392156862745098</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="C26">
-        <v>0.2222222222222222</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B27">
-        <v>0.09803921568627451</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>0.5555555555555556</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>0.05882352941176471</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C28">
-        <v>0.3333333333333333</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>0.07843137254901961</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C29">
-        <v>0.4444444444444444</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B30">
-        <v>0.09803921568627451</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0.5555555555555556</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>0.05882352941176471</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C31">
-        <v>0.3333333333333333</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>0.1176470588235294</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C32">
-        <v>0.6666666666666666</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B33">
-        <v>0.07843137254901961</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>0.4444444444444444</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C34">
-        <v>1.02</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C35">
-        <v>1.02</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="C36">
-        <v>1.02</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="C37">
-        <v>1.02</v>
+        <v>0.1707317073170732</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0.9607843137254902</v>
       </c>
       <c r="C38">
-        <v>1.02</v>
+        <v>1.195121951219512</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C39">
-        <v>1.02</v>
+        <v>0.4634146341463415</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="C40">
-        <v>1.02</v>
+        <v>1.048780487804878</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.8627450980392157</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.88</v>
+        <v>1.24390243902439</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42">
-        <v>0.9607843137254902</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0.98</v>
+        <v>1.24390243902439</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="C43">
-        <v>1.02</v>
+        <v>0.7560975609756098</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B44">
-        <v>0.6078431372549019</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C44">
-        <v>0.62</v>
+        <v>0.8048780487804879</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B45">
-        <v>0.2352941176470588</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C45">
-        <v>0.24</v>
+        <v>0.04878048780487805</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B46">
-        <v>0.5490196078431373</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C46">
-        <v>0.5600000000000001</v>
+        <v>1.024390243902439</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.5882352941176471</v>
+        <v>0.9803921568627451</v>
       </c>
       <c r="C47">
-        <v>0.6</v>
+        <v>1.219512195121951</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B48">
-        <v>0.6078431372549019</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C48">
-        <v>0.62</v>
+        <v>0.4878048780487805</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B49">
-        <v>0.7843137254901961</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="C49">
-        <v>0.8</v>
+        <v>0.9024390243902439</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B50">
-        <v>0.8627450980392157</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="C50">
-        <v>0.88</v>
+        <v>0.1951219512195122</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B51">
-        <v>0.8823529411764706</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="C51">
-        <v>0.9</v>
+        <v>0.9024390243902439</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B52">
-        <v>0.5686274509803921</v>
+        <v>0.9019607843137255</v>
       </c>
       <c r="C52">
-        <v>0.58</v>
+        <v>1.121951219512195</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0.9215686274509803</v>
       </c>
       <c r="C53">
-        <v>1.02</v>
+        <v>1.146341463414634</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B54">
-        <v>0.8823529411764706</v>
+        <v>0.9215686274509803</v>
       </c>
       <c r="C54">
-        <v>0.9</v>
+        <v>1.146341463414634</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B55">
-        <v>0.8431372549019608</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C55">
-        <v>0.86</v>
+        <v>0.9512195121951219</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C56">
-        <v>1.02</v>
+        <v>0.5365853658536586</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B57">
-        <v>0.5686274509803921</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C57">
-        <v>0.58</v>
+        <v>0.6585365853658537</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B58">
-        <v>0.9019607843137255</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="C58">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B59">
-        <v>0.6666666666666666</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C59">
-        <v>0.68</v>
+        <v>0.3658536585365854</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B60">
-        <v>0.9215686274509803</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>0.9399999999999999</v>
+        <v>1.24390243902439</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B61">
-        <v>0.392156862745098</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C61">
-        <v>0.4</v>
+        <v>1.097560975609756</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B62">
-        <v>0.9607843137254902</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="C62">
-        <v>0.98</v>
+        <v>0.975609756097561</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B63">
-        <v>0.5686274509803921</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="C63">
-        <v>0.58</v>
+        <v>0.8536585365853658</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B64">
-        <v>0.6078431372549019</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>0.62</v>
+        <v>1.24390243902439</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B65">
-        <v>0.4117647058823529</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="C65">
-        <v>0.42</v>
+        <v>0.7560975609756098</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B66">
-        <v>0.5882352941176471</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>0.6</v>
+        <v>1.24390243902439</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B67">
-        <v>0.4705882352941176</v>
+        <v>0.9607843137254902</v>
       </c>
       <c r="C67">
-        <v>0.48</v>
+        <v>1.195121951219512</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B68">
-        <v>0.5882352941176471</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C68">
-        <v>0.6</v>
+        <v>0.3902439024390244</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B69">
-        <v>0.2941176470588235</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C69">
-        <v>0.3</v>
+        <v>0.6829268292682927</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B70">
-        <v>0.5882352941176471</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C70">
-        <v>0.6</v>
+        <v>0.8048780487804879</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B71">
-        <v>0.7450980392156863</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="C71">
-        <v>0.76</v>
+        <v>0.9024390243902439</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B72">
-        <v>0.8823529411764706</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="C72">
-        <v>0.9</v>
+        <v>1.073170731707317</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B73">
-        <v>0.4901960784313725</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="C73">
-        <v>0.5</v>
+        <v>0.1219512195121951</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B74">
-        <v>0.803921568627451</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C74">
-        <v>0.82</v>
+        <v>0.3902439024390244</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B75">
-        <v>0.5882352941176471</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="C75">
-        <v>0.6</v>
+        <v>0.1219512195121951</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B76">
-        <v>0.8235294117647058</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C76">
-        <v>0.84</v>
+        <v>0.3170731707317073</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B77">
-        <v>0.3529411764705883</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C77">
-        <v>0.36</v>
+        <v>0.1463414634146341</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B78">
-        <v>0.8627450980392157</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C78">
-        <v>0.88</v>
+        <v>0.1463414634146341</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B79">
-        <v>0.8823529411764706</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C79">
-        <v>0.9</v>
+        <v>0.4390243902439024</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B80">
-        <v>0.7843137254901961</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="C80">
-        <v>0.8</v>
+        <v>0.1219512195121951</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B81">
-        <v>0.6862745098039216</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C81">
-        <v>0.7</v>
+        <v>0.3902439024390244</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C82">
-        <v>1.02</v>
+        <v>0.5365853658536586</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B83">
-        <v>0.6078431372549019</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C83">
-        <v>0.62</v>
+        <v>0.3658536585365854</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B84">
-        <v>0.8823529411764706</v>
+        <v>0.9215686274509803</v>
       </c>
       <c r="C84">
-        <v>0.9</v>
+        <v>1.146341463414634</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B85">
-        <v>0.2352941176470588</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C85">
-        <v>0.24</v>
+        <v>0.8780487804878049</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B86">
-        <v>0.7450980392156863</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C86">
-        <v>0.76</v>
+        <v>0.8292682926829268</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B87">
-        <v>0.8627450980392157</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C87">
-        <v>0.88</v>
+        <v>0.7073170731707317</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B88">
-        <v>0.5098039215686274</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C88">
-        <v>0.52</v>
+        <v>0.6097560975609756</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B89">
-        <v>0.803921568627451</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="C89">
-        <v>0.82</v>
+        <v>0.975609756097561</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B90">
-        <v>0.5882352941176471</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C90">
-        <v>0.6</v>
+        <v>0.926829268292683</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B91">
-        <v>0.8235294117647058</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C91">
-        <v>0.84</v>
+        <v>0.8292682926829268</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B92">
-        <v>0.3333333333333333</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="C92">
-        <v>0.34</v>
+        <v>1.048780487804878</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B93">
-        <v>0.8431372549019608</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="C93">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B94">
-        <v>0.803921568627451</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C94">
-        <v>0.82</v>
+        <v>0.9512195121951219</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B95">
-        <v>0.9607843137254902</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="C95">
-        <v>0.98</v>
+        <v>0.8536585365853658</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B96">
-        <v>0.5294117647058824</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C96">
-        <v>0.54</v>
+        <v>0.7317073170731707</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B97">
-        <v>0.8627450980392157</v>
+        <v>0.9215686274509803</v>
       </c>
       <c r="C97">
-        <v>0.88</v>
+        <v>1.146341463414634</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B98">
-        <v>0.6274509803921569</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C98">
-        <v>0.64</v>
+        <v>1.097560975609756</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B99">
-        <v>0.8823529411764706</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="C99">
-        <v>0.9</v>
+        <v>1.048780487804878</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B100">
-        <v>0.3529411764705883</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C100">
-        <v>0.36</v>
+        <v>0.926829268292683</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B101">
-        <v>0.9215686274509803</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="C101">
-        <v>0.9399999999999999</v>
+        <v>0.1219512195121951</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B102">
-        <v>0.8431372549019608</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="C102">
-        <v>0.86</v>
+        <v>0.0975609756097561</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="C103">
-        <v>1.02</v>
+        <v>0.2439024390243902</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B104">
-        <v>0.5686274509803921</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C104">
-        <v>0.58</v>
+        <v>0.1463414634146341</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B105">
-        <v>0.9019607843137255</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="C105">
-        <v>0.92</v>
+        <v>0.0975609756097561</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B106">
-        <v>0.6666666666666666</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C106">
-        <v>0.68</v>
+        <v>0.1463414634146341</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B107">
-        <v>0.9215686274509803</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="C107">
-        <v>0.9399999999999999</v>
+        <v>0.1707317073170732</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B108">
-        <v>0.392156862745098</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="C108">
-        <v>0.4</v>
+        <v>0.2682926829268293</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B109">
-        <v>0.9607843137254902</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C109">
-        <v>0.98</v>
+        <v>0.3414634146341464</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B110">
-        <v>0.5490196078431373</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C110">
-        <v>0.5600000000000001</v>
+        <v>0.5121951219512195</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B111">
-        <v>0.6078431372549019</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C111">
-        <v>0.62</v>
+        <v>0.1463414634146341</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B112">
-        <v>0.4117647058823529</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="C112">
-        <v>0.42</v>
+        <v>0.1707317073170732</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B113">
-        <v>0.5490196078431373</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C113">
-        <v>0.5600000000000001</v>
+        <v>0.8780487804878049</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B114">
-        <v>0.4705882352941176</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="C114">
-        <v>0.48</v>
+        <v>0.7560975609756098</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B115">
-        <v>0.5686274509803921</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C115">
-        <v>0.58</v>
+        <v>0.6829268292682927</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B116">
-        <v>0.2352941176470588</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C116">
-        <v>0.24</v>
+        <v>1.097560975609756</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B117">
-        <v>0.5882352941176471</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="C117">
-        <v>0.6</v>
+        <v>1.048780487804878</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B118">
-        <v>0.2352941176470588</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C118">
-        <v>0.24</v>
+        <v>0.5121951219512195</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B119">
-        <v>0.2352941176470588</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="C119">
-        <v>0.24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B120">
-        <v>0.1568627450980392</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="C120">
-        <v>0.16</v>
+        <v>0.9024390243902439</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B121">
-        <v>0.2352941176470588</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="C121">
-        <v>0.24</v>
+        <v>0.7804878048780488</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B122">
-        <v>0.196078431372549</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C122">
-        <v>0.2</v>
+        <v>0.4146341463414634</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B123">
-        <v>0.2352941176470588</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C123">
-        <v>0.24</v>
+        <v>0.5365853658536586</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B124">
-        <v>0.09803921568627451</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C124">
-        <v>0.1</v>
+        <v>0.4878048780487805</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B125">
-        <v>0.2352941176470588</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="C125">
-        <v>0.24</v>
+        <v>0.0975609756097561</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B126">
-        <v>0.8627450980392157</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="C126">
-        <v>0.88</v>
+        <v>0.975609756097561</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B127">
-        <v>0.6078431372549019</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C127">
-        <v>0.62</v>
+        <v>1.170731707317073</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B128">
-        <v>0.2352941176470588</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C128">
-        <v>0.24</v>
+        <v>1.097560975609756</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -11158,7 +7952,7 @@
         <v>0.8431372549019608</v>
       </c>
       <c r="C129">
-        <v>0.86</v>
+        <v>1.048780487804878</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -11174,2642 +7968,123 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B131">
-        <v>0.5686274509803921</v>
+        <v>1</v>
       </c>
       <c r="C131">
-        <v>0.58</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B132">
-        <v>0.9019607843137255</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C132">
-        <v>0.92</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B133">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="C133">
-        <v>0.68</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B134">
-        <v>0.9215686274509803</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C134">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B135">
-        <v>0.392156862745098</v>
+        <v>1</v>
       </c>
       <c r="C135">
-        <v>0.4</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B136">
-        <v>0.9607843137254902</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C136">
-        <v>0.98</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C137">
-        <v>1.02</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B138">
-        <v>0.7450980392156863</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>0.76</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B139">
-        <v>0.8431372549019608</v>
+        <v>1</v>
       </c>
       <c r="C139">
-        <v>0.86</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B140">
-        <v>0.8823529411764706</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="C140">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B141">
-        <v>0.5098039215686274</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142">
-        <v>35</v>
-      </c>
-      <c r="B142">
-        <v>0.6862745098039216</v>
-      </c>
-      <c r="C142">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143">
-        <v>39</v>
-      </c>
-      <c r="B143">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="C143">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144">
-        <v>40</v>
-      </c>
-      <c r="B144">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="C144">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145">
-        <v>44</v>
-      </c>
-      <c r="B145">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="C145">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146">
-        <v>49</v>
-      </c>
-      <c r="B146">
-        <v>0.9607843137254902</v>
-      </c>
-      <c r="C146">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147">
-        <v>51</v>
-      </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-      <c r="C147">
         <v>1.02</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148">
-        <v>31</v>
-      </c>
-      <c r="B148">
-        <v>0.6078431372549019</v>
-      </c>
-      <c r="C148">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149">
-        <v>12</v>
-      </c>
-      <c r="B149">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="C149">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150">
-        <v>45</v>
-      </c>
-      <c r="B150">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="C150">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151">
-        <v>51</v>
-      </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-      <c r="C151">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152">
-        <v>38</v>
-      </c>
-      <c r="B152">
-        <v>0.7450980392156863</v>
-      </c>
-      <c r="C152">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153">
-        <v>45</v>
-      </c>
-      <c r="B153">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="C153">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154">
-        <v>26</v>
-      </c>
-      <c r="B154">
-        <v>0.5098039215686274</v>
-      </c>
-      <c r="C154">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155">
-        <v>40</v>
-      </c>
-      <c r="B155">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="C155">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156">
-        <v>30</v>
-      </c>
-      <c r="B156">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="C156">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157">
-        <v>41</v>
-      </c>
-      <c r="B157">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="C157">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158">
-        <v>18</v>
-      </c>
-      <c r="B158">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="C158">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159">
-        <v>43</v>
-      </c>
-      <c r="B159">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="C159">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160">
-        <v>34</v>
-      </c>
-      <c r="B160">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="C160">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161">
-        <v>40</v>
-      </c>
-      <c r="B161">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="C161">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162">
-        <v>23</v>
-      </c>
-      <c r="B162">
-        <v>0.4509803921568628</v>
-      </c>
-      <c r="C162">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163">
-        <v>36</v>
-      </c>
-      <c r="B163">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="C163">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164">
-        <v>27</v>
-      </c>
-      <c r="B164">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="C164">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165">
-        <v>37</v>
-      </c>
-      <c r="B165">
-        <v>0.7254901960784313</v>
-      </c>
-      <c r="C165">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166">
-        <v>15</v>
-      </c>
-      <c r="B166">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="C166">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167">
-        <v>39</v>
-      </c>
-      <c r="B167">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="C167">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168">
-        <v>43</v>
-      </c>
-      <c r="B168">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="C168">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169">
-        <v>51</v>
-      </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-      <c r="C169">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170">
-        <v>29</v>
-      </c>
-      <c r="B170">
-        <v>0.5686274509803921</v>
-      </c>
-      <c r="C170">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171">
-        <v>46</v>
-      </c>
-      <c r="B171">
-        <v>0.9019607843137255</v>
-      </c>
-      <c r="C171">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172">
-        <v>34</v>
-      </c>
-      <c r="B172">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="C172">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173">
-        <v>47</v>
-      </c>
-      <c r="B173">
-        <v>0.9215686274509803</v>
-      </c>
-      <c r="C173">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174">
-        <v>20</v>
-      </c>
-      <c r="B174">
-        <v>0.392156862745098</v>
-      </c>
-      <c r="C174">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175">
-        <v>49</v>
-      </c>
-      <c r="B175">
-        <v>0.9607843137254902</v>
-      </c>
-      <c r="C175">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176">
-        <v>45</v>
-      </c>
-      <c r="B176">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="C176">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177">
-        <v>40</v>
-      </c>
-      <c r="B177">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="C177">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178">
-        <v>51</v>
-      </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-      <c r="C178">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179">
-        <v>7</v>
-      </c>
-      <c r="B179">
-        <v>0.1372549019607843</v>
-      </c>
-      <c r="C179">
-        <v>0.1707317073170732</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180">
-        <v>6</v>
-      </c>
-      <c r="B180">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C180">
-        <v>0.1463414634146341</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181">
-        <v>11</v>
-      </c>
-      <c r="B181">
-        <v>0.2156862745098039</v>
-      </c>
-      <c r="C181">
-        <v>0.2682926829268293</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182">
-        <v>7</v>
-      </c>
-      <c r="B182">
-        <v>0.1372549019607843</v>
-      </c>
-      <c r="C182">
-        <v>0.1707317073170732</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183">
-        <v>49</v>
-      </c>
-      <c r="B183">
-        <v>0.9607843137254902</v>
-      </c>
-      <c r="C183">
-        <v>1.195121951219512</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184">
-        <v>2</v>
-      </c>
-      <c r="B184">
-        <v>0.0392156862745098</v>
-      </c>
-      <c r="C184">
-        <v>0.04878048780487805</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185">
-        <v>19</v>
-      </c>
-      <c r="B185">
-        <v>0.3725490196078431</v>
-      </c>
-      <c r="C185">
-        <v>0.4634146341463415</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186">
-        <v>51</v>
-      </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-      <c r="C186">
-        <v>1.24390243902439</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187">
-        <v>51</v>
-      </c>
-      <c r="B187">
-        <v>1</v>
-      </c>
-      <c r="C187">
-        <v>1.24390243902439</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188">
-        <v>47</v>
-      </c>
-      <c r="B188">
-        <v>0.9215686274509803</v>
-      </c>
-      <c r="C188">
-        <v>1.146341463414634</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189">
-        <v>31</v>
-      </c>
-      <c r="B189">
-        <v>0.6078431372549019</v>
-      </c>
-      <c r="C189">
-        <v>0.7560975609756098</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190">
-        <v>33</v>
-      </c>
-      <c r="B190">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="C190">
-        <v>0.8048780487804879</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191">
-        <v>48</v>
-      </c>
-      <c r="B191">
-        <v>0.9411764705882353</v>
-      </c>
-      <c r="C191">
-        <v>1.170731707317073</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192">
-        <v>2</v>
-      </c>
-      <c r="B192">
-        <v>0.0392156862745098</v>
-      </c>
-      <c r="C192">
-        <v>0.04878048780487805</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193">
-        <v>42</v>
-      </c>
-      <c r="B193">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="C193">
-        <v>1.024390243902439</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194">
-        <v>12</v>
-      </c>
-      <c r="B194">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="C194">
-        <v>0.2926829268292683</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195">
-        <v>20</v>
-      </c>
-      <c r="B195">
-        <v>0.392156862745098</v>
-      </c>
-      <c r="C195">
-        <v>0.4878048780487805</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196">
-        <v>23</v>
-      </c>
-      <c r="B196">
-        <v>0.4509803921568628</v>
-      </c>
-      <c r="C196">
-        <v>0.5609756097560976</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197">
-        <v>20</v>
-      </c>
-      <c r="B197">
-        <v>0.392156862745098</v>
-      </c>
-      <c r="C197">
-        <v>0.4878048780487805</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198">
-        <v>37</v>
-      </c>
-      <c r="B198">
-        <v>0.7254901960784313</v>
-      </c>
-      <c r="C198">
-        <v>0.9024390243902439</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199">
-        <v>8</v>
-      </c>
-      <c r="B199">
-        <v>0.1568627450980392</v>
-      </c>
-      <c r="C199">
-        <v>0.1951219512195122</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200">
-        <v>35</v>
-      </c>
-      <c r="B200">
-        <v>0.6862745098039216</v>
-      </c>
-      <c r="C200">
-        <v>0.8536585365853658</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201">
-        <v>37</v>
-      </c>
-      <c r="B201">
-        <v>0.7254901960784313</v>
-      </c>
-      <c r="C201">
-        <v>0.9024390243902439</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202">
-        <v>46</v>
-      </c>
-      <c r="B202">
-        <v>0.9019607843137255</v>
-      </c>
-      <c r="C202">
-        <v>1.121951219512195</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203">
-        <v>50</v>
-      </c>
-      <c r="B203">
-        <v>0.9803921568627451</v>
-      </c>
-      <c r="C203">
-        <v>1.219512195121951</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204">
-        <v>47</v>
-      </c>
-      <c r="B204">
-        <v>0.9215686274509803</v>
-      </c>
-      <c r="C204">
-        <v>1.146341463414634</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205">
-        <v>3</v>
-      </c>
-      <c r="B205">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="C205">
-        <v>0.07317073170731707</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206">
-        <v>17</v>
-      </c>
-      <c r="B206">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C206">
-        <v>0.4146341463414634</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207">
-        <v>39</v>
-      </c>
-      <c r="B207">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="C207">
-        <v>0.9512195121951219</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208">
-        <v>39</v>
-      </c>
-      <c r="B208">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="C208">
-        <v>0.9512195121951219</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209">
-        <v>22</v>
-      </c>
-      <c r="B209">
-        <v>0.4313725490196079</v>
-      </c>
-      <c r="C209">
-        <v>0.5365853658536586</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210">
-        <v>27</v>
-      </c>
-      <c r="B210">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="C210">
-        <v>0.6585365853658537</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211">
-        <v>5</v>
-      </c>
-      <c r="B211">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="C211">
-        <v>0.1219512195121951</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212">
-        <v>41</v>
-      </c>
-      <c r="B212">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="C212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213">
-        <v>15</v>
-      </c>
-      <c r="B213">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="C213">
-        <v>0.3658536585365854</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214">
-        <v>6</v>
-      </c>
-      <c r="B214">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C214">
-        <v>0.1463414634146341</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215">
-        <v>50</v>
-      </c>
-      <c r="B215">
-        <v>0.9803921568627451</v>
-      </c>
-      <c r="C215">
-        <v>1.219512195121951</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216">
-        <v>51</v>
-      </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-      <c r="C216">
-        <v>1.24390243902439</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217">
-        <v>30</v>
-      </c>
-      <c r="B217">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="C217">
-        <v>0.7317073170731707</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218">
-        <v>45</v>
-      </c>
-      <c r="B218">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="C218">
-        <v>1.097560975609756</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219">
-        <v>40</v>
-      </c>
-      <c r="B219">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="C219">
-        <v>0.975609756097561</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220">
-        <v>35</v>
-      </c>
-      <c r="B220">
-        <v>0.6862745098039216</v>
-      </c>
-      <c r="C220">
-        <v>0.8536585365853658</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221">
-        <v>51</v>
-      </c>
-      <c r="B221">
-        <v>1</v>
-      </c>
-      <c r="C221">
-        <v>1.24390243902439</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222">
-        <v>44</v>
-      </c>
-      <c r="B222">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="C222">
-        <v>1.073170731707317</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223">
-        <v>31</v>
-      </c>
-      <c r="B223">
-        <v>0.6078431372549019</v>
-      </c>
-      <c r="C223">
-        <v>0.7560975609756098</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224">
-        <v>4</v>
-      </c>
-      <c r="B224">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C224">
-        <v>0.0975609756097561</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225">
-        <v>49</v>
-      </c>
-      <c r="B225">
-        <v>0.9607843137254902</v>
-      </c>
-      <c r="C225">
-        <v>1.195121951219512</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226">
-        <v>51</v>
-      </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-      <c r="C226">
-        <v>1.24390243902439</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227">
-        <v>13</v>
-      </c>
-      <c r="B227">
-        <v>0.2549019607843137</v>
-      </c>
-      <c r="C227">
-        <v>0.3170731707317073</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228">
-        <v>6</v>
-      </c>
-      <c r="B228">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C228">
-        <v>0.1463414634146341</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229">
-        <v>3</v>
-      </c>
-      <c r="B229">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="C229">
-        <v>0.07317073170731707</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230">
-        <v>3</v>
-      </c>
-      <c r="B230">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="C230">
-        <v>0.07317073170731707</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231">
-        <v>2</v>
-      </c>
-      <c r="B231">
-        <v>0.0392156862745098</v>
-      </c>
-      <c r="C231">
-        <v>0.04878048780487805</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232">
-        <v>20</v>
-      </c>
-      <c r="B232">
-        <v>0.392156862745098</v>
-      </c>
-      <c r="C232">
-        <v>0.4878048780487805</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233">
-        <v>15</v>
-      </c>
-      <c r="B233">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="C233">
-        <v>0.3658536585365854</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234">
-        <v>16</v>
-      </c>
-      <c r="B234">
-        <v>0.3137254901960784</v>
-      </c>
-      <c r="C234">
-        <v>0.3902439024390244</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235">
-        <v>11</v>
-      </c>
-      <c r="B235">
-        <v>0.2156862745098039</v>
-      </c>
-      <c r="C235">
-        <v>0.2682926829268293</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236">
-        <v>28</v>
-      </c>
-      <c r="B236">
-        <v>0.5490196078431373</v>
-      </c>
-      <c r="C236">
-        <v>0.6829268292682927</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237">
-        <v>33</v>
-      </c>
-      <c r="B237">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="C237">
-        <v>0.8048780487804879</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238">
-        <v>2</v>
-      </c>
-      <c r="B238">
-        <v>0.0392156862745098</v>
-      </c>
-      <c r="C238">
-        <v>0.04878048780487805</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239">
-        <v>4</v>
-      </c>
-      <c r="B239">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C239">
-        <v>0.0975609756097561</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240">
-        <v>5</v>
-      </c>
-      <c r="B240">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="C240">
-        <v>0.1219512195121951</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241">
-        <v>5</v>
-      </c>
-      <c r="B241">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="C241">
-        <v>0.1219512195121951</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242">
-        <v>4</v>
-      </c>
-      <c r="B242">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C242">
-        <v>0.0975609756097561</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243">
-        <v>10</v>
-      </c>
-      <c r="B243">
-        <v>0.196078431372549</v>
-      </c>
-      <c r="C243">
-        <v>0.2439024390243902</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244">
-        <v>16</v>
-      </c>
-      <c r="B244">
-        <v>0.3137254901960784</v>
-      </c>
-      <c r="C244">
-        <v>0.3902439024390244</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245">
-        <v>5</v>
-      </c>
-      <c r="B245">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="C245">
-        <v>0.1219512195121951</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246">
-        <v>13</v>
-      </c>
-      <c r="B246">
-        <v>0.2549019607843137</v>
-      </c>
-      <c r="C246">
-        <v>0.3170731707317073</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247">
-        <v>6</v>
-      </c>
-      <c r="B247">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C247">
-        <v>0.1463414634146341</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248">
-        <v>6</v>
-      </c>
-      <c r="B248">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C248">
-        <v>0.1463414634146341</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249">
-        <v>4</v>
-      </c>
-      <c r="B249">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C249">
-        <v>0.0975609756097561</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250">
-        <v>18</v>
-      </c>
-      <c r="B250">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="C250">
-        <v>0.4390243902439024</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251">
-        <v>2</v>
-      </c>
-      <c r="B251">
-        <v>0.0392156862745098</v>
-      </c>
-      <c r="C251">
-        <v>0.04878048780487805</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252">
-        <v>4</v>
-      </c>
-      <c r="B252">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C252">
-        <v>0.0975609756097561</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253">
-        <v>5</v>
-      </c>
-      <c r="B253">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="C253">
-        <v>0.1219512195121951</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254">
-        <v>7</v>
-      </c>
-      <c r="B254">
-        <v>0.1372549019607843</v>
-      </c>
-      <c r="C254">
-        <v>0.1707317073170732</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255">
-        <v>12</v>
-      </c>
-      <c r="B255">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="C255">
-        <v>0.2926829268292683</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256">
-        <v>16</v>
-      </c>
-      <c r="B256">
-        <v>0.3137254901960784</v>
-      </c>
-      <c r="C256">
-        <v>0.3902439024390244</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257">
-        <v>13</v>
-      </c>
-      <c r="B257">
-        <v>0.2549019607843137</v>
-      </c>
-      <c r="C257">
-        <v>0.3170731707317073</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258">
-        <v>22</v>
-      </c>
-      <c r="B258">
-        <v>0.4313725490196079</v>
-      </c>
-      <c r="C258">
-        <v>0.5365853658536586</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259">
-        <v>15</v>
-      </c>
-      <c r="B259">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="C259">
-        <v>0.3658536585365854</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260">
-        <v>4</v>
-      </c>
-      <c r="B260">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C260">
-        <v>0.0975609756097561</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261">
-        <v>5</v>
-      </c>
-      <c r="B261">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="C261">
-        <v>0.1219512195121951</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262">
-        <v>6</v>
-      </c>
-      <c r="B262">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C262">
-        <v>0.1463414634146341</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263">
-        <v>5</v>
-      </c>
-      <c r="B263">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="C263">
-        <v>0.1219512195121951</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264">
-        <v>5</v>
-      </c>
-      <c r="B264">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="C264">
-        <v>0.1219512195121951</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265">
-        <v>4</v>
-      </c>
-      <c r="B265">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C265">
-        <v>0.0975609756097561</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266">
-        <v>4</v>
-      </c>
-      <c r="B266">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C266">
-        <v>0.0975609756097561</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267">
-        <v>17</v>
-      </c>
-      <c r="B267">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C267">
-        <v>0.4146341463414634</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268">
-        <v>21</v>
-      </c>
-      <c r="B268">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="C268">
-        <v>0.5121951219512195</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269">
-        <v>15</v>
-      </c>
-      <c r="B269">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="C269">
-        <v>0.3658536585365854</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270">
-        <v>10</v>
-      </c>
-      <c r="B270">
-        <v>0.196078431372549</v>
-      </c>
-      <c r="C270">
-        <v>0.2439024390243902</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271">
-        <v>12</v>
-      </c>
-      <c r="B271">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="C271">
-        <v>0.2926829268292683</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272">
-        <v>17</v>
-      </c>
-      <c r="B272">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C272">
-        <v>0.4146341463414634</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273">
-        <v>15</v>
-      </c>
-      <c r="B273">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="C273">
-        <v>0.3658536585365854</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274">
-        <v>15</v>
-      </c>
-      <c r="B274">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="C274">
-        <v>0.3658536585365854</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275">
-        <v>17</v>
-      </c>
-      <c r="B275">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C275">
-        <v>0.4146341463414634</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276">
-        <v>16</v>
-      </c>
-      <c r="B276">
-        <v>0.3137254901960784</v>
-      </c>
-      <c r="C276">
-        <v>0.3902439024390244</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277">
-        <v>18</v>
-      </c>
-      <c r="B277">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="C277">
-        <v>0.4390243902439024</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278">
-        <v>17</v>
-      </c>
-      <c r="B278">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C278">
-        <v>0.4146341463414634</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="A279">
-        <v>21</v>
-      </c>
-      <c r="B279">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="C279">
-        <v>0.5121951219512195</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
-      <c r="A280">
-        <v>17</v>
-      </c>
-      <c r="B280">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C280">
-        <v>0.4146341463414634</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281">
-        <v>22</v>
-      </c>
-      <c r="B281">
-        <v>0.4313725490196079</v>
-      </c>
-      <c r="C281">
-        <v>0.5365853658536586</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="A282">
-        <v>16</v>
-      </c>
-      <c r="B282">
-        <v>0.3137254901960784</v>
-      </c>
-      <c r="C282">
-        <v>0.3902439024390244</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283">
-        <v>19</v>
-      </c>
-      <c r="B283">
-        <v>0.3725490196078431</v>
-      </c>
-      <c r="C283">
-        <v>0.4634146341463415</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284">
-        <v>17</v>
-      </c>
-      <c r="B284">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C284">
-        <v>0.4146341463414634</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285">
-        <v>21</v>
-      </c>
-      <c r="B285">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="C285">
-        <v>0.5121951219512195</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
-      <c r="A286">
-        <v>2</v>
-      </c>
-      <c r="B286">
-        <v>0.0392156862745098</v>
-      </c>
-      <c r="C286">
-        <v>0.04878048780487805</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="A287">
-        <v>5</v>
-      </c>
-      <c r="B287">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="C287">
-        <v>0.1219512195121951</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
-      <c r="A288">
-        <v>9</v>
-      </c>
-      <c r="B288">
-        <v>0.1764705882352941</v>
-      </c>
-      <c r="C288">
-        <v>0.2195121951219512</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
-      <c r="A289">
-        <v>7</v>
-      </c>
-      <c r="B289">
-        <v>0.1372549019607843</v>
-      </c>
-      <c r="C289">
-        <v>0.1707317073170732</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
-      <c r="A290">
-        <v>4</v>
-      </c>
-      <c r="B290">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C290">
-        <v>0.0975609756097561</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
-      <c r="A291">
-        <v>10</v>
-      </c>
-      <c r="B291">
-        <v>0.196078431372549</v>
-      </c>
-      <c r="C291">
-        <v>0.2439024390243902</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
-      <c r="A292">
-        <v>6</v>
-      </c>
-      <c r="B292">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C292">
-        <v>0.1463414634146341</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
-      <c r="A293">
-        <v>4</v>
-      </c>
-      <c r="B293">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C293">
-        <v>0.0975609756097561</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294">
-        <v>9</v>
-      </c>
-      <c r="B294">
-        <v>0.1764705882352941</v>
-      </c>
-      <c r="C294">
-        <v>0.2195121951219512</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
-      <c r="A295">
-        <v>6</v>
-      </c>
-      <c r="B295">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C295">
-        <v>0.1463414634146341</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
-      <c r="A296">
-        <v>6</v>
-      </c>
-      <c r="B296">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C296">
-        <v>0.1463414634146341</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297">
-        <v>5</v>
-      </c>
-      <c r="B297">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="C297">
-        <v>0.1219512195121951</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
-      <c r="A298">
-        <v>7</v>
-      </c>
-      <c r="B298">
-        <v>0.1372549019607843</v>
-      </c>
-      <c r="C298">
-        <v>0.1707317073170732</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
-      <c r="A299">
-        <v>11</v>
-      </c>
-      <c r="B299">
-        <v>0.2156862745098039</v>
-      </c>
-      <c r="C299">
-        <v>0.2682926829268293</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
-      <c r="A300">
-        <v>19</v>
-      </c>
-      <c r="B300">
-        <v>0.3725490196078431</v>
-      </c>
-      <c r="C300">
-        <v>0.4634146341463415</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
-      <c r="A301">
-        <v>14</v>
-      </c>
-      <c r="B301">
-        <v>0.2745098039215687</v>
-      </c>
-      <c r="C301">
-        <v>0.3414634146341464</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
-      <c r="A302">
-        <v>21</v>
-      </c>
-      <c r="B302">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="C302">
-        <v>0.5121951219512195</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
-      <c r="A303">
-        <v>2</v>
-      </c>
-      <c r="B303">
-        <v>0.0392156862745098</v>
-      </c>
-      <c r="C303">
-        <v>0.04878048780487805</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3">
-      <c r="A304">
-        <v>4</v>
-      </c>
-      <c r="B304">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C304">
-        <v>0.0975609756097561</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
-      <c r="A305">
-        <v>6</v>
-      </c>
-      <c r="B305">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C305">
-        <v>0.1463414634146341</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
-      <c r="A306">
-        <v>6</v>
-      </c>
-      <c r="B306">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C306">
-        <v>0.1463414634146341</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
-      <c r="A307">
-        <v>6</v>
-      </c>
-      <c r="B307">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C307">
-        <v>0.1463414634146341</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
-      <c r="A308">
-        <v>4</v>
-      </c>
-      <c r="B308">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C308">
-        <v>0.0975609756097561</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
-      <c r="A309">
-        <v>5</v>
-      </c>
-      <c r="B309">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="C309">
-        <v>0.1219512195121951</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
-      <c r="A310">
-        <v>10</v>
-      </c>
-      <c r="B310">
-        <v>0.196078431372549</v>
-      </c>
-      <c r="C310">
-        <v>0.2439024390243902</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
-      <c r="A311">
-        <v>8</v>
-      </c>
-      <c r="B311">
-        <v>0.1568627450980392</v>
-      </c>
-      <c r="C311">
-        <v>0.1951219512195122</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
-      <c r="A312">
-        <v>7</v>
-      </c>
-      <c r="B312">
-        <v>0.1372549019607843</v>
-      </c>
-      <c r="C312">
-        <v>0.1707317073170732</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3">
-      <c r="A313">
-        <v>17</v>
-      </c>
-      <c r="B313">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C313">
-        <v>0.4146341463414634</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
-      <c r="A314">
-        <v>22</v>
-      </c>
-      <c r="B314">
-        <v>0.4313725490196079</v>
-      </c>
-      <c r="C314">
-        <v>0.5365853658536586</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3">
-      <c r="A315">
-        <v>14</v>
-      </c>
-      <c r="B315">
-        <v>0.2745098039215687</v>
-      </c>
-      <c r="C315">
-        <v>0.3414634146341464</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
-      <c r="A316">
-        <v>19</v>
-      </c>
-      <c r="B316">
-        <v>0.3725490196078431</v>
-      </c>
-      <c r="C316">
-        <v>0.4634146341463415</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
-      <c r="A317">
-        <v>16</v>
-      </c>
-      <c r="B317">
-        <v>0.3137254901960784</v>
-      </c>
-      <c r="C317">
-        <v>0.3902439024390244</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3">
-      <c r="A318">
-        <v>21</v>
-      </c>
-      <c r="B318">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="C318">
-        <v>0.5121951219512195</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3">
-      <c r="A319">
-        <v>17</v>
-      </c>
-      <c r="B319">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C319">
-        <v>0.4146341463414634</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3">
-      <c r="A320">
-        <v>11</v>
-      </c>
-      <c r="B320">
-        <v>0.2156862745098039</v>
-      </c>
-      <c r="C320">
-        <v>0.2682926829268293</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
-      <c r="A321">
-        <v>15</v>
-      </c>
-      <c r="B321">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="C321">
-        <v>0.3658536585365854</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3">
-      <c r="A322">
-        <v>4</v>
-      </c>
-      <c r="B322">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C322">
-        <v>0.0975609756097561</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3">
-      <c r="A323">
-        <v>6</v>
-      </c>
-      <c r="B323">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C323">
-        <v>0.1463414634146341</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
-      <c r="A324">
-        <v>2</v>
-      </c>
-      <c r="B324">
-        <v>0.0392156862745098</v>
-      </c>
-      <c r="C324">
-        <v>0.04878048780487805</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
-      <c r="A325">
-        <v>3</v>
-      </c>
-      <c r="B325">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="C325">
-        <v>0.07317073170731707</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
-      <c r="A326">
-        <v>6</v>
-      </c>
-      <c r="B326">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C326">
-        <v>0.1463414634146341</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
-      <c r="A327">
-        <v>5</v>
-      </c>
-      <c r="B327">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="C327">
-        <v>0.1219512195121951</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
-      <c r="A328">
-        <v>4</v>
-      </c>
-      <c r="B328">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C328">
-        <v>0.0975609756097561</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
-      <c r="A329">
-        <v>9</v>
-      </c>
-      <c r="B329">
-        <v>0.1764705882352941</v>
-      </c>
-      <c r="C329">
-        <v>0.2195121951219512</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
-      <c r="A330">
-        <v>13</v>
-      </c>
-      <c r="B330">
-        <v>0.2549019607843137</v>
-      </c>
-      <c r="C330">
-        <v>0.3170731707317073</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
-      <c r="A331">
-        <v>26</v>
-      </c>
-      <c r="B331">
-        <v>0.5098039215686274</v>
-      </c>
-      <c r="C331">
-        <v>0.6341463414634146</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
-      <c r="A332">
-        <v>4</v>
-      </c>
-      <c r="B332">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C332">
-        <v>0.0975609756097561</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
-      <c r="A333">
-        <v>3</v>
-      </c>
-      <c r="B333">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="C333">
-        <v>0.07317073170731707</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
-      <c r="A334">
-        <v>4</v>
-      </c>
-      <c r="B334">
-        <v>0.07843137254901961</v>
-      </c>
-      <c r="C334">
-        <v>0.0975609756097561</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
-      <c r="A335">
-        <v>6</v>
-      </c>
-      <c r="B335">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C335">
-        <v>0.1463414634146341</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
-      <c r="A336">
-        <v>5</v>
-      </c>
-      <c r="B336">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="C336">
-        <v>0.1219512195121951</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3">
-      <c r="A337">
-        <v>5</v>
-      </c>
-      <c r="B337">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="C337">
-        <v>0.1219512195121951</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
-      <c r="A338">
-        <v>12</v>
-      </c>
-      <c r="B338">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="C338">
-        <v>0.2926829268292683</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
-      <c r="A339">
-        <v>10</v>
-      </c>
-      <c r="B339">
-        <v>0.196078431372549</v>
-      </c>
-      <c r="C339">
-        <v>0.2439024390243902</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3">
-      <c r="A340">
-        <v>12</v>
-      </c>
-      <c r="B340">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="C340">
-        <v>0.2926829268292683</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3">
-      <c r="A341">
-        <v>17</v>
-      </c>
-      <c r="B341">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C341">
-        <v>0.4146341463414634</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3">
-      <c r="A342">
-        <v>15</v>
-      </c>
-      <c r="B342">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="C342">
-        <v>0.3658536585365854</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
-      <c r="A343">
-        <v>15</v>
-      </c>
-      <c r="B343">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="C343">
-        <v>0.3658536585365854</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
-      <c r="A344">
-        <v>15</v>
-      </c>
-      <c r="B344">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="C344">
-        <v>0.3658536585365854</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
-      <c r="A345">
-        <v>18</v>
-      </c>
-      <c r="B345">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="C345">
-        <v>0.4390243902439024</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
-      <c r="A346">
-        <v>18</v>
-      </c>
-      <c r="B346">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="C346">
-        <v>0.4390243902439024</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
-      <c r="A347">
-        <v>32</v>
-      </c>
-      <c r="B347">
-        <v>0.6274509803921569</v>
-      </c>
-      <c r="C347">
-        <v>0.7804878048780488</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="A348">
-        <v>40</v>
-      </c>
-      <c r="B348">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="C348">
-        <v>0.975609756097561</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
-      <c r="A349">
-        <v>17</v>
-      </c>
-      <c r="B349">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C349">
-        <v>0.4146341463414634</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
-      <c r="A350">
-        <v>31</v>
-      </c>
-      <c r="B350">
-        <v>0.6078431372549019</v>
-      </c>
-      <c r="C350">
-        <v>0.7560975609756098</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
-      <c r="A351">
-        <v>19</v>
-      </c>
-      <c r="B351">
-        <v>0.3725490196078431</v>
-      </c>
-      <c r="C351">
-        <v>0.4634146341463415</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="A352">
-        <v>33</v>
-      </c>
-      <c r="B352">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="C352">
-        <v>0.8048780487804879</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3">
-      <c r="A353">
-        <v>42</v>
-      </c>
-      <c r="B353">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="C353">
-        <v>1.024390243902439</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3">
-      <c r="A354">
-        <v>47</v>
-      </c>
-      <c r="B354">
-        <v>0.9215686274509803</v>
-      </c>
-      <c r="C354">
-        <v>1.146341463414634</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
-      <c r="A355">
-        <v>17</v>
-      </c>
-      <c r="B355">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C355">
-        <v>0.4146341463414634</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3">
-      <c r="A356">
-        <v>21</v>
-      </c>
-      <c r="B356">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="C356">
-        <v>0.5121951219512195</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
-      <c r="A357">
-        <v>29</v>
-      </c>
-      <c r="B357">
-        <v>0.5686274509803921</v>
-      </c>
-      <c r="C357">
-        <v>0.7073170731707317</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
-      <c r="A358">
-        <v>16</v>
-      </c>
-      <c r="B358">
-        <v>0.3137254901960784</v>
-      </c>
-      <c r="C358">
-        <v>0.3902439024390244</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
-      <c r="A359">
-        <v>20</v>
-      </c>
-      <c r="B359">
-        <v>0.392156862745098</v>
-      </c>
-      <c r="C359">
-        <v>0.4878048780487805</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3">
-      <c r="A360">
-        <v>17</v>
-      </c>
-      <c r="B360">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C360">
-        <v>0.4146341463414634</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
-      <c r="A361">
-        <v>22</v>
-      </c>
-      <c r="B361">
-        <v>0.4313725490196079</v>
-      </c>
-      <c r="C361">
-        <v>0.5365853658536586</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3">
-      <c r="A362">
-        <v>6</v>
-      </c>
-      <c r="B362">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C362">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3">
-      <c r="A363">
-        <v>47</v>
-      </c>
-      <c r="B363">
-        <v>0.9215686274509803</v>
-      </c>
-      <c r="C363">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
-      <c r="A364">
-        <v>2</v>
-      </c>
-      <c r="B364">
-        <v>0.0392156862745098</v>
-      </c>
-      <c r="C364">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
-      <c r="A365">
-        <v>19</v>
-      </c>
-      <c r="B365">
-        <v>0.3725490196078431</v>
-      </c>
-      <c r="C365">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
-      <c r="A366">
-        <v>2</v>
-      </c>
-      <c r="B366">
-        <v>0.0392156862745098</v>
-      </c>
-      <c r="C366">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
-      <c r="A367">
-        <v>3</v>
-      </c>
-      <c r="B367">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="C367">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3">
-      <c r="A368">
-        <v>6</v>
-      </c>
-      <c r="B368">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C368">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3">
-      <c r="A369">
-        <v>6</v>
-      </c>
-      <c r="B369">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C369">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3">
-      <c r="A370">
-        <v>6</v>
-      </c>
-      <c r="B370">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C370">
-        <v>0.12</v>
       </c>
     </row>
   </sheetData>

--- a/results/DRSA/FileVC_DRSA_DOMApriori_NEW1.xlsx
+++ b/results/DRSA/FileVC_DRSA_DOMApriori_NEW1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="479">
   <si>
     <t>name</t>
   </si>
@@ -1034,448 +1034,400 @@
     <t>Reguła 132</t>
   </si>
   <si>
-    <t>Reguła 133</t>
-  </si>
-  <si>
-    <t>Reguła 134</t>
-  </si>
-  <si>
-    <t>Reguła 135</t>
-  </si>
-  <si>
-    <t>Reguła 136</t>
-  </si>
-  <si>
-    <t>Reguła 137</t>
-  </si>
-  <si>
-    <t>Reguła 138</t>
-  </si>
-  <si>
-    <t>Reguła 139</t>
-  </si>
-  <si>
-    <t>Reguła 140</t>
-  </si>
-  <si>
-    <t>(age &gt;=  42.0) =&gt; (class &lt;= 2) ['a5', 'a6']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  39.0) =&gt; (class &lt;= 2) ['a51', 'a49', 'a11', 'a48', 'a5', 'a6', 'a33', 'a23']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  38.0) =&gt; (class &lt;= 2) ['a51', 'a41', 'a49', 'a11', 'a36', 'a48', 'a3', 'a5', 'a6', 'a33', 'a17', 'a23']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a11', 'a7', 'a4', 'a33', 'a9', 'a30']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 2) ['a28', 'a41', 'a51', 'a11', 'a24', 'a40', 'a36', 'a5', 'a26', 'a4', 'a33', 'a9', 'a17', 'a30', 'a23']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  12.0) =&gt; (class &lt;= 2) ['a51', 'a41', 'a11', 'a24', 'a5', 'a26', 'a4', 'a33', 'a9', 'a30', 'a23']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a11', 'a4', 'a33', 'a9', 'a30']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a11', 'a4', 'a33']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  4.0) &amp; (morpho_quality &lt;=  14.0) =&gt; (class &lt;= 2) ['a51', 'a41', 'a32', 'a36', 'a6', 'a4', 'a17', 'a21', 'a30']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  4.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 2) ['a51', 'a41', 'a36', 'a4', 'a17', 'a30']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  4.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 2) ['a51', 'a41', 'a49', 'a11', 'a36', 'a9', 'a7', 'a33', 'a26', 'a30']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  3.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a11', 'a7', 'a33', 'a9', 'a30']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a7', 'a11', 'a33']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  11.0) =&gt; (class &lt;= 2) ['a11', 'a24', 'a43', 'a5', 'a33', 'a9']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a11', 'a33', 'a9']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a11', 'a33']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  2.0) &amp; (morpho_quality &lt;=  12.0) =&gt; (class &lt;= 2) ['a49', 'a23', 'a33', 'a9']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  5.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a11', 'a7', 'a33', 'a9', 'a30']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  5.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a7', 'a11', 'a33']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) =&gt; (class &lt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  3.0) =&gt; (class &lt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  2.0) =&gt; (class &lt;= 3) ['a5', 'a7', 'a2', 'a42']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &lt;=  20.0) =&gt; (class &lt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(develop_quality &lt;=  5.0) =&gt; (class &lt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(develop_quality &lt;=  4.0) =&gt; (class &lt;= 3) ['a11', 'a43', 'a3', 'a50', 'a1', 'a45', 'a34', 'a23', 'a5', 'a29', 'a17', 'a13', 'a38', 'a51', 'a22', 'a49', 'a24', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a25', 'a19', 'a47', 'a12', 'a44', 'a26', 'a21']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  6.0) =&gt; (class &lt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  4.0) =&gt; (class &lt;= 3) ['a51', 'a41', 'a32', 'a36', 'a27', 'a29', 'a6', 'a4', 'a17', 'a31', 'a16', 'a42', 'a21', 'a30']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  4.0) =&gt; (class &lt;= 3) ['a11', 'a3', 'a6', 'a1', 'a34', 'a8', 'a32', 'a13', 'a38', 'a51', 'a22', 'a49', 'a7', 'a33', 'a9', 'a16', 'a30', 'a41', 'a36', 'a37', 'a12', 'a44', 'a26', 'a21']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  1.0) =&gt; (class &lt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &lt;=  12.0) =&gt; (class &lt;= 3) ['a51', 'a41', 'a49', 'a11', 'a25', 'a24', 'a43', 'a5', 'a7', 'a26', 'a4', 'a33', 'a9', 'a45', 'a30', 'a23']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  35.0) =&gt; (class &lt;= 3) ['a11', 'a3', 'a27', 'a6', 'a1', 'a39', 'a34', 'a23', 'a5', 'a29', 'a17', 'a13', 'a51', 'a22', 'a49', 'a48', 'a33', 'a9', 'a41', 'a36', 'a12']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  26.0) =&gt; (class &lt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) &amp; (oocytes &gt;=  2.0) =&gt; (class &lt;= 3) ['a28', 'a11', 'a43', 'a3', 'a1', 'a6', 'a45', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  2.0) &amp; (sperm &lt;=  3.0) =&gt; (class &lt;= 3) ['a28', 'a22', 'a49', 'a15', 'a3', 'a31', 'a33', 'a9', 'a42', 'a46', 'a35', 'a23']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  4.0) &amp; (develop_quality &lt;=  5.0) =&gt; (class &lt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a40', 'a8', 'a34', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a35', 'a38', 'a51', 'a22', 'a49', 'a24', 'a48', 'a7', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a2', 'a37', 'a36', 'a4', 'a45', 'a39', 'a13']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26', 'a21']</t>
-  </si>
-  <si>
-    <t>(develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a28', 'a27', 'a6', 'a31', 'a40', 'a39', 'a8', 'a20', 'a32', 'a10', 'a46', 'a35', 'a2', 'a48', 'a18', 'a36', 'a37', 'a15', 'a42']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  38.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  6.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  1.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a39', 'a8', 'a34', 'a20', 'a32', 'a10', 'a29', 'a46', 'a13', 'a35', 'a38', 'a22', 'a2', 'a48', 'a16', 'a14', 'a18', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a27', 'a6', 'a31', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a35', 'a38', 'a51', 'a2', 'a48', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a42', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  6.0) =&gt; (class &gt;= 3) ['a4', 'a45']</t>
-  </si>
-  <si>
-    <t>(develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a2', 'a24', 'a48', 'a7', 'a4', 'a16', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a42', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) =&gt; (class &gt;= 3) ['a43', 'a3', 'a1', 'a45', 'a39', 'a8', 'a10', 'a46', 'a13', 'a38', 'a22', 'a2', 'a49', 'a48', 'a7', 'a14', 'a18', 'a25', 'a47', 'a12']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  4.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a50', 'a27', 'a6', 'a31', 'a45', 'a39', 'a8', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a2', 'a24', 'a48', 'a4', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  17.0) =&gt; (class &gt;= 3) ['a18', 'a2', 'a20', 'a48', 'a27', 'a39', 'a8', 'a14']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a33', 'a9', 'a14', 'a18', 'a25', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a50', 'a27', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a49', 'a2', 'a24', 'a48', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a49', 'a2', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  37.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a50', 'a27', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a13', 'a35', 'a38', 'a22', 'a2', 'a24', 'a7', 'a4', 'a9', 'a16', 'a14', 'a30', 'a18', 'a25', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a50', 'a27', 'a1', 'a31', 'a39', 'a34', 'a8', 'a20', 'a10', 'a29', 'a46', 'a13', 'a38', 'a2', 'a48', 'a16', 'a14', 'a18', 'a37', 'a15', 'a47', 'a42']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a50', 'a27', 'a31', 'a45', 'a39', 'a40', 'a23', 'a20', 'a10', 'a5', 'a29', 'a46', 'a17', 'a35', 'a2', 'a24', 'a48', 'a4', 'a14', 'a18', 'a25', 'a19', 'a15', 'a47', 'a42']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  4.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a33', 'a9', 'a16', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  32.0) =&gt; (class &gt;= 3) ['a18', 'a2', 'a25', 'a20', 'a19', 'a15', 'a50', 'a10', 'a7', 'a4', 'a42', 'a44', 'a45', 'a46', 'a14']</t>
-  </si>
-  <si>
-    <t>(develop_quality &gt;=  1.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a16', 'a14', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a48', 'a16', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a22', 'a2', 'a48', 'a16', 'a14', 'a18', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  13.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  35.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a50', 'a31', 'a45', 'a39', 'a8', 'a40', 'a20', 'a32', 'a10', 'a46', 'a35', 'a38', 'a2', 'a24', 'a7', 'a4', 'a16', 'a14', 'a30', 'a18', 'a25', 'a37', 'a19', 'a15', 'a47', 'a42', 'a44', 'a26', 'a21']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  41.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a38', 'a18', 'a2', 'a25', 'a49', 'a43', 'a48', 'a10', 'a47', 'a12', 'a45', 'a46', 'a39', 'a8', 'a13', 'a14']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  4.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a50', 'a45', 'a39', 'a8', 'a40', 'a23', 'a20', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a2', 'a24', 'a48', 'a14', 'a18', 'a25', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a50', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a49', 'a2', 'a24', 'a48', 'a33', 'a9', 'a14', 'a18', 'a25', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  4.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a50', 'a6', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a51', 'a49', 'a2', 'a24', 'a48', 'a33', 'a9', 'a16', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  5.0) &amp; (oocytes &lt;=  6.0) =&gt; (class &gt;= 3) ['a28', 'a11', 'a43', 'a3', 'a50', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a33', 'a9', 'a16', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (woman_eval &gt;=  2.0) =&gt; (class &gt;= 3) ['a2', 'a7', 'a1', 'a12', 'a45']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a38', 'a18', 'a2', 'a25', 'a43', 'a48', 'a10', 'a7', 'a47', 'a1', 'a12', 'a45', 'a39', 'a8', 'a13', 'a14']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a2', 'a37', 'a45', 'a39', 'a13']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a18', 'a2', 'a40', 'a37', 'a10', 'a7', 'a34', 'a47', 'a1', 'a45', 'a39', 'a8', 'a13']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  4.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a2', 'a37', 'a36', 'a45', 'a39', 'a13']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a2', 'a3', 'a7', 'a1', 'a12', 'a45']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (sperm &gt;=  3.0) =&gt; (class &gt;= 3) ['a38', 'a18', 'a22', 'a25', 'a49', 'a43', 'a48', 'a3', 'a10', 'a47', 'a1', 'a12', 'a45', 'a46', 'a39', 'a8', 'a13', 'a14']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a2', 'a3', 'a7', 'a1', 'a12']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a38', 'a18', 'a2', 'a25', 'a43', 'a48', 'a3', 'a10', 'a7', 'a47', 'a1', 'a46', 'a39', 'a8', 'a13', 'a14']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a40', 'a34', 'a39', 'a8', 'a20', 'a10', 'a46', 'a35', 'a38', 'a2', 'a48', 'a14', 'a18', 'a25', 'a37', 'a19', 'a15', 'a47', 'a44']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  4.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a28', 'a18', 'a2', 'a40', 'a20', 'a36', 'a37', 'a48', 'a15', 'a10', 'a6', 'a46', 'a39', 'a8', 'a35']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  6.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a33', 'a9', 'a14', 'a18', 'a25', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a22', 'a2', 'a49', 'a24', 'a48', 'a9', 'a14', 'a18', 'a25', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a1', 'a39', 'a34', 'a8', 'a40', 'a23', 'a20', 'a10', 'a46', 'a13', 'a35', 'a38', 'a22', 'a2', 'a49', 'a48', 'a14', 'a18', 'a25', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a1', 'a39', 'a34', 'a8', 'a40', 'a20', 'a10', 'a46', 'a13', 'a35', 'a38', 'a22', 'a2', 'a48', 'a14', 'a18', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  4.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a33', 'a9', 'a16', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  4.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a9', 'a16', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  12.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a27', 'a6', 'a1', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a22', 'a2', 'a48', 'a16', 'a14', 'a18', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a33', 'a9', 'a16', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a9', 'a16', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a46', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a16', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a6', 'a1', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a46', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a48', 'a16', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a6', 'a1', 'a39', 'a34', 'a8', 'a40', 'a20', 'a32', 'a10', 'a46', 'a13', 'a35', 'a38', 'a22', 'a2', 'a48', 'a16', 'a14', 'a18', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  7.0) &amp; (morpho_quality &gt;=  8.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  7.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  7.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a16', 'a14', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  7.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a28', 'a3', 'a50', 'a27', 'a6', 'a1', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a48', 'a16', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a2', 'a27', 'a10', 'a4', 'a40']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a39', 'a2', 'a4', 'a45']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a18', 'a2', 'a40', 'a39', 'a27', 'a10', 'a47', 'a4', 'a45', 'a17']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (woman_eval &gt;=  2.0) =&gt; (class &gt;= 3) ['a24', 'a19', 'a50', 'a27', 'a31', 'a23']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a50', 'a19', 'a27', 'a24']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a24', 'a19', 'a50', 'a27', 'a31', 'a23']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a2', 'a19', 'a50', 'a27', 'a10', 'a31', 'a40']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a2', 'a24', 'a19', 'a50', 'a27', 'a10', 'a5', 'a4', 'a31', 'a40', 'a23']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a28', 'a18', 'a2', 'a40', 'a20', 'a48', 'a15', 'a27', 'a10', 'a31', 'a42', 'a46', 'a39', 'a35']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a28', 'a50', 'a27', 'a31', 'a40', 'a39', 'a20', 'a10', 'a29', 'a46', 'a17', 'a35', 'a2', 'a48', 'a14', 'a18', 'a25', 'a19', 'a15', 'a47', 'a42']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a24', 'a19', 'a50', 'a27', 'a31', 'a23']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a2', 'a19', 'a50', 'a27', 'a10', 'a31', 'a40']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  4.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a50', 'a27', 'a6', 'a31', 'a45', 'a39', 'a8', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a2', 'a24', 'a48', 'a4', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  4.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a28', 'a50', 'a27', 'a6', 'a31', 'a39', 'a8', 'a40', 'a23', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a2', 'a48', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a50', 'a27', 'a6', 'a31', 'a39', 'a34', 'a8', 'a20', 'a32', 'a10', 'a29', 'a46', 'a13', 'a35', 'a38', 'a2', 'a48', 'a16', 'a14', 'a18', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a50', 'a27', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a49', 'a2', 'a24', 'a48', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a50', 'a27', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a49', 'a2', 'a24', 'a48', 'a9', 'a16', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a50', 'a27', 'a31', 'a39', 'a34', 'a8', 'a20', 'a10', 'a29', 'a46', 'a13', 'a38', 'a2', 'a48', 'a16', 'a14', 'a18', 'a37', 'a15', 'a47', 'a42']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a50', 'a27', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a49', 'a2', 'a24', 'a48', 'a16', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a28', 'a50', 'a27', 'a6', 'a31', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a49', 'a2', 'a48', 'a16', 'a14', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a28', 'a50', 'a27', 'a6', 'a31', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a2', 'a48', 'a16', 'a14', 'a18', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a18', 'a2', 'a20', 'a48', 'a19', 'a15', 'a50', 'a27', 'a10', 'a29', 'a47', 'a31', 'a42', 'a46', 'a39', 'a14', 'a35']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a28', 'a50', 'a27', 'a31', 'a40', 'a39', 'a23', 'a20', 'a10', 'a29', 'a46', 'a17', 'a35', 'a2', 'a48', 'a14', 'a18', 'a25', 'a19', 'a15', 'a47', 'a42']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a28', 'a50', 'a27', 'a31', 'a40', 'a39', 'a20', 'a10', 'a29', 'a46', 'a17', 'a35', 'a2', 'a48', 'a14', 'a18', 'a19', 'a15', 'a47', 'a42']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  5.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a39', 'a2', 'a13', 'a37']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  2.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a2', 'a24', 'a48', 'a7', 'a4', 'a16', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  2.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26', 'a21']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  2.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26', 'a21']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  2.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a28', 'a43', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a16', 'a14', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a44', 'a26', 'a21']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  6.0) =&gt; (class &gt;= 2) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  1.0) =&gt; (class &gt;= 2) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(develop_quality &gt;=  4.0) =&gt; (class &gt;= 2) ['a28', 'a3', 'a50', 'a27', 'a6', 'a31', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a35', 'a38', 'a51', 'a2', 'a48', 'a14', 'a30', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a42', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  44.0) =&gt; (class &gt;= 2) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  3.0) =&gt; (class &gt;= 2) ['a11', 'a43', 'a50', 'a27', 'a6', 'a1', 'a45', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a5', 'a29', 'a17', 'a13', 'a38', 'a51', 'a2', 'a24', 'a48', 'a7', 'a4', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a47', 'a12', 'a44', 'a26', 'a21']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) =&gt; (class &gt;= 2) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) =&gt; (class &gt;= 2) ['a43', 'a3', 'a1', 'a45', 'a39', 'a8', 'a10', 'a46', 'a13', 'a38', 'a22', 'a2', 'a49', 'a48', 'a7', 'a14', 'a18', 'a25', 'a47', 'a12']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  39.0) =&gt; (class &gt;= 2) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a22', 'a2', 'a24', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  5.0) =&gt; (class &gt;= 2) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(develop_quality &gt;=  1.0) =&gt; (class &gt;= 2) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  13.0) =&gt; (class &gt;= 2) ['a28', 'a3', 'a50', 'a27', 'a6', 'a1', 'a31', 'a39', 'a8', 'a34', 'a40', 'a20', 'a32', 'a10', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a22', 'a2', 'a48', 'a16', 'a14', 'a18', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a44', 'a21']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  13.0) =&gt; (class &gt;= 2) ['a28', 'a11', 'a43', 'a3', 'a50', 'a27', 'a1', 'a6', 'a31', 'a45', 'a39', 'a8', 'a34', 'a40', 'a23', 'a20', 'a32', 'a10', 'a5', 'a29', 'a46', 'a17', 'a13', 'a35', 'a38', 'a51', 'a22', 'a2', 'a49', 'a24', 'a48', 'a7', 'a4', 'a33', 'a9', 'a16', 'a14', 'a30', 'a41', 'a18', 'a25', 'a36', 'a37', 'a19', 'a15', 'a47', 'a12', 'a42', 'a26', 'a44', 'a21']</t>
+    <t>(age &gt;=  42.0) =&gt; (class &lt;= 2) ['a6', 'a5']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  39.0) =&gt; (class &lt;= 2) ['a51', 'a11', 'a6', 'a5', 'a49', 'a33', 'a48', 'a23']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  38.0) =&gt; (class &lt;= 2) ['a36', 'a11', 'a51', 'a6', 'a5', 'a49', 'a41', 'a33', 'a3', 'a48', 'a23', 'a17']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a11', 'a4', 'a9', 'a33', 'a30', 'a7']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 2) ['a36', 'a11', 'a24', 'a28', 'a4', 'a51', 'a5', 'a9', 'a41', 'a33', 'a26', 'a30', 'a40', 'a23', 'a17']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  12.0) =&gt; (class &lt;= 2) ['a51', 'a11', 'a24', 'a4', 'a5', 'a9', 'a41', 'a33', 'a26', 'a30', 'a23']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a11', 'a4', 'a9', 'a33', 'a30']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a33', 'a11', 'a4']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  4.0) &amp; (morpho_quality &lt;=  14.0) =&gt; (class &lt;= 2) ['a36', 'a51', 'a4', 'a6', 'a21', 'a41', 'a30', 'a32', 'a17']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  4.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 2) ['a36', 'a51', 'a4', 'a41', 'a30', 'a17']</t>
+  </si>
+  <si>
+    <t>(oocytes &gt;=  4.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 2) ['a36', 'a11', 'a51', 'a9', 'a49', 'a41', 'a33', 'a26', 'a30', 'a7']</t>
+  </si>
+  <si>
+    <t>(oocytes &gt;=  3.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a11', 'a9', 'a33', 'a30', 'a7']</t>
+  </si>
+  <si>
+    <t>(oocytes &gt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a33', 'a11', 'a7']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  11.0) =&gt; (class &lt;= 2) ['a11', 'a24', 'a5', 'a43', 'a9', 'a33']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a9', 'a11', 'a33']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a33', 'a11']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  2.0) &amp; (morpho_quality &lt;=  12.0) =&gt; (class &lt;= 2) ['a9', 'a33', 'a23', 'a49']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  5.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a11', 'a9', 'a33', 'a30', 'a7']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  5.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a33', 'a11', 'a7']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  1.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(sperm &lt;=  3.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(sperm &lt;=  2.0) =&gt; (class &lt;= 3) ['a2', 'a42', 'a5', 'a7']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &lt;=  20.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(develop_quality &lt;=  5.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(develop_quality &lt;=  4.0) =&gt; (class &lt;= 3) ['a11', 'a5', 'a45', 'a41', 'a23', 'a51', 'a24', 'a4', 'a14', 'a21', 'a49', 'a3', 'a47', 'a12', 'a29', 'a50', 'a22', 'a33', 'a26', 'a25', 'a30', 'a1', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a17']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  6.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  4.0) =&gt; (class &lt;= 3) ['a29', 'a36', 'a51', 'a4', 'a6', 'a21', 'a41', 'a16', 'a42', 'a30', 'a27', 'a32', 'a17', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &gt;=  4.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a37', 'a41', 'a51', 'a6', 'a21', 'a49', 'a3', 'a12', 'a22', 'a33', 'a26', 'a30', 'a32', 'a8', 'a1', 'a34', 'a38', 'a13', 'a9', 'a44', 'a16', 'a7']</t>
+  </si>
+  <si>
+    <t>(oocytes &gt;=  1.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &lt;=  12.0) =&gt; (class &lt;= 3) ['a51', 'a11', 'a24', 'a4', 'a5', 'a43', 'a9', 'a45', 'a49', 'a41', 'a33', 'a26', 'a25', 'a30', 'a7', 'a23']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  35.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a5', 'a41', 'a23', 'a39', 'a51', 'a6', 'a49', 'a3', 'a12', 'a29', 'a22', 'a33', 'a27', 'a48', 'a1', 'a34', 'a13', 'a9', 'a17']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  26.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  1.0) &amp; (oocytes &gt;=  2.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a39', 'a18', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  2.0) &amp; (sperm &lt;=  3.0) =&gt; (class &lt;= 3) ['a23', 'a28', 'a9', 'a22', 'a49', 'a33', 'a42', 'a3', 'a35', 'a46', 'a15', 'a31']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  4.0) &amp; (develop_quality &lt;=  5.0) =&gt; (class &lt;= 3) ['a11', 'a5', 'a10', 'a41', 'a46', 'a23', 'a51', 'a18', 'a24', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a36', 'a39', 'a4', 'a13', 'a45', 'a2', 'a37']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a39', 'a18', 'a6', 'a20', 'a42', 'a35', 'a40', 'a2', 'a27', 'a48', 'a32', 'a8', 'a31', 'a28', 'a15']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) =&gt; (class &gt;= 3) ['a36', 'a45', 'a10', 'a37', 'a41', 'a46', 'a39', 'a18', 'a24', 'a4', 'a14', 'a20', 'a21', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  6.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  1.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a10', 'a37', 'a46', 'a39', 'a18', 'a6', 'a14', 'a20', 'a21', 'a42', 'a3', 'a35', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15']</t>
+  </si>
+  <si>
+    <t>(develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a39', 'a18', 'a51', 'a6', 'a14', 'a20', 'a21', 'a42', 'a3', 'a35', 'a40', 'a47', 'a29', 'a50', 'a2', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a34', 'a38', 'a44', 'a19', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  6.0) =&gt; (class &gt;= 3) ['a45', 'a4']</t>
+  </si>
+  <si>
+    <t>(develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a42', 'a3', 'a35', 'a40', 'a47', 'a29', 'a50', 'a2', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) =&gt; (class &gt;= 3) ['a45', 'a10', 'a46', 'a39', 'a18', 'a14', 'a49', 'a3', 'a47', 'a12', 'a2', 'a22', 'a25', 'a48', 'a8', 'a1', 'a38', 'a13', 'a43', 'a7']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  4.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a42', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a25', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a38', 'a13', 'a43', 'a44', 'a19', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  17.0) =&gt; (class &gt;= 3) ['a39', 'a18', 'a14', 'a20', 'a2', 'a27', 'a48', 'a8']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) =&gt; (class &gt;= 3) ['a11', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a14', 'a20', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a48', 'a8', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a7', 'a15']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) =&gt; (class &gt;= 3) ['a45', 'a10', 'a37', 'a46', 'a39', 'a18', 'a24', 'a4', 'a14', 'a20', 'a21', 'a42', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a10', 'a37', 'a46', 'a39', 'a18', 'a14', 'a20', 'a42', 'a47', 'a29', 'a50', 'a2', 'a27', 'a48', 'a8', 'a31', 'a1', 'a34', 'a38', 'a13', 'a16', 'a15']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) =&gt; (class &gt;= 3) ['a5', 'a45', 'a10', 'a46', 'a23', 'a39', 'a18', 'a24', 'a4', 'a14', 'a20', 'a42', 'a35', 'a40', 'a47', 'a29', 'a50', 'a2', 'a25', 'a27', 'a48', 'a31', 'a28', 'a43', 'a19', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  4.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a48', 'a8', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  32.0) =&gt; (class &gt;= 3) ['a18', 'a50', 'a4', 'a14', 'a20', 'a2', 'a44', 'a45', 'a10', 'a19', 'a25', 'a42', 'a46', 'a7', 'a15']</t>
+  </si>
+  <si>
+    <t>(develop_quality &gt;=  1.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a26', 'a25', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a51', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a26', 'a25', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a39', 'a18', 'a6', 'a14', 'a20', 'a21', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  13.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  35.0) =&gt; (class &gt;= 3) ['a45', 'a10', 'a37', 'a46', 'a39', 'a18', 'a24', 'a4', 'a14', 'a20', 'a21', 'a42', 'a35', 'a40', 'a47', 'a50', 'a2', 'a26', 'a25', 'a30', 'a32', 'a8', 'a31', 'a28', 'a38', 'a43', 'a44', 'a19', 'a16', 'a7', 'a15']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  1.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a39', 'a18', 'a38', 'a13', 'a14', 'a43', 'a45', 'a2', 'a10', 'a49', 'a25', 'a46', 'a48', 'a8', 'a47', 'a12']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  4.0) =&gt; (class &gt;= 3) ['a11', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a14', 'a20', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a25', 'a48', 'a8', 'a28', 'a38', 'a13', 'a43', 'a44', 'a19', 'a15']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a11', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a14', 'a20', 'a49', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a33', 'a26', 'a25', 'a48', 'a8', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a15']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  4.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a49', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a33', 'a26', 'a25', 'a48', 'a8', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a15']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (oocytes &lt;=  6.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  1.0) &amp; (woman_eval &gt;=  2.0) =&gt; (class &gt;= 3) ['a1', 'a45', 'a2', 'a7', 'a12']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a1', 'a18', 'a38', 'a39', 'a13', 'a14', 'a43', 'a45', 'a2', 'a10', 'a25', 'a48', 'a8', 'a7', 'a47', 'a12']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a39', 'a13', 'a45', 'a2', 'a37']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a1', 'a18', 'a34', 'a39', 'a13', 'a45', 'a2', 'a10', 'a37', 'a40', 'a8', 'a7', 'a47']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  4.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a36', 'a39', 'a13', 'a45', 'a2', 'a37']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a1', 'a45', 'a2', 'a3', 'a7', 'a12']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) &amp; (sperm &gt;=  3.0) =&gt; (class &gt;= 3) ['a1', 'a18', 'a38', 'a39', 'a13', 'a14', 'a43', 'a45', 'a22', 'a10', 'a49', 'a25', 'a3', 'a46', 'a48', 'a8', 'a47', 'a12']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  1.0) &amp; (develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a1', 'a2', 'a3', 'a7', 'a12']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a1', 'a18', 'a38', 'a39', 'a13', 'a14', 'a43', 'a2', 'a10', 'a25', 'a3', 'a46', 'a48', 'a8', 'a7', 'a47']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a10', 'a37', 'a46', 'a39', 'a18', 'a14', 'a20', 'a3', 'a35', 'a40', 'a47', 'a50', 'a2', 'a25', 'a48', 'a8', 'a28', 'a34', 'a38', 'a44', 'a19', 'a15']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  4.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a36', 'a18', 'a28', 'a39', 'a6', 'a20', 'a2', 'a10', 'a37', 'a35', 'a40', 'a46', 'a48', 'a8', 'a15']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  6.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a14', 'a20', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a48', 'a8', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a7', 'a15']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a14', 'a20', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a26', 'a25', 'a48', 'a8', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a15']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a14', 'a20', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a26', 'a25', 'a48', 'a8', 'a1', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a15']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a10', 'a37', 'a46', 'a39', 'a18', 'a14', 'a20', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a48', 'a8', 'a1', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a15']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  4.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a48', 'a8', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  4.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a26', 'a25', 'a48', 'a8', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a15']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  12.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a39', 'a18', 'a6', 'a14', 'a20', 'a21', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a27', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a26', 'a25', 'a30', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a15']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a26', 'a25', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a44', 'a19', 'a16', 'a15']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a51', 'a6', 'a14', 'a20', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a26', 'a25', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a39', 'a18', 'a6', 'a14', 'a20', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  7.0) &amp; (morpho_quality &gt;=  8.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  7.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  7.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a26', 'a25', 'a27', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  7.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a51', 'a6', 'a14', 'a20', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a26', 'a25', 'a27', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a4', 'a2', 'a10', 'a40', 'a27']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a39', 'a45', 'a2', 'a4']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a39', 'a18', 'a4', 'a45', 'a2', 'a10', 'a27', 'a40', 'a47', 'a17']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  1.0) &amp; (woman_eval &gt;=  2.0) =&gt; (class &gt;= 3) ['a24', 'a50', 'a19', 'a27', 'a23', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  1.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a24', 'a27', 'a50', 'a19']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a24', 'a50', 'a19', 'a27', 'a23', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a50', 'a2', 'a10', 'a19', 'a27', 'a40', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a24', 'a50', 'a4', 'a5', 'a2', 'a10', 'a19', 'a27', 'a40', 'a23', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a39', 'a18', 'a28', 'a46', 'a20', 'a2', 'a10', 'a42', 'a27', 'a35', 'a40', 'a48', 'a15', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a10', 'a46', 'a39', 'a18', 'a14', 'a20', 'a42', 'a35', 'a40', 'a47', 'a29', 'a50', 'a2', 'a25', 'a27', 'a48', 'a31', 'a28', 'a19', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  1.0) &amp; (develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a24', 'a50', 'a19', 'a27', 'a23', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a50', 'a2', 'a10', 'a19', 'a27', 'a40', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  4.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a42', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a25', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a38', 'a13', 'a43', 'a44', 'a19', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  4.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a6', 'a14', 'a20', 'a42', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a25', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a38', 'a13', 'a44', 'a19', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a10', 'a37', 'a46', 'a39', 'a18', 'a6', 'a14', 'a20', 'a21', 'a42', 'a35', 'a47', 'a12', 'a29', 'a50', 'a2', 'a27', 'a32', 'a8', 'a48', 'a31', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a10', 'a37', 'a46', 'a39', 'a18', 'a14', 'a20', 'a42', 'a47', 'a29', 'a50', 'a2', 'a27', 'a48', 'a8', 'a31', 'a34', 'a38', 'a13', 'a16', 'a15']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a26', 'a25', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a34', 'a38', 'a13', 'a43', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a51', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a26', 'a25', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a39', 'a18', 'a6', 'a14', 'a20', 'a21', 'a42', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a29', 'a18', 'a39', 'a50', 'a14', 'a20', 'a2', 'a10', 'a19', 'a42', 'a27', 'a35', 'a46', 'a48', 'a15', 'a47', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a10', 'a46', 'a23', 'a39', 'a18', 'a14', 'a20', 'a42', 'a35', 'a40', 'a47', 'a29', 'a50', 'a2', 'a25', 'a27', 'a48', 'a31', 'a28', 'a19', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a10', 'a46', 'a39', 'a18', 'a14', 'a20', 'a42', 'a35', 'a40', 'a47', 'a29', 'a50', 'a2', 'a27', 'a48', 'a31', 'a28', 'a19', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  5.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a37', 'a2', 'a13', 'a39']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  2.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a35', 'a40', 'a47', 'a29', 'a50', 'a2', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  2.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a36', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  2.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a36', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a21', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  2.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a36', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a21', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a26', 'a25', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  44.0) =&gt; (class &gt;= 2) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  3.0) =&gt; (class &gt;= 2) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a1', 'a34', 'a38', 'a13', 'a43', 'a44', 'a19', 'a16', 'a7', 'a17']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  39.0) =&gt; (class &gt;= 2) ['a36', 'a11', 'a45', 'a10', 'a37', 'a41', 'a46', 'a39', 'a18', 'a24', 'a4', 'a14', 'a20', 'a21', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  5.0) =&gt; (class &gt;= 2) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
   </si>
   <si>
     <t>support</t>
@@ -1493,10 +1445,10 @@
     <t>f1_score</t>
   </si>
   <si>
+    <t>accuracy</t>
+  </si>
+  <si>
     <t>correct</t>
-  </si>
-  <si>
-    <t>accuracy</t>
   </si>
   <si>
     <t>Obiekt</t>
@@ -3467,7 +3419,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3475,7 +3427,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3483,7 +3435,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="B3">
         <v>0.7843137254901961</v>
@@ -3491,7 +3443,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="B4">
         <v>0.7843137254901961</v>
@@ -3512,18 +3464,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -5389,7 +5341,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5408,7 +5360,7 @@
         <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5416,7 +5368,7 @@
         <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5424,7 +5376,7 @@
         <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5432,7 +5384,7 @@
         <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5440,7 +5392,7 @@
         <v>208</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5448,7 +5400,7 @@
         <v>209</v>
       </c>
       <c r="B7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5456,7 +5408,7 @@
         <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5464,7 +5416,7 @@
         <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5472,7 +5424,7 @@
         <v>212</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5480,7 +5432,7 @@
         <v>213</v>
       </c>
       <c r="B11" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5488,7 +5440,7 @@
         <v>214</v>
       </c>
       <c r="B12" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5496,7 +5448,7 @@
         <v>215</v>
       </c>
       <c r="B13" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5504,7 +5456,7 @@
         <v>216</v>
       </c>
       <c r="B14" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5512,7 +5464,7 @@
         <v>217</v>
       </c>
       <c r="B15" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5520,7 +5472,7 @@
         <v>218</v>
       </c>
       <c r="B16" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5528,7 +5480,7 @@
         <v>219</v>
       </c>
       <c r="B17" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5536,7 +5488,7 @@
         <v>220</v>
       </c>
       <c r="B18" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5544,7 +5496,7 @@
         <v>221</v>
       </c>
       <c r="B19" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5552,7 +5504,7 @@
         <v>222</v>
       </c>
       <c r="B20" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5560,7 +5512,7 @@
         <v>223</v>
       </c>
       <c r="B21" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5568,7 +5520,7 @@
         <v>224</v>
       </c>
       <c r="B22" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5576,7 +5528,7 @@
         <v>225</v>
       </c>
       <c r="B23" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5584,7 +5536,7 @@
         <v>226</v>
       </c>
       <c r="B24" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5592,7 +5544,7 @@
         <v>227</v>
       </c>
       <c r="B25" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5600,7 +5552,7 @@
         <v>228</v>
       </c>
       <c r="B26" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5608,7 +5560,7 @@
         <v>229</v>
       </c>
       <c r="B27" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5616,7 +5568,7 @@
         <v>230</v>
       </c>
       <c r="B28" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5624,7 +5576,7 @@
         <v>231</v>
       </c>
       <c r="B29" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5632,7 +5584,7 @@
         <v>232</v>
       </c>
       <c r="B30" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5640,7 +5592,7 @@
         <v>233</v>
       </c>
       <c r="B31" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5648,7 +5600,7 @@
         <v>234</v>
       </c>
       <c r="B32" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5656,7 +5608,7 @@
         <v>235</v>
       </c>
       <c r="B33" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5664,7 +5616,7 @@
         <v>236</v>
       </c>
       <c r="B34" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5672,7 +5624,7 @@
         <v>237</v>
       </c>
       <c r="B35" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5680,7 +5632,7 @@
         <v>238</v>
       </c>
       <c r="B36" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5688,7 +5640,7 @@
         <v>239</v>
       </c>
       <c r="B37" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5696,7 +5648,7 @@
         <v>240</v>
       </c>
       <c r="B38" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5704,7 +5656,7 @@
         <v>241</v>
       </c>
       <c r="B39" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5712,7 +5664,7 @@
         <v>242</v>
       </c>
       <c r="B40" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5720,7 +5672,7 @@
         <v>243</v>
       </c>
       <c r="B41" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5728,7 +5680,7 @@
         <v>244</v>
       </c>
       <c r="B42" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5736,7 +5688,7 @@
         <v>245</v>
       </c>
       <c r="B43" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5744,7 +5696,7 @@
         <v>246</v>
       </c>
       <c r="B44" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5752,7 +5704,7 @@
         <v>247</v>
       </c>
       <c r="B45" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5760,7 +5712,7 @@
         <v>248</v>
       </c>
       <c r="B46" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5768,7 +5720,7 @@
         <v>249</v>
       </c>
       <c r="B47" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5776,7 +5728,7 @@
         <v>250</v>
       </c>
       <c r="B48" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5784,7 +5736,7 @@
         <v>251</v>
       </c>
       <c r="B49" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5792,7 +5744,7 @@
         <v>252</v>
       </c>
       <c r="B50" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5800,7 +5752,7 @@
         <v>253</v>
       </c>
       <c r="B51" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5808,7 +5760,7 @@
         <v>254</v>
       </c>
       <c r="B52" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5816,7 +5768,7 @@
         <v>255</v>
       </c>
       <c r="B53" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5824,7 +5776,7 @@
         <v>256</v>
       </c>
       <c r="B54" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5832,7 +5784,7 @@
         <v>257</v>
       </c>
       <c r="B55" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5840,7 +5792,7 @@
         <v>258</v>
       </c>
       <c r="B56" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5848,7 +5800,7 @@
         <v>259</v>
       </c>
       <c r="B57" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5856,7 +5808,7 @@
         <v>260</v>
       </c>
       <c r="B58" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5864,7 +5816,7 @@
         <v>261</v>
       </c>
       <c r="B59" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5872,7 +5824,7 @@
         <v>262</v>
       </c>
       <c r="B60" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5880,7 +5832,7 @@
         <v>263</v>
       </c>
       <c r="B61" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5888,7 +5840,7 @@
         <v>264</v>
       </c>
       <c r="B62" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5896,7 +5848,7 @@
         <v>265</v>
       </c>
       <c r="B63" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5904,7 +5856,7 @@
         <v>266</v>
       </c>
       <c r="B64" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5912,7 +5864,7 @@
         <v>267</v>
       </c>
       <c r="B65" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5920,7 +5872,7 @@
         <v>268</v>
       </c>
       <c r="B66" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5928,7 +5880,7 @@
         <v>269</v>
       </c>
       <c r="B67" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5936,7 +5888,7 @@
         <v>270</v>
       </c>
       <c r="B68" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -5944,7 +5896,7 @@
         <v>271</v>
       </c>
       <c r="B69" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5952,7 +5904,7 @@
         <v>272</v>
       </c>
       <c r="B70" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -5960,7 +5912,7 @@
         <v>273</v>
       </c>
       <c r="B71" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -5968,7 +5920,7 @@
         <v>274</v>
       </c>
       <c r="B72" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5976,7 +5928,7 @@
         <v>275</v>
       </c>
       <c r="B73" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -5984,7 +5936,7 @@
         <v>276</v>
       </c>
       <c r="B74" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -5992,7 +5944,7 @@
         <v>277</v>
       </c>
       <c r="B75" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -6000,7 +5952,7 @@
         <v>278</v>
       </c>
       <c r="B76" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -6008,7 +5960,7 @@
         <v>279</v>
       </c>
       <c r="B77" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -6016,7 +5968,7 @@
         <v>280</v>
       </c>
       <c r="B78" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -6024,7 +5976,7 @@
         <v>281</v>
       </c>
       <c r="B79" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -6032,7 +5984,7 @@
         <v>282</v>
       </c>
       <c r="B80" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -6040,7 +5992,7 @@
         <v>283</v>
       </c>
       <c r="B81" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -6048,7 +6000,7 @@
         <v>284</v>
       </c>
       <c r="B82" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -6056,7 +6008,7 @@
         <v>285</v>
       </c>
       <c r="B83" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -6064,7 +6016,7 @@
         <v>286</v>
       </c>
       <c r="B84" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -6072,7 +6024,7 @@
         <v>287</v>
       </c>
       <c r="B85" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -6080,7 +6032,7 @@
         <v>288</v>
       </c>
       <c r="B86" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -6088,7 +6040,7 @@
         <v>289</v>
       </c>
       <c r="B87" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -6096,7 +6048,7 @@
         <v>290</v>
       </c>
       <c r="B88" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -6104,7 +6056,7 @@
         <v>291</v>
       </c>
       <c r="B89" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -6112,7 +6064,7 @@
         <v>292</v>
       </c>
       <c r="B90" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -6120,7 +6072,7 @@
         <v>293</v>
       </c>
       <c r="B91" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -6128,7 +6080,7 @@
         <v>294</v>
       </c>
       <c r="B92" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -6136,7 +6088,7 @@
         <v>295</v>
       </c>
       <c r="B93" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -6144,7 +6096,7 @@
         <v>296</v>
       </c>
       <c r="B94" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -6152,7 +6104,7 @@
         <v>297</v>
       </c>
       <c r="B95" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -6160,7 +6112,7 @@
         <v>298</v>
       </c>
       <c r="B96" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -6168,7 +6120,7 @@
         <v>299</v>
       </c>
       <c r="B97" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -6176,7 +6128,7 @@
         <v>300</v>
       </c>
       <c r="B98" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -6184,7 +6136,7 @@
         <v>301</v>
       </c>
       <c r="B99" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -6192,7 +6144,7 @@
         <v>302</v>
       </c>
       <c r="B100" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -6200,7 +6152,7 @@
         <v>303</v>
       </c>
       <c r="B101" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -6208,7 +6160,7 @@
         <v>304</v>
       </c>
       <c r="B102" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -6216,7 +6168,7 @@
         <v>305</v>
       </c>
       <c r="B103" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -6224,7 +6176,7 @@
         <v>306</v>
       </c>
       <c r="B104" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6232,7 +6184,7 @@
         <v>307</v>
       </c>
       <c r="B105" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -6240,7 +6192,7 @@
         <v>308</v>
       </c>
       <c r="B106" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -6248,7 +6200,7 @@
         <v>309</v>
       </c>
       <c r="B107" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -6256,7 +6208,7 @@
         <v>310</v>
       </c>
       <c r="B108" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -6264,7 +6216,7 @@
         <v>311</v>
       </c>
       <c r="B109" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -6272,7 +6224,7 @@
         <v>312</v>
       </c>
       <c r="B110" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -6280,7 +6232,7 @@
         <v>313</v>
       </c>
       <c r="B111" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -6288,7 +6240,7 @@
         <v>314</v>
       </c>
       <c r="B112" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -6296,7 +6248,7 @@
         <v>315</v>
       </c>
       <c r="B113" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -6304,7 +6256,7 @@
         <v>316</v>
       </c>
       <c r="B114" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -6312,7 +6264,7 @@
         <v>317</v>
       </c>
       <c r="B115" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -6320,7 +6272,7 @@
         <v>318</v>
       </c>
       <c r="B116" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -6328,7 +6280,7 @@
         <v>319</v>
       </c>
       <c r="B117" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -6336,7 +6288,7 @@
         <v>320</v>
       </c>
       <c r="B118" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -6344,7 +6296,7 @@
         <v>321</v>
       </c>
       <c r="B119" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -6352,7 +6304,7 @@
         <v>322</v>
       </c>
       <c r="B120" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -6360,7 +6312,7 @@
         <v>323</v>
       </c>
       <c r="B121" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -6368,7 +6320,7 @@
         <v>324</v>
       </c>
       <c r="B122" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -6376,7 +6328,7 @@
         <v>325</v>
       </c>
       <c r="B123" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -6384,7 +6336,7 @@
         <v>326</v>
       </c>
       <c r="B124" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -6392,7 +6344,7 @@
         <v>327</v>
       </c>
       <c r="B125" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -6400,7 +6352,7 @@
         <v>328</v>
       </c>
       <c r="B126" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -6408,7 +6360,7 @@
         <v>329</v>
       </c>
       <c r="B127" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -6416,7 +6368,7 @@
         <v>330</v>
       </c>
       <c r="B128" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -6424,7 +6376,7 @@
         <v>331</v>
       </c>
       <c r="B129" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -6432,7 +6384,7 @@
         <v>332</v>
       </c>
       <c r="B130" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -6440,7 +6392,7 @@
         <v>333</v>
       </c>
       <c r="B131" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -6448,7 +6400,7 @@
         <v>334</v>
       </c>
       <c r="B132" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -6456,71 +6408,7 @@
         <v>335</v>
       </c>
       <c r="B133" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>336</v>
-      </c>
-      <c r="B134" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>337</v>
-      </c>
-      <c r="B135" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>338</v>
-      </c>
-      <c r="B136" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>339</v>
-      </c>
-      <c r="B137" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>340</v>
-      </c>
-      <c r="B138" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>341</v>
-      </c>
-      <c r="B139" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>342</v>
-      </c>
-      <c r="B140" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>343</v>
-      </c>
-      <c r="B141" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -6530,7 +6418,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6538,13 +6426,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7968,24 +7856,24 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C131">
-        <v>1.02</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B132">
-        <v>0.6470588235294118</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C132">
-        <v>0.66</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -7996,94 +7884,6 @@
         <v>1</v>
       </c>
       <c r="C133">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134">
-        <v>39</v>
-      </c>
-      <c r="B134">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="C134">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135">
-        <v>51</v>
-      </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-      <c r="C135">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136">
-        <v>20</v>
-      </c>
-      <c r="B136">
-        <v>0.392156862745098</v>
-      </c>
-      <c r="C136">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137">
-        <v>45</v>
-      </c>
-      <c r="B137">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="C137">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138">
-        <v>51</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139">
-        <v>51</v>
-      </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-      <c r="C139">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140">
-        <v>35</v>
-      </c>
-      <c r="B140">
-        <v>0.6862745098039216</v>
-      </c>
-      <c r="C140">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141">
-        <v>51</v>
-      </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-      <c r="C141">
         <v>1.02</v>
       </c>
     </row>

--- a/results/DRSA/FileVC_DRSA_DOMApriori_NEW1.xlsx
+++ b/results/DRSA/FileVC_DRSA_DOMApriori_NEW1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="592">
   <si>
     <t>name</t>
   </si>
@@ -590,12 +590,18 @@
     <t>objects</t>
   </si>
   <si>
-    <t>['a5', 'a6', 'a11', 'a17', 'a23', 'a30', 'a33', 'a36', 'a51']</t>
+    <t>['a5', 'a6', 'a11', 'a23', 'a30', 'a33', 'a51']</t>
+  </si>
+  <si>
+    <t>['a1', 'a2', 'a3', 'a4', 'a5', 'a6', 'a7', 'a8', 'a9', 'a10', 'a11', 'a12', 'a13', 'a14', 'a16', 'a17', 'a18', 'a19', 'a20', 'a21', 'a22', 'a23', 'a24', 'a25', 'a26', 'a27', 'a29', 'a30', 'a31', 'a32', 'a33', 'a34', 'a36', 'a37', 'a38', 'a39', 'a41', 'a42', 'a43', 'a44', 'a45', 'a47', 'a48', 'a49', 'a50', 'a51']</t>
   </si>
   <si>
     <t>upper_approx_downward_union</t>
   </si>
   <si>
+    <t>['a1', 'a5', 'a6', 'a11', 'a17', 'a23', 'a30', 'a33', 'a36', 'a41', 'a51']</t>
+  </si>
+  <si>
     <t>['a1', 'a2', 'a3', 'a4', 'a5', 'a6', 'a7', 'a8', 'a9', 'a10', 'a11', 'a12', 'a13', 'a14', 'a15', 'a16', 'a17', 'a18', 'a19', 'a20', 'a21', 'a22', 'a23', 'a24', 'a25', 'a26', 'a27', 'a28', 'a29', 'a30', 'a31', 'a32', 'a33', 'a34', 'a35', 'a36', 'a37', 'a38', 'a39', 'a40', 'a41', 'a42', 'a43', 'a44', 'a45', 'a46', 'a47', 'a48', 'a49', 'a50', 'a51']</t>
   </si>
   <si>
@@ -608,13 +614,22 @@
     <t>[]</t>
   </si>
   <si>
+    <t>['a1', 'a17', 'a36', 'a41']</t>
+  </si>
+  <si>
+    <t>['a15', 'a28', 'a35', 'a40', 'a46']</t>
+  </si>
+  <si>
     <t>lower_approx_upward_union</t>
   </si>
   <si>
+    <t>['a2', 'a3', 'a4', 'a7', 'a8', 'a9', 'a10', 'a12', 'a13', 'a14', 'a15', 'a16', 'a18', 'a19', 'a20', 'a21', 'a22', 'a24', 'a25', 'a26', 'a27', 'a28', 'a29', 'a31', 'a32', 'a34', 'a35', 'a37', 'a38', 'a39', 'a40', 'a42', 'a43', 'a44', 'a45', 'a46', 'a47', 'a48', 'a49', 'a50']</t>
+  </si>
+  <si>
     <t>upper_approx_upward_union</t>
   </si>
   <si>
-    <t>['a1', 'a2', 'a3', 'a4', 'a7', 'a8', 'a9', 'a10', 'a12', 'a13', 'a14', 'a15', 'a16', 'a18', 'a19', 'a20', 'a21', 'a22', 'a24', 'a25', 'a26', 'a27', 'a28', 'a29', 'a31', 'a32', 'a34', 'a35', 'a37', 'a38', 'a39', 'a40', 'a41', 'a42', 'a43', 'a44', 'a45', 'a46', 'a47', 'a48', 'a49', 'a50']</t>
+    <t>['a1', 'a2', 'a3', 'a4', 'a7', 'a8', 'a9', 'a10', 'a12', 'a13', 'a14', 'a15', 'a16', 'a17', 'a18', 'a19', 'a20', 'a21', 'a22', 'a24', 'a25', 'a26', 'a27', 'a28', 'a29', 'a31', 'a32', 'a34', 'a35', 'a36', 'a37', 'a38', 'a39', 'a40', 'a41', 'a42', 'a43', 'a44', 'a45', 'a46', 'a47', 'a48', 'a49', 'a50']</t>
   </si>
   <si>
     <t>boundaries_upward_union</t>
@@ -1034,400 +1049,724 @@
     <t>Reguła 132</t>
   </si>
   <si>
-    <t>(age &gt;=  42.0) =&gt; (class &lt;= 2) ['a6', 'a5']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  39.0) =&gt; (class &lt;= 2) ['a51', 'a11', 'a6', 'a5', 'a49', 'a33', 'a48', 'a23']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  38.0) =&gt; (class &lt;= 2) ['a36', 'a11', 'a51', 'a6', 'a5', 'a49', 'a41', 'a33', 'a3', 'a48', 'a23', 'a17']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a11', 'a4', 'a9', 'a33', 'a30', 'a7']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 2) ['a36', 'a11', 'a24', 'a28', 'a4', 'a51', 'a5', 'a9', 'a41', 'a33', 'a26', 'a30', 'a40', 'a23', 'a17']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  12.0) =&gt; (class &lt;= 2) ['a51', 'a11', 'a24', 'a4', 'a5', 'a9', 'a41', 'a33', 'a26', 'a30', 'a23']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a11', 'a4', 'a9', 'a33', 'a30']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a33', 'a11', 'a4']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  4.0) &amp; (morpho_quality &lt;=  14.0) =&gt; (class &lt;= 2) ['a36', 'a51', 'a4', 'a6', 'a21', 'a41', 'a30', 'a32', 'a17']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  4.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 2) ['a36', 'a51', 'a4', 'a41', 'a30', 'a17']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  4.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 2) ['a36', 'a11', 'a51', 'a9', 'a49', 'a41', 'a33', 'a26', 'a30', 'a7']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  3.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a11', 'a9', 'a33', 'a30', 'a7']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a33', 'a11', 'a7']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  11.0) =&gt; (class &lt;= 2) ['a11', 'a24', 'a5', 'a43', 'a9', 'a33']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a9', 'a11', 'a33']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a33', 'a11']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  2.0) &amp; (morpho_quality &lt;=  12.0) =&gt; (class &lt;= 2) ['a9', 'a33', 'a23', 'a49']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  5.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a11', 'a9', 'a33', 'a30', 'a7']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  5.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a33', 'a11', 'a7']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  3.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  2.0) =&gt; (class &lt;= 3) ['a2', 'a42', 'a5', 'a7']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &lt;=  20.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(develop_quality &lt;=  5.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(develop_quality &lt;=  4.0) =&gt; (class &lt;= 3) ['a11', 'a5', 'a45', 'a41', 'a23', 'a51', 'a24', 'a4', 'a14', 'a21', 'a49', 'a3', 'a47', 'a12', 'a29', 'a50', 'a22', 'a33', 'a26', 'a25', 'a30', 'a1', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a17']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  6.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  4.0) =&gt; (class &lt;= 3) ['a29', 'a36', 'a51', 'a4', 'a6', 'a21', 'a41', 'a16', 'a42', 'a30', 'a27', 'a32', 'a17', 'a31']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  4.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a37', 'a41', 'a51', 'a6', 'a21', 'a49', 'a3', 'a12', 'a22', 'a33', 'a26', 'a30', 'a32', 'a8', 'a1', 'a34', 'a38', 'a13', 'a9', 'a44', 'a16', 'a7']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  1.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &lt;=  12.0) =&gt; (class &lt;= 3) ['a51', 'a11', 'a24', 'a4', 'a5', 'a43', 'a9', 'a45', 'a49', 'a41', 'a33', 'a26', 'a25', 'a30', 'a7', 'a23']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  35.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a5', 'a41', 'a23', 'a39', 'a51', 'a6', 'a49', 'a3', 'a12', 'a29', 'a22', 'a33', 'a27', 'a48', 'a1', 'a34', 'a13', 'a9', 'a17']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  26.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  1.0) &amp; (oocytes &gt;=  2.0) =&gt; (class &lt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a39', 'a18', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  2.0) &amp; (sperm &lt;=  3.0) =&gt; (class &lt;= 3) ['a23', 'a28', 'a9', 'a22', 'a49', 'a33', 'a42', 'a3', 'a35', 'a46', 'a15', 'a31']</t>
-  </si>
-  <si>
-    <t>(woman_eval &lt;=  4.0) &amp; (develop_quality &lt;=  5.0) =&gt; (class &lt;= 3) ['a11', 'a5', 'a10', 'a41', 'a46', 'a23', 'a51', 'a18', 'a24', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a36', 'a39', 'a4', 'a13', 'a45', 'a2', 'a37']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a39', 'a18', 'a6', 'a20', 'a42', 'a35', 'a40', 'a2', 'a27', 'a48', 'a32', 'a8', 'a31', 'a28', 'a15']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  38.0) =&gt; (class &gt;= 3) ['a36', 'a45', 'a10', 'a37', 'a41', 'a46', 'a39', 'a18', 'a24', 'a4', 'a14', 'a20', 'a21', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  6.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  1.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a10', 'a37', 'a46', 'a39', 'a18', 'a6', 'a14', 'a20', 'a21', 'a42', 'a3', 'a35', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15']</t>
-  </si>
-  <si>
-    <t>(develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a39', 'a18', 'a51', 'a6', 'a14', 'a20', 'a21', 'a42', 'a3', 'a35', 'a40', 'a47', 'a29', 'a50', 'a2', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a34', 'a38', 'a44', 'a19', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  6.0) =&gt; (class &gt;= 3) ['a45', 'a4']</t>
-  </si>
-  <si>
-    <t>(develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a42', 'a3', 'a35', 'a40', 'a47', 'a29', 'a50', 'a2', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) =&gt; (class &gt;= 3) ['a45', 'a10', 'a46', 'a39', 'a18', 'a14', 'a49', 'a3', 'a47', 'a12', 'a2', 'a22', 'a25', 'a48', 'a8', 'a1', 'a38', 'a13', 'a43', 'a7']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  4.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a42', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a25', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a38', 'a13', 'a43', 'a44', 'a19', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  17.0) =&gt; (class &gt;= 3) ['a39', 'a18', 'a14', 'a20', 'a2', 'a27', 'a48', 'a8']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) =&gt; (class &gt;= 3) ['a11', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a14', 'a20', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a48', 'a8', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a7', 'a15']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  37.0) =&gt; (class &gt;= 3) ['a45', 'a10', 'a37', 'a46', 'a39', 'a18', 'a24', 'a4', 'a14', 'a20', 'a21', 'a42', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a10', 'a37', 'a46', 'a39', 'a18', 'a14', 'a20', 'a42', 'a47', 'a29', 'a50', 'a2', 'a27', 'a48', 'a8', 'a31', 'a1', 'a34', 'a38', 'a13', 'a16', 'a15']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) =&gt; (class &gt;= 3) ['a5', 'a45', 'a10', 'a46', 'a23', 'a39', 'a18', 'a24', 'a4', 'a14', 'a20', 'a42', 'a35', 'a40', 'a47', 'a29', 'a50', 'a2', 'a25', 'a27', 'a48', 'a31', 'a28', 'a43', 'a19', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  4.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a48', 'a8', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  32.0) =&gt; (class &gt;= 3) ['a18', 'a50', 'a4', 'a14', 'a20', 'a2', 'a44', 'a45', 'a10', 'a19', 'a25', 'a42', 'a46', 'a7', 'a15']</t>
-  </si>
-  <si>
-    <t>(develop_quality &gt;=  1.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a26', 'a25', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a51', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a26', 'a25', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a39', 'a18', 'a6', 'a14', 'a20', 'a21', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  13.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  35.0) =&gt; (class &gt;= 3) ['a45', 'a10', 'a37', 'a46', 'a39', 'a18', 'a24', 'a4', 'a14', 'a20', 'a21', 'a42', 'a35', 'a40', 'a47', 'a50', 'a2', 'a26', 'a25', 'a30', 'a32', 'a8', 'a31', 'a28', 'a38', 'a43', 'a44', 'a19', 'a16', 'a7', 'a15']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  1.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  41.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a39', 'a18', 'a38', 'a13', 'a14', 'a43', 'a45', 'a2', 'a10', 'a49', 'a25', 'a46', 'a48', 'a8', 'a47', 'a12']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  4.0) =&gt; (class &gt;= 3) ['a11', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a14', 'a20', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a25', 'a48', 'a8', 'a28', 'a38', 'a13', 'a43', 'a44', 'a19', 'a15']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a11', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a14', 'a20', 'a49', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a33', 'a26', 'a25', 'a48', 'a8', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a15']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  4.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a49', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a33', 'a26', 'a25', 'a48', 'a8', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a15']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  5.0) &amp; (oocytes &lt;=  6.0) =&gt; (class &gt;= 3) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (woman_eval &gt;=  2.0) =&gt; (class &gt;= 3) ['a1', 'a45', 'a2', 'a7', 'a12']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a1', 'a18', 'a38', 'a39', 'a13', 'a14', 'a43', 'a45', 'a2', 'a10', 'a25', 'a48', 'a8', 'a7', 'a47', 'a12']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a39', 'a13', 'a45', 'a2', 'a37']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a1', 'a18', 'a34', 'a39', 'a13', 'a45', 'a2', 'a10', 'a37', 'a40', 'a8', 'a7', 'a47']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  4.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a36', 'a39', 'a13', 'a45', 'a2', 'a37']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a1', 'a45', 'a2', 'a3', 'a7', 'a12']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (sperm &gt;=  3.0) =&gt; (class &gt;= 3) ['a1', 'a18', 'a38', 'a39', 'a13', 'a14', 'a43', 'a45', 'a22', 'a10', 'a49', 'a25', 'a3', 'a46', 'a48', 'a8', 'a47', 'a12']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  1.0) &amp; (develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a1', 'a2', 'a3', 'a7', 'a12']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a1', 'a18', 'a38', 'a39', 'a13', 'a14', 'a43', 'a2', 'a10', 'a25', 'a3', 'a46', 'a48', 'a8', 'a7', 'a47']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a10', 'a37', 'a46', 'a39', 'a18', 'a14', 'a20', 'a3', 'a35', 'a40', 'a47', 'a50', 'a2', 'a25', 'a48', 'a8', 'a28', 'a34', 'a38', 'a44', 'a19', 'a15']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  4.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a36', 'a18', 'a28', 'a39', 'a6', 'a20', 'a2', 'a10', 'a37', 'a35', 'a40', 'a46', 'a48', 'a8', 'a15']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  6.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a14', 'a20', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a48', 'a8', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a7', 'a15']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a14', 'a20', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a26', 'a25', 'a48', 'a8', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a15']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a14', 'a20', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a26', 'a25', 'a48', 'a8', 'a1', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a15']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a10', 'a37', 'a46', 'a39', 'a18', 'a14', 'a20', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a48', 'a8', 'a1', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a15']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  4.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a48', 'a8', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  4.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a26', 'a25', 'a48', 'a8', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a15']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  12.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a39', 'a18', 'a6', 'a14', 'a20', 'a21', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a27', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a26', 'a25', 'a30', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a15']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a26', 'a25', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a44', 'a19', 'a16', 'a15']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a51', 'a6', 'a14', 'a20', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a26', 'a25', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a39', 'a18', 'a6', 'a14', 'a20', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a50', 'a2', 'a22', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  7.0) &amp; (morpho_quality &gt;=  8.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  7.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  7.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a26', 'a25', 'a27', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  7.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a51', 'a6', 'a14', 'a20', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a26', 'a25', 'a27', 'a32', 'a8', 'a48', 'a1', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a4', 'a2', 'a10', 'a40', 'a27']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a39', 'a45', 'a2', 'a4']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a39', 'a18', 'a4', 'a45', 'a2', 'a10', 'a27', 'a40', 'a47', 'a17']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (woman_eval &gt;=  2.0) =&gt; (class &gt;= 3) ['a24', 'a50', 'a19', 'a27', 'a23', 'a31']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a24', 'a27', 'a50', 'a19']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a24', 'a50', 'a19', 'a27', 'a23', 'a31']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a50', 'a2', 'a10', 'a19', 'a27', 'a40', 'a31']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a24', 'a50', 'a4', 'a5', 'a2', 'a10', 'a19', 'a27', 'a40', 'a23', 'a31']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a39', 'a18', 'a28', 'a46', 'a20', 'a2', 'a10', 'a42', 'a27', 'a35', 'a40', 'a48', 'a15', 'a31']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a10', 'a46', 'a39', 'a18', 'a14', 'a20', 'a42', 'a35', 'a40', 'a47', 'a29', 'a50', 'a2', 'a25', 'a27', 'a48', 'a31', 'a28', 'a19', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  1.0) &amp; (develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a24', 'a50', 'a19', 'a27', 'a23', 'a31']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  2.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a50', 'a2', 'a10', 'a19', 'a27', 'a40', 'a31']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  4.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a4', 'a6', 'a14', 'a20', 'a42', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a25', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a38', 'a13', 'a43', 'a44', 'a19', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  4.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a6', 'a14', 'a20', 'a42', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a25', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a38', 'a13', 'a44', 'a19', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a10', 'a37', 'a46', 'a39', 'a18', 'a6', 'a14', 'a20', 'a21', 'a42', 'a35', 'a47', 'a12', 'a29', 'a50', 'a2', 'a27', 'a32', 'a8', 'a48', 'a31', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a10', 'a37', 'a46', 'a39', 'a18', 'a14', 'a20', 'a42', 'a47', 'a29', 'a50', 'a2', 'a27', 'a48', 'a8', 'a31', 'a34', 'a38', 'a13', 'a16', 'a15']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a36', 'a5', 'a45', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a26', 'a25', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a34', 'a38', 'a13', 'a43', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a51', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a26', 'a25', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a39', 'a18', 'a6', 'a14', 'a20', 'a21', 'a42', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a27', 'a32', 'a8', 'a48', 'a31', 'a28', 'a34', 'a38', 'a13', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a29', 'a18', 'a39', 'a50', 'a14', 'a20', 'a2', 'a10', 'a19', 'a42', 'a27', 'a35', 'a46', 'a48', 'a15', 'a47', 'a31']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a10', 'a46', 'a23', 'a39', 'a18', 'a14', 'a20', 'a42', 'a35', 'a40', 'a47', 'a29', 'a50', 'a2', 'a25', 'a27', 'a48', 'a31', 'a28', 'a19', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a10', 'a46', 'a39', 'a18', 'a14', 'a20', 'a42', 'a35', 'a40', 'a47', 'a29', 'a50', 'a2', 'a27', 'a48', 'a31', 'a28', 'a19', 'a15', 'a17']</t>
+    <t>Reguła 133</t>
+  </si>
+  <si>
+    <t>Reguła 134</t>
+  </si>
+  <si>
+    <t>Reguła 135</t>
+  </si>
+  <si>
+    <t>Reguła 136</t>
+  </si>
+  <si>
+    <t>Reguła 137</t>
+  </si>
+  <si>
+    <t>Reguła 138</t>
+  </si>
+  <si>
+    <t>Reguła 139</t>
+  </si>
+  <si>
+    <t>Reguła 140</t>
+  </si>
+  <si>
+    <t>Reguła 141</t>
+  </si>
+  <si>
+    <t>Reguła 142</t>
+  </si>
+  <si>
+    <t>Reguła 143</t>
+  </si>
+  <si>
+    <t>Reguła 144</t>
+  </si>
+  <si>
+    <t>Reguła 145</t>
+  </si>
+  <si>
+    <t>Reguła 146</t>
+  </si>
+  <si>
+    <t>Reguła 147</t>
+  </si>
+  <si>
+    <t>Reguła 148</t>
+  </si>
+  <si>
+    <t>Reguła 149</t>
+  </si>
+  <si>
+    <t>Reguła 150</t>
+  </si>
+  <si>
+    <t>Reguła 151</t>
+  </si>
+  <si>
+    <t>Reguła 152</t>
+  </si>
+  <si>
+    <t>Reguła 153</t>
+  </si>
+  <si>
+    <t>Reguła 154</t>
+  </si>
+  <si>
+    <t>Reguła 155</t>
+  </si>
+  <si>
+    <t>Reguła 156</t>
+  </si>
+  <si>
+    <t>Reguła 157</t>
+  </si>
+  <si>
+    <t>Reguła 158</t>
+  </si>
+  <si>
+    <t>Reguła 159</t>
+  </si>
+  <si>
+    <t>Reguła 160</t>
+  </si>
+  <si>
+    <t>Reguła 161</t>
+  </si>
+  <si>
+    <t>Reguła 162</t>
+  </si>
+  <si>
+    <t>Reguła 163</t>
+  </si>
+  <si>
+    <t>Reguła 164</t>
+  </si>
+  <si>
+    <t>Reguła 165</t>
+  </si>
+  <si>
+    <t>Reguła 166</t>
+  </si>
+  <si>
+    <t>Reguła 167</t>
+  </si>
+  <si>
+    <t>Reguła 168</t>
+  </si>
+  <si>
+    <t>Reguła 169</t>
+  </si>
+  <si>
+    <t>Reguła 170</t>
+  </si>
+  <si>
+    <t>Reguła 171</t>
+  </si>
+  <si>
+    <t>Reguła 172</t>
+  </si>
+  <si>
+    <t>Reguła 173</t>
+  </si>
+  <si>
+    <t>Reguła 174</t>
+  </si>
+  <si>
+    <t>Reguła 175</t>
+  </si>
+  <si>
+    <t>Reguła 176</t>
+  </si>
+  <si>
+    <t>Reguła 177</t>
+  </si>
+  <si>
+    <t>Reguła 178</t>
+  </si>
+  <si>
+    <t>Reguła 179</t>
+  </si>
+  <si>
+    <t>Reguła 180</t>
+  </si>
+  <si>
+    <t>Reguła 181</t>
+  </si>
+  <si>
+    <t>Reguła 182</t>
+  </si>
+  <si>
+    <t>Reguła 183</t>
+  </si>
+  <si>
+    <t>Reguła 184</t>
+  </si>
+  <si>
+    <t>Reguła 185</t>
+  </si>
+  <si>
+    <t>Reguła 186</t>
+  </si>
+  <si>
+    <t>(age &gt;=  40.0) &amp; (infertility &gt;=  3.0) &amp; (woman_eval &lt;=  2.0) =&gt; (class &lt;= 1) ['a23']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  42.0) =&gt; (class &lt;= 2) ['a5', 'a6']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &lt;=  5.0) =&gt; (class &lt;= 2) ['a11']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a11', 'a33']</t>
+  </si>
+  <si>
+    <t>(sperm &lt;=  1.0) &amp; (morpho_quality &lt;=  14.0) =&gt; (class &lt;= 2) ['a5']</t>
+  </si>
+  <si>
+    <t>(sperm &lt;=  1.0) &amp; (develop_quality &lt;=  4.0) =&gt; (class &lt;= 2) ['a5']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  39.0) &amp; (infertility &gt;=  3.0) =&gt; (class &lt;= 2) ['a11', 'a23', 'a51', 'a6', 'a33', 'a5']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  39.0) &amp; (morpho_quality &lt;=  11.0) =&gt; (class &lt;= 2) ['a5', 'a11', 'a33']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  39.0) &amp; (develop_quality &lt;=  1.0) =&gt; (class &lt;= 2) ['a11']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  33.0) &amp; (sperm &lt;=  1.0) =&gt; (class &lt;= 2) ['a5']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  33.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a11', 'a33']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &lt;=  9.0) &amp; (develop_quality &lt;=  1.0) =&gt; (class &lt;= 2) ['a11']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &lt;=  8.0) &amp; (develop_quality &lt;=  2.0) =&gt; (class &lt;= 2) ['a11', 'a33']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  3.0) &amp; (woman_eval &lt;=  3.0) &amp; (develop_quality &lt;=  1.0) =&gt; (class &lt;= 2) ['a11']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  3.0) &amp; (oocytes &gt;=  4.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a11', 'a33']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  3.0) &amp; (woman_eval &lt;=  4.0) &amp; (morpho_quality &lt;=  8.0) =&gt; (class &lt;= 2) ['a11', 'a33']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  12.0) &amp; (develop_quality &lt;=  1.0) =&gt; (class &lt;= 2) ['a11']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  4.0) &amp; (woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  12.0) =&gt; (class &lt;= 2) ['a51']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  4.0) &amp; (oocytes &gt;=  4.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a30']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  4.0) &amp; (woman_eval &lt;=  4.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a30']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  33.0) &amp; (infertility &gt;=  4.0) &amp; (morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a30']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  1.0) =&gt; (class &lt;= 3) ['a8', 'a36', 'a43', 'a42', 'a4', 'a51', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a49', 'a21', 'a22', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a41', 'a23', 'a33', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a28', 'a44', 'a6', 'a30', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(sperm &lt;=  3.0) =&gt; (class &lt;= 3) ['a8', 'a36', 'a43', 'a42', 'a4', 'a51', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a49', 'a21', 'a22', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a41', 'a23', 'a33', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a28', 'a44', 'a6', 'a30', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(sperm &lt;=  2.0) =&gt; (class &lt;= 3) ['a5', 'a7', 'a42', 'a2']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &lt;=  20.0) =&gt; (class &lt;= 3) ['a8', 'a36', 'a43', 'a42', 'a4', 'a51', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a49', 'a21', 'a22', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a41', 'a23', 'a33', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a28', 'a44', 'a6', 'a30', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(develop_quality &lt;=  5.0) =&gt; (class &lt;= 3) ['a8', 'a36', 'a43', 'a42', 'a4', 'a51', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a49', 'a21', 'a22', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a41', 'a23', 'a33', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a28', 'a44', 'a6', 'a30', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  1.0) =&gt; (class &lt;= 3) ['a3']</t>
+  </si>
+  <si>
+    <t>(develop_quality &lt;=  4.0) =&gt; (class &lt;= 3) ['a43', 'a4', 'a51', 'a1', 'a3', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a25', 'a49', 'a21', 'a22', 'a29', 'a24', 'a12', 'a34', 'a47', 'a17', 'a19', 'a41', 'a23', 'a38', 'a45', 'a11', 'a13', 'a44', 'a30', 'a33', 'a5']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  6.0) =&gt; (class &lt;= 3) ['a8', 'a36', 'a43', 'a42', 'a4', 'a51', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a49', 'a21', 'a22', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a41', 'a23', 'a33', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a28', 'a44', 'a6', 'a30', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  4.0) =&gt; (class &lt;= 3) ['a17', 'a16', 'a36', 'a32', 'a41', 'a21', 'a42', 'a4', 'a51', 'a29', 'a27', 'a6', 'a30', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &gt;=  4.0) =&gt; (class &lt;= 3) ['a8', 'a36', 'a51', 'a1', 'a3', 'a26', 'a9', 'a16', 'a7', 'a49', 'a21', 'a22', 'a12', 'a34', 'a37', 'a32', 'a41', 'a38', 'a11', 'a13', 'a44', 'a6', 'a33', 'a30']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &lt;=  15.0) =&gt; (class &lt;= 3) ['a36', 'a43', 'a42', 'a4', 'a51', 'a3', 'a26', 'a9', 'a7', 'a25', 'a49', 'a21', 'a22', 'a29', 'a24', 'a12', 'a35', 'a47', 'a31', 'a17', 'a32', 'a19', 'a41', 'a23', 'a33', 'a45', 'a11', 'a13', 'a28', 'a44', 'a6', 'a30', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  32.0) =&gt; (class &lt;= 3) ['a8', 'a36', 'a43', 'a51', 'a1', 'a3', 'a50', 'a26', 'a9', 'a16', 'a49', 'a21', 'a22', 'a29', 'a27', 'a24', 'a12', 'a34', 'a35', 'a47', 'a37', 'a31', 'a17', 'a32', 'a19', 'a41', 'a23', 'a33', 'a38', 'a11', 'a48', 'a13', 'a39', 'a28', 'a6', 'a30', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &gt;=  1.0) =&gt; (class &lt;= 3) ['a8', 'a36', 'a43', 'a42', 'a4', 'a51', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a49', 'a21', 'a22', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a41', 'a23', 'a33', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a28', 'a44', 'a6', 'a30', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &lt;=  12.0) =&gt; (class &lt;= 3) ['a11', 'a7', 'a43', 'a25', 'a41', 'a49', 'a23', 'a4', 'a51', 'a24', 'a30', 'a33', 'a45', 'a5', 'a26', 'a9']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  35.0) =&gt; (class &lt;= 3) ['a36', 'a51', 'a1', 'a3', 'a9', 'a49', 'a22', 'a29', 'a27', 'a12', 'a34', 'a17', 'a41', 'a23', 'a11', 'a48', 'a13', 'a39', 'a6', 'a33', 'a5']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  26.0) =&gt; (class &lt;= 3) ['a8', 'a36', 'a43', 'a42', 'a4', 'a51', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a49', 'a21', 'a22', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a41', 'a23', 'a33', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a28', 'a44', 'a6', 'a30', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(woman_eval &lt;=  3.0) &amp; (morpho_quality &lt;=  15.0) =&gt; (class &lt;= 3) ['a43', 'a42', 'a51', 'a3', 'a26', 'a9', 'a25', 'a49', 'a21', 'a22', 'a29', 'a24', 'a12', 'a35', 'a31', 'a32', 'a19', 'a23', 'a11', 'a28', 'a44', 'a6', 'a33', 'a5']</t>
+  </si>
+  <si>
+    <t>(oocytes &gt;=  3.0) &amp; (morpho_quality &lt;=  15.0) =&gt; (class &lt;= 3) ['a36', 'a43', 'a42', 'a51', 'a3', 'a26', 'a9', 'a7', 'a25', 'a49', 'a21', 'a22', 'a29', 'a35', 'a12', 'a47', 'a17', 'a32', 'a41', 'a45', 'a11', 'a13', 'a28', 'a44', 'a6', 'a33', 'a30']</t>
+  </si>
+  <si>
+    <t>(oocytes &gt;=  3.0) &amp; (morpho_quality &lt;=  13.0) =&gt; (class &lt;= 3) ['a17', 'a11', 'a36', 'a7', 'a43', 'a25', 'a28', 'a41', 'a49', 'a51', 'a30', 'a33', 'a45', 'a26', 'a9']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  32.0) &amp; (oocytes &gt;=  3.0) =&gt; (class &lt;= 3) ['a8', 'a36', 'a43', 'a51', 'a1', 'a3', 'a26', 'a9', 'a16', 'a49', 'a21', 'a22', 'a29', 'a35', 'a12', 'a34', 'a47', 'a37', 'a17', 'a32', 'a41', 'a38', 'a11', 'a48', 'a13', 'a39', 'a28', 'a6', 'a33', 'a30']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a8', 'a42', 'a1', 'a3', 'a46', 'a14', 'a50', 'a16', 'a2', 'a10', 'a21', 'a22', 'a29', 'a15', 'a27', 'a35', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a48', 'a13', 'a39', 'a44', 'a6']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  6.0) =&gt; (class &gt;= 3) ['a4', 'a45']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a1', 'a3', 'a46', 'a14', 'a7', 'a2', 'a25', 'a10', 'a49', 'a22', 'a12', 'a18', 'a47', 'a38', 'a45', 'a48', 'a13', 'a39']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  17.0) =&gt; (class &gt;= 3) ['a8', 'a48', 'a2', 'a39', 'a27', 'a14', 'a18', 'a20']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a42', 'a4', 'a1', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a21', 'a22', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a30', 'a40']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a8', 'a42', 'a1', 'a46', 'a14', 'a50', 'a16', 'a2', 'a10', 'a29', 'a15', 'a27', 'a34', 'a18', 'a47', 'a20', 'a37', 'a31', 'a38', 'a48', 'a13', 'a39']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  32.0) =&gt; (class &gt;= 3) ['a7', 'a2', 'a19', 'a25', 'a10', 'a44', 'a42', 'a4', 'a15', 'a46', 'a14', 'a18', 'a45', 'a20', 'a50']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  35.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a42', 'a4', 'a46', 'a14', 'a50', 'a26', 'a16', 'a7', 'a2', 'a25', 'a10', 'a21', 'a15', 'a24', 'a35', 'a18', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a45', 'a39', 'a28', 'a44', 'a30', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a2', 'a19', 'a10', 'a27', 'a40', 'a50', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a2', 'a10', 'a4', 'a27', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a2', 'a19', 'a10', 'a27', 'a40', 'a50', 'a31']</t>
   </si>
   <si>
     <t>(woman_eval &gt;=  5.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a37', 'a2', 'a13', 'a39']</t>
   </si>
   <si>
-    <t>(sperm &gt;=  2.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a36', 'a10', 'a37', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a3', 'a35', 'a40', 'a47', 'a29', 'a50', 'a2', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  2.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a36', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  2.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a36', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a21', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  2.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a36', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a6', 'a14', 'a20', 'a21', 'a49', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a26', 'a25', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a44', 'a19', 'a16', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  44.0) =&gt; (class &gt;= 2) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  3.0) =&gt; (class &gt;= 2) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a1', 'a34', 'a38', 'a13', 'a43', 'a44', 'a19', 'a16', 'a7', 'a17']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  39.0) =&gt; (class &gt;= 2) ['a36', 'a11', 'a45', 'a10', 'a37', 'a41', 'a46', 'a39', 'a18', 'a24', 'a4', 'a14', 'a20', 'a21', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  5.0) =&gt; (class &gt;= 2) ['a36', 'a11', 'a5', 'a45', 'a10', 'a37', 'a41', 'a46', 'a23', 'a39', 'a18', 'a24', 'a51', 'a4', 'a6', 'a14', 'a20', 'a21', 'a49', 'a42', 'a3', 'a35', 'a40', 'a47', 'a12', 'a29', 'a50', 'a2', 'a22', 'a33', 'a26', 'a25', 'a30', 'a27', 'a32', 'a8', 'a48', 'a31', 'a1', 'a28', 'a34', 'a38', 'a13', 'a43', 'a9', 'a44', 'a19', 'a16', 'a7', 'a15', 'a17']</t>
+    <t>(age &lt;=  38.0) &amp; (oocytes &lt;=  2.0) =&gt; (class &gt;= 3) ['a2', 'a19', 'a10', 'a4', 'a27', 'a24', 'a40', 'a50', 'a31']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (infertility &lt;=  6.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a43', 'a42', 'a4', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a22', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a17', 'a32', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a30', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (oocytes &lt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a43', 'a42', 'a4', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (infertility &lt;=  3.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a7', 'a2', 'a25', 'a10', 'a22', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a43', 'a42', 'a4', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a2', 'a25', 'a10', 'a21', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a30', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a43', 'a42', 'a4', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a21', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a38', 'a13', 'a39', 'a28', 'a44', 'a30', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (oocytes &lt;=  3.0) =&gt; (class &gt;= 3) ['a43', 'a42', 'a4', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a29', 'a15', 'a27', 'a24', 'a35', 'a18', 'a47', 'a20', 'a31', 'a17', 'a19', 'a45', 'a39', 'a28', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (infertility &lt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a43', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a22', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a42', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a16', 'a2', 'a25', 'a10', 'a21', 'a22', 'a29', 'a15', 'a27', 'a35', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a38', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (infertility &lt;=  5.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a43', 'a42', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a22', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a32', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a30', 'a40']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  14.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a42', 'a3', 'a46', 'a14', 'a50', 'a2', 'a10', 'a21', 'a29', 'a15', 'a27', 'a35', 'a34', 'a18', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a48', 'a39', 'a44', 'a6']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a2', 'a13', 'a25', 'a10', 'a39', 'a48', 'a49', 'a46', 'a14', 'a12', 'a18', 'a38', 'a45', 'a47']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a2', 'a13', 'a39', 'a45', 'a37']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a3', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a15', 'a35', 'a34', 'a18', 'a47', 'a20', 'a37', 'a19', 'a38', 'a48', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a7', 'a2', 'a13', 'a39', 'a10', 'a1', 'a34', 'a18', 'a47', 'a45', 'a37', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a2', 'a25', 'a10', 'a49', 'a22', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a45', 'a48', 'a13', 'a39', 'a28', 'a44', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a8', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a2', 'a25', 'a10', 'a49', 'a22', 'a15', 'a35', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a8', 'a1', 'a3', 'a46', 'a14', 'a50', 'a2', 'a10', 'a22', 'a15', 'a35', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a19', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a8', 'a42', 'a46', 'a14', 'a50', 'a16', 'a2', 'a10', 'a21', 'a29', 'a15', 'a27', 'a35', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a48', 'a13', 'a39', 'a44', 'a6']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  15.0) =&gt; (class &gt;= 3) ['a8', 'a42', 'a46', 'a14', 'a50', 'a16', 'a2', 'a10', 'a29', 'a15', 'a27', 'a34', 'a18', 'a47', 'a20', 'a37', 'a31', 'a38', 'a48', 'a13', 'a39']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a42', 'a46', 'a14', 'a50', 'a16', 'a2', 'a10', 'a21', 'a29', 'a15', 'a27', 'a35', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a6', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a2', 'a13', 'a39', 'a4', 'a45', 'a37']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a8', 'a32', 'a2', 'a39', 'a10', 'a28', 'a42', 'a15', 'a27', 'a35', 'a46', 'a18', 'a20', 'a40', 'a37', 'a31']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a42', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a21', 'a29', 'a15', 'a27', 'a35', 'a34', 'a18', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a39', 'a28', 'a44', 'a30', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) &amp; (oocytes &lt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a42', 'a4', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a35', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a42', 'a4', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a2', 'a25', 'a10', 'a21', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a30', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) &amp; (infertility &lt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a1', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a22', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a42', 'a1', 'a46', 'a14', 'a50', 'a26', 'a16', 'a2', 'a25', 'a10', 'a21', 'a22', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  15.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a42', 'a46', 'a14', 'a50', 'a2', 'a10', 'a29', 'a15', 'a27', 'a34', 'a18', 'a47', 'a20', 'a37', 'a31', 'a38', 'a48', 'a39']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  5.0) =&gt; (class &gt;= 3) ['a45', 'a4', 'a2', 'a39']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a43', 'a4', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a29', 'a15', 'a27', 'a24', 'a35', 'a18', 'a47', 'a20', 'a31', 'a17', 'a19', 'a23', 'a45', 'a48', 'a39', 'a28', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a48', 'a2', 'a39', 'a10', 'a28', 'a42', 'a15', 'a27', 'a35', 'a46', 'a18', 'a20', 'a40', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a48', 'a2', 'a19', 'a39', 'a10', 'a42', 'a29', 'a15', 'a27', 'a14', 'a35', 'a18', 'a46', 'a47', 'a20', 'a50', 'a31']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a42', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a29', 'a15', 'a27', 'a35', 'a18', 'a47', 'a20', 'a31', 'a17', 'a19', 'a48', 'a39', 'a28', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a43', 'a4', 'a14', 'a50', 'a2', 'a25', 'a10', 'a29', 'a27', 'a24', 'a18', 'a47', 'a20', 'a17', 'a19', 'a45', 'a48', 'a39', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a42', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a29', 'a15', 'a27', 'a35', 'a18', 'a47', 'a20', 'a31', 'a17', 'a19', 'a23', 'a48', 'a39', 'a28', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a42', 'a46', 'a14', 'a50', 'a2', 'a10', 'a29', 'a15', 'a27', 'a35', 'a18', 'a47', 'a20', 'a31', 'a17', 'a19', 'a48', 'a39', 'a28', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  1.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a27', 'a24', 'a50', 'a19']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  13.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a42', 'a3', 'a46', 'a14', 'a50', 'a2', 'a10', 'a21', 'a29', 'a15', 'a27', 'a35', 'a34', 'a18', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a38', 'a48', 'a39', 'a28', 'a44', 'a6', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (oocytes &lt;=  3.0) =&gt; (class &gt;= 3) ['a43', 'a42', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a15', 'a24', 'a35', 'a18', 'a47', 'a20', 'a19', 'a23', 'a45', 'a48', 'a39', 'a28', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a42', 'a1', 'a3', 'a46', 'a14', 'a50', 'a16', 'a2', 'a10', 'a22', 'a15', 'a35', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a32', 'a19', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a6', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  35.0) &amp; (infertility &lt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a46', 'a14', 'a50', 'a26', 'a16', 'a7', 'a2', 'a25', 'a10', 'a15', 'a24', 'a35', 'a18', 'a47', 'a20', 'a37', 'a19', 'a38', 'a45', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  35.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a42', 'a46', 'a14', 'a50', 'a26', 'a16', 'a2', 'a25', 'a10', 'a21', 'a15', 'a24', 'a35', 'a18', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a45', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (develop_quality &gt;=  5.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a32', 'a48', 'a2', 'a39', 'a10', 'a28', 'a42', 'a15', 'a27', 'a35', 'a46', 'a18', 'a20', 'a40', 'a37', 'a31']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a8', 'a42', 'a1', 'a3', 'a46', 'a14', 'a50', 'a16', 'a2', 'a10', 'a21', 'a22', 'a29', 'a15', 'a27', 'a35', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a48', 'a13', 'a39', 'a44']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (oocytes &lt;=  3.0) =&gt; (class &gt;= 3) ['a43', 'a42', 'a4', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a29', 'a15', 'a27', 'a24', 'a35', 'a18', 'a47', 'a20', 'a31', 'a17', 'a19', 'a23', 'a45', 'a48', 'a39', 'a28', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a42', 'a1', 'a3', 'a46', 'a14', 'a50', 'a16', 'a2', 'a10', 'a21', 'a22', 'a29', 'a15', 'a27', 'a35', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  3.0) &amp; (sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a2', 'a19', 'a10', 'a4', 'a27', 'a24', 'a40', 'a50']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  3.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a2', 'a19', 'a10', 'a27', 'a40', 'a50']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (infertility &lt;=  6.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a43', 'a42', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a16', 'a2', 'a25', 'a10', 'a22', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a17', 'a32', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a46', 'a14', 'a50', 'a26', 'a9', 'a2', 'a25', 'a10', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a43', 'a42', 'a46', 'a14', 'a50', 'a26', 'a16', 'a2', 'a25', 'a10', 'a21', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (infertility &lt;=  4.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a3', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a15', 'a35', 'a34', 'a18', 'a47', 'a20', 'a37', 'a19', 'a38', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (infertility &lt;=  4.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a43', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a2', 'a25', 'a10', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (morpho_quality &gt;=  10.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a42', 'a3', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a21', 'a29', 'a15', 'a27', 'a35', 'a34', 'a18', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a38', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (morpho_quality &gt;=  10.0) &amp; (develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a43', 'a42', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a16', 'a2', 'a25', 'a10', 'a21', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a38', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (infertility &lt;=  5.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a42', 'a3', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a15', 'a35', 'a34', 'a18', 'a47', 'a20', 'a37', 'a32', 'a19', 'a38', 'a39', 'a28', 'a44', 'a30', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (infertility &lt;=  5.0) &amp; (oocytes &lt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a43', 'a42', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a15', 'a24', 'a12', 'a18', 'a35', 'a47', 'a20', 'a37', 'a32', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (infertility &lt;=  5.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a43', 'a42', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a2', 'a25', 'a10', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a32', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a30', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (infertility &lt;=  5.0) &amp; (oocytes &lt;=  3.0) =&gt; (class &gt;= 3) ['a43', 'a42', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a15', 'a24', 'a35', 'a18', 'a47', 'a20', 'a19', 'a45', 'a39', 'a28', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) &amp; (infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a43', 'a42', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a16', 'a2', 'a25', 'a10', 'a22', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a32', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  4.0) &amp; (morpho_quality &gt;=  14.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a2', 'a39', 'a10', 'a27', 'a34', 'a18', 'a47', 'a37']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (sperm &gt;=  2.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a1', 'a3', 'a46', 'a14', 'a50', 'a7', 'a2', 'a25', 'a10', 'a15', 'a24', 'a34', 'a18', 'a35', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (sperm &gt;=  2.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a7', 'a2', 'a25', 'a10', 'a49', 'a22', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a45', 'a48', 'a13', 'a39', 'a28', 'a44', 'a33', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (sperm &gt;=  2.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a2', 'a25', 'a10', 'a49', 'a22', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a45', 'a48', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (sperm &gt;=  2.0) &amp; (develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a7', 'a2', 'a25', 'a10', 'a49', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a33', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  4.0) &amp; (sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a15', 'a24', 'a12', 'a18', 'a35', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  4.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a15', 'a24', 'a12', 'a18', 'a35', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a45', 'a48', 'a13', 'a39', 'a28', 'a44', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  4.0) &amp; (develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a15', 'a24', 'a12', 'a18', 'a35', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) &amp; (sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a46', 'a14', 'a50', 'a26', 'a9', 'a2', 'a25', 'a10', 'a49', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a28', 'a44', 'a33', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a15', 'a24', 'a34', 'a18', 'a35', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a2', 'a13', 'a39', 'a10', 'a34', 'a18', 'a47', 'a45', 'a37', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a46', 'a14', 'a50', 'a26', 'a9', 'a2', 'a25', 'a10', 'a49', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a45', 'a48', 'a13', 'a39', 'a28', 'a44', 'a33', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a46', 'a14', 'a50', 'a26', 'a9', 'a2', 'a25', 'a10', 'a49', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a45', 'a48', 'a13', 'a39', 'a28', 'a44', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) &amp; (develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a46', 'a14', 'a50', 'a26', 'a9', 'a2', 'a25', 'a10', 'a49', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a33', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a14', 'a50', 'a26', 'a2', 'a25', 'a10', 'a24', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a19', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a44', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a8', 'a46', 'a14', 'a50', 'a26', 'a2', 'a25', 'a10', 'a49', 'a15', 'a35', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a8', 'a46', 'a14', 'a50', 'a2', 'a10', 'a15', 'a35', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a19', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  3.0) &amp; (sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a1', 'a14', 'a50', 'a26', 'a7', 'a2', 'a25', 'a10', 'a24', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a19', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  3.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a1', 'a14', 'a50', 'a26', 'a7', 'a2', 'a25', 'a10', 'a24', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a19', 'a38', 'a45', 'a48', 'a13', 'a39', 'a44', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  3.0) &amp; (develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a1', 'a14', 'a50', 'a26', 'a7', 'a2', 'a25', 'a10', 'a24', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a19', 'a38', 'a48', 'a13', 'a39', 'a44', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  3.0) &amp; (woman_eval &gt;=  3.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a8', 'a1', 'a14', 'a50', 'a26', 'a2', 'a25', 'a10', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a19', 'a38', 'a48', 'a13', 'a39', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  5.0) &amp; (woman_eval &gt;=  4.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a8', 'a16', 'a2', 'a13', 'a39', 'a10', 'a27', 'a34', 'a18', 'a47', 'a37']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) &amp; (oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a42', 'a46', 'a14', 'a50', 'a26', 'a16', 'a2', 'a25', 'a10', 'a21', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) &amp; (infertility &lt;=  4.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a15', 'a35', 'a34', 'a18', 'a47', 'a20', 'a37', 'a19', 'a38', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) &amp; (infertility &lt;=  4.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a2', 'a25', 'a10', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a19', 'a38', 'a45', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  37.0) &amp; (morpho_quality &gt;=  10.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a42', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a21', 'a29', 'a15', 'a27', 'a35', 'a34', 'a18', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  3.0) &amp; (sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a43', 'a4', 'a14', 'a50', 'a2', 'a25', 'a10', 'a29', 'a27', 'a24', 'a18', 'a47', 'a20', 'a17', 'a19', 'a45', 'a48', 'a39', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  3.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a17', 'a48', 'a2', 'a19', 'a25', 'a10', 'a39', 'a29', 'a27', 'a14', 'a18', 'a47', 'a20', 'a40', 'a50']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  4.0) &amp; (woman_eval &gt;=  4.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a2', 'a39', 'a10', 'a34', 'a18', 'a47', 'a37', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  4.0) &amp; (oocytes &lt;=  5.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a16', 'a36', 'a2', 'a13', 'a39', 'a10', 'a34', 'a18', 'a47', 'a45', 'a37', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (oocytes &lt;=  4.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a42', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a15', 'a35', 'a18', 'a47', 'a20', 'a37', 'a32', 'a19', 'a38', 'a48', 'a39', 'a28', 'a44', 'a6', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (oocytes &lt;=  4.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a2', 'a13', 'a39', 'a10', 'a18', 'a47', 'a45', 'a37', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a42', 'a46', 'a14', 'a50', 'a16', 'a2', 'a10', 'a15', 'a35', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a32', 'a19', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a6', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (oocytes &lt;=  3.0) &amp; (sperm &gt;=  2.0) =&gt; (class &gt;= 3) ['a43', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a15', 'a24', 'a35', 'a18', 'a47', 'a20', 'a19', 'a23', 'a45', 'a48', 'a39', 'a28', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (oocytes &lt;=  3.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a48', 'a2', 'a19', 'a25', 'a10', 'a28', 'a39', 'a42', 'a15', 'a46', 'a14', 'a35', 'a18', 'a47', 'a20', 'a40', 'a50']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  4.0) =&gt; (class &gt;= 3) ['a2', 'a39', 'a10', 'a18', 'a47', 'a45', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a43', 'a2', 'a19', 'a25', 'a10', 'a39', 'a48', 'a14', 'a24', 'a18', 'a47', 'a45', 'a20', 'a5', 'a40', 'a50']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  12.0) =&gt; (class &gt;= 3) ['a48', 'a2', 'a19', 'a25', 'a10', 'a28', 'a39', 'a23', 'a42', 'a15', 'a46', 'a14', 'a35', 'a18', 'a47', 'a20', 'a40', 'a50']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (oocytes &lt;=  3.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a48', 'a2', 'a19', 'a39', 'a10', 'a28', 'a42', 'a15', 'a46', 'a14', 'a35', 'a18', 'a47', 'a20', 'a40', 'a50']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  13.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a42', 'a3', 'a46', 'a14', 'a50', 'a2', 'a10', 'a15', 'a35', 'a34', 'a18', 'a47', 'a20', 'a37', 'a32', 'a19', 'a38', 'a48', 'a39', 'a28', 'a44', 'a6', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (oocytes &lt;=  2.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a2', 'a19', 'a10', 'a4', 'a27', 'a24', 'a40', 'a50']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (morpho_quality &gt;=  14.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a42', 'a3', 'a46', 'a14', 'a50', 'a2', 'a10', 'a21', 'a29', 'a15', 'a27', 'a35', 'a34', 'a18', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a48', 'a39', 'a44']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (oocytes &lt;=  4.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a42', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a29', 'a15', 'a27', 'a35', 'a18', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a38', 'a48', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (oocytes &lt;=  4.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a43', 'a42', 'a4', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a23', 'a38', 'a45', 'a48', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (oocytes &lt;=  4.0) &amp; (develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a43', 'a42', 'a4', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a23', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (infertility &lt;=  3.0) &amp; (develop_quality &gt;=  3.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a1', 'a3', 'a46', 'a14', 'a50', 'a7', 'a2', 'a25', 'a10', 'a15', 'a24', 'a34', 'a18', 'a35', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  7.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a7', 'a2', 'a25', 'a10', 'a49', 'a22', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a45', 'a48', 'a13', 'a39', 'a28', 'a44', 'a33', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (infertility &lt;=  3.0) &amp; (oocytes &lt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a15', 'a24', 'a12', 'a18', 'a35', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a46', 'a14', 'a50', 'a26', 'a9', 'a2', 'a25', 'a10', 'a49', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a28', 'a44', 'a33', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (infertility &lt;=  3.0) &amp; (morpho_quality &gt;=  9.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a2', 'a25', 'a10', 'a49', 'a22', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a45', 'a48', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (infertility &lt;=  3.0) &amp; (develop_quality &gt;=  2.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a7', 'a2', 'a25', 'a10', 'a49', 'a15', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a19', 'a23', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a33', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (infertility &lt;=  3.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a8', 'a43', 'a1', 'a14', 'a50', 'a26', 'a7', 'a2', 'a25', 'a10', 'a24', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a19', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  14.0) =&gt; (class &gt;= 3) ['a8', 'a42', 'a46', 'a14', 'a50', 'a16', 'a2', 'a10', 'a21', 'a29', 'a15', 'a27', 'a35', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a31', 'a32', 'a19', 'a38', 'a48', 'a13', 'a39', 'a44']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (oocytes &lt;=  5.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a42', 'a46', 'a14', 'a50', 'a16', 'a2', 'a10', 'a21', 'a29', 'a15', 'a27', 'a35', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (oocytes &lt;=  3.0) &amp; (woman_eval &gt;=  3.0) =&gt; (class &gt;= 3) ['a43', 'a4', 'a14', 'a50', 'a2', 'a25', 'a10', 'a29', 'a27', 'a24', 'a18', 'a47', 'a20', 'a17', 'a19', 'a45', 'a48', 'a39', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (infertility &lt;=  4.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a51', 'a3', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a15', 'a35', 'a34', 'a18', 'a47', 'a20', 'a37', 'a19', 'a38', 'a48', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (morpho_quality &gt;=  10.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a42', 'a51', 'a3', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a21', 'a29', 'a15', 'a27', 'a35', 'a34', 'a18', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a38', 'a48', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (morpho_quality &gt;=  13.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a42', 'a3', 'a46', 'a14', 'a50', 'a2', 'a10', 'a21', 'a29', 'a15', 'a27', 'a35', 'a34', 'a18', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a38', 'a48', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (infertility &lt;=  5.0) &amp; (oocytes &lt;=  4.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a43', 'a42', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a15', 'a24', 'a12', 'a18', 'a35', 'a47', 'a20', 'a37', 'a32', 'a19', 'a23', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (infertility &lt;=  5.0) &amp; (oocytes &lt;=  3.0) =&gt; (class &gt;= 3) ['a43', 'a42', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a15', 'a24', 'a35', 'a18', 'a47', 'a20', 'a19', 'a23', 'a45', 'a48', 'a39', 'a28', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  41.0) &amp; (infertility &lt;=  5.0) &amp; (morpho_quality &gt;=  13.0) =&gt; (class &gt;= 3) ['a8', 'a36', 'a42', 'a1', 'a3', 'a46', 'a14', 'a50', 'a16', 'a2', 'a10', 'a22', 'a15', 'a35', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a32', 'a19', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a40']</t>
+  </si>
+  <si>
+    <t>(oocytes &lt;=  6.0) =&gt; (class &gt;= 2) ['a8', 'a36', 'a43', 'a42', 'a4', 'a51', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a49', 'a21', 'a22', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a41', 'a23', 'a33', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a28', 'a44', 'a6', 'a30', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  1.0) =&gt; (class &gt;= 2) ['a8', 'a36', 'a43', 'a42', 'a4', 'a51', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a49', 'a21', 'a22', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a41', 'a23', 'a33', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a28', 'a44', 'a6', 'a30', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(develop_quality &gt;=  4.0) =&gt; (class &gt;= 2) ['a8', 'a36', 'a42', 'a51', 'a3', 'a46', 'a14', 'a50', 'a2', 'a25', 'a10', 'a21', 'a29', 'a15', 'a27', 'a35', 'a34', 'a18', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a38', 'a48', 'a39', 'a28', 'a44', 'a6', 'a30', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  44.0) =&gt; (class &gt;= 2) ['a8', 'a36', 'a43', 'a42', 'a4', 'a51', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a49', 'a21', 'a22', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a41', 'a23', 'a33', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a28', 'a44', 'a6', 'a30', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  3.0) =&gt; (class &gt;= 2) ['a8', 'a36', 'a43', 'a4', 'a51', 'a1', 'a14', 'a50', 'a26', 'a16', 'a7', 'a2', 'a25', 'a10', 'a21', 'a29', 'a27', 'a24', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a17', 'a32', 'a19', 'a41', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a44', 'a6', 'a30', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  1.0) =&gt; (class &gt;= 2) ['a8', 'a36', 'a43', 'a42', 'a4', 'a51', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a49', 'a21', 'a22', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a41', 'a23', 'a33', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a28', 'a44', 'a6', 'a30', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  39.0) =&gt; (class &gt;= 2) ['a8', 'a36', 'a43', 'a42', 'a4', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a21', 'a22', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a41', 'a38', 'a45', 'a11', 'a13', 'a39', 'a28', 'a44', 'a30', 'a33', 'a40']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  5.0) =&gt; (class &gt;= 2) ['a8', 'a36', 'a43', 'a42', 'a4', 'a51', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a49', 'a21', 'a22', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a41', 'a23', 'a33', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a28', 'a44', 'a6', 'a30', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(develop_quality &gt;=  1.0) =&gt; (class &gt;= 2) ['a8', 'a36', 'a43', 'a42', 'a4', 'a51', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a49', 'a21', 'a22', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a41', 'a23', 'a33', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a28', 'a44', 'a6', 'a30', 'a5', 'a40']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  13.0) =&gt; (class &gt;= 2) ['a8', 'a36', 'a42', 'a1', 'a3', 'a46', 'a14', 'a50', 'a16', 'a2', 'a10', 'a21', 'a22', 'a29', 'a15', 'a27', 'a35', 'a12', 'a18', 'a34', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a38', 'a48', 'a13', 'a39', 'a28', 'a44', 'a6', 'a40']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  13.0) =&gt; (class &gt;= 2) ['a8', 'a36', 'a43', 'a42', 'a4', 'a51', 'a1', 'a3', 'a46', 'a14', 'a50', 'a26', 'a9', 'a16', 'a7', 'a2', 'a25', 'a10', 'a49', 'a21', 'a22', 'a29', 'a15', 'a27', 'a24', 'a12', 'a18', 'a34', 'a35', 'a47', 'a20', 'a37', 'a31', 'a17', 'a32', 'a19', 'a41', 'a23', 'a33', 'a38', 'a45', 'a11', 'a48', 'a13', 'a39', 'a28', 'a44', 'a6', 'a30', 'a5', 'a40']</t>
   </si>
   <si>
     <t>support</t>
@@ -1439,16 +1778,16 @@
     <t>coverage</t>
   </si>
   <si>
+    <t>f1_score</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
     <t>not_classified</t>
-  </si>
-  <si>
-    <t>f1_score</t>
-  </si>
-  <si>
-    <t>accuracy</t>
-  </si>
-  <si>
-    <t>correct</t>
   </si>
   <si>
     <t>Obiekt</t>
@@ -3419,7 +3758,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>471</v>
+        <v>584</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3427,15 +3766,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>472</v>
+        <v>585</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.7843137254901961</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>473</v>
+        <v>586</v>
       </c>
       <c r="B3">
         <v>0.7843137254901961</v>
@@ -3443,10 +3782,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>474</v>
+        <v>587</v>
       </c>
       <c r="B4">
-        <v>0.7843137254901961</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3464,18 +3803,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>475</v>
+        <v>588</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>476</v>
+        <v>589</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>477</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>591</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -4084,7 +4423,7 @@
         <v>68</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -5082,12 +5421,12 @@
         <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5111,7 +5450,7 @@
         <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5119,17 +5458,17 @@
         <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>187</v>
@@ -5140,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5148,7 +5487,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5156,12 +5495,12 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5185,7 +5524,7 @@
         <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5193,12 +5532,12 @@
         <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5222,7 +5561,7 @@
         <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5230,17 +5569,17 @@
         <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>187</v>
@@ -5251,7 +5590,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5259,7 +5598,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5267,28 +5606,28 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.9607843137254902</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -5296,23 +5635,23 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.9607843137254902</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="B35">
-        <v>0.9</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.9607843137254902</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="B36">
-        <v>0.9803921568627451</v>
+        <v>0.9019607843137255</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.9607843137254902</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -5320,15 +5659,15 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.9607843137254902</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C38">
-        <v>0.9761904761904762</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.9607843137254902</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -5341,7 +5680,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:B187"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5349,1066 +5688,1498 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B10" t="s">
-        <v>344</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B11" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>346</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
-        <v>347</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B15" t="s">
-        <v>349</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B16" t="s">
-        <v>350</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B17" t="s">
-        <v>351</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B18" t="s">
-        <v>352</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s">
-        <v>353</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s">
-        <v>354</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s">
-        <v>355</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s">
-        <v>356</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s">
-        <v>357</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s">
-        <v>358</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s">
-        <v>359</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s">
-        <v>361</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s">
-        <v>362</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s">
-        <v>363</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B30" t="s">
-        <v>364</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s">
-        <v>365</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B32" t="s">
-        <v>366</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s">
-        <v>367</v>
+        <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B34" t="s">
-        <v>368</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B35" t="s">
-        <v>369</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B36" t="s">
-        <v>370</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B37" t="s">
-        <v>371</v>
+        <v>430</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B38" t="s">
-        <v>372</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B39" t="s">
-        <v>373</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B40" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B41" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B42" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B43" t="s">
-        <v>377</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B44" t="s">
-        <v>378</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s">
-        <v>379</v>
+        <v>438</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B46" t="s">
-        <v>380</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B47" t="s">
-        <v>381</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B48" t="s">
-        <v>382</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B49" t="s">
-        <v>383</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B50" t="s">
-        <v>384</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B51" t="s">
-        <v>385</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B52" t="s">
-        <v>386</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B53" t="s">
-        <v>387</v>
+        <v>446</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B54" t="s">
-        <v>388</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B55" t="s">
-        <v>389</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B56" t="s">
-        <v>390</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B57" t="s">
-        <v>391</v>
+        <v>450</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B58" t="s">
-        <v>392</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B59" t="s">
-        <v>393</v>
+        <v>452</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B60" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B61" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B62" t="s">
-        <v>396</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B63" t="s">
-        <v>397</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B64" t="s">
-        <v>398</v>
+        <v>457</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B65" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B66" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B67" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B68" t="s">
-        <v>402</v>
+        <v>461</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B69" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B70" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B71" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B72" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B73" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B74" t="s">
-        <v>408</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B75" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B76" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B77" t="s">
-        <v>411</v>
+        <v>470</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B78" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B79" t="s">
-        <v>413</v>
+        <v>472</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B80" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B81" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B82" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B83" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B84" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B85" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B86" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B87" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B88" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B89" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B90" t="s">
-        <v>424</v>
+        <v>483</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B91" t="s">
-        <v>425</v>
+        <v>484</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B92" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B93" t="s">
-        <v>427</v>
+        <v>486</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B94" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B95" t="s">
-        <v>429</v>
+        <v>488</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B96" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B97" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B98" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B99" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B100" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B101" t="s">
-        <v>435</v>
+        <v>494</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B102" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B103" t="s">
-        <v>437</v>
+        <v>496</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B104" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B105" t="s">
-        <v>439</v>
+        <v>498</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B106" t="s">
-        <v>440</v>
+        <v>499</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B107" t="s">
-        <v>441</v>
+        <v>500</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B108" t="s">
-        <v>442</v>
+        <v>501</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B109" t="s">
-        <v>443</v>
+        <v>502</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B110" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B111" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B112" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B113" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B114" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B115" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B116" t="s">
-        <v>450</v>
+        <v>509</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B117" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B118" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B119" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B120" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B121" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B122" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B123" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B124" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B125" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B126" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B127" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B128" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B129" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B130" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B131" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B132" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B133" t="s">
-        <v>467</v>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>341</v>
+      </c>
+      <c r="B134" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>342</v>
+      </c>
+      <c r="B135" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>343</v>
+      </c>
+      <c r="B136" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>344</v>
+      </c>
+      <c r="B137" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>345</v>
+      </c>
+      <c r="B138" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>346</v>
+      </c>
+      <c r="B139" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>347</v>
+      </c>
+      <c r="B140" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>348</v>
+      </c>
+      <c r="B141" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>349</v>
+      </c>
+      <c r="B142" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>350</v>
+      </c>
+      <c r="B143" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>351</v>
+      </c>
+      <c r="B144" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>352</v>
+      </c>
+      <c r="B145" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>353</v>
+      </c>
+      <c r="B146" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>354</v>
+      </c>
+      <c r="B147" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>355</v>
+      </c>
+      <c r="B148" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>356</v>
+      </c>
+      <c r="B149" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>357</v>
+      </c>
+      <c r="B150" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>358</v>
+      </c>
+      <c r="B151" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>359</v>
+      </c>
+      <c r="B152" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>360</v>
+      </c>
+      <c r="B153" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>361</v>
+      </c>
+      <c r="B154" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>362</v>
+      </c>
+      <c r="B155" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>363</v>
+      </c>
+      <c r="B156" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>364</v>
+      </c>
+      <c r="B157" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>365</v>
+      </c>
+      <c r="B158" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>366</v>
+      </c>
+      <c r="B159" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>367</v>
+      </c>
+      <c r="B160" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>368</v>
+      </c>
+      <c r="B161" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>369</v>
+      </c>
+      <c r="B162" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>370</v>
+      </c>
+      <c r="B163" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>371</v>
+      </c>
+      <c r="B164" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>372</v>
+      </c>
+      <c r="B165" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>373</v>
+      </c>
+      <c r="B166" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>374</v>
+      </c>
+      <c r="B167" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>375</v>
+      </c>
+      <c r="B168" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>376</v>
+      </c>
+      <c r="B169" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>377</v>
+      </c>
+      <c r="B170" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>378</v>
+      </c>
+      <c r="B171" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>379</v>
+      </c>
+      <c r="B172" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>380</v>
+      </c>
+      <c r="B173" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>381</v>
+      </c>
+      <c r="B174" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>382</v>
+      </c>
+      <c r="B175" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>383</v>
+      </c>
+      <c r="B176" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>384</v>
+      </c>
+      <c r="B177" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>385</v>
+      </c>
+      <c r="B178" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>386</v>
+      </c>
+      <c r="B179" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>387</v>
+      </c>
+      <c r="B180" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>388</v>
+      </c>
+      <c r="B181" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>389</v>
+      </c>
+      <c r="B182" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>390</v>
+      </c>
+      <c r="B183" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>391</v>
+      </c>
+      <c r="B184" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>392</v>
+      </c>
+      <c r="B185" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>393</v>
+      </c>
+      <c r="B186" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>394</v>
+      </c>
+      <c r="B187" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -6418,7 +7189,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6426,90 +7197,90 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>581</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>469</v>
+        <v>582</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0392156862745098</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C2">
-        <v>0.2222222222222222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1568627450980392</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C3">
-        <v>0.8888888888888888</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>0.2352941176470588</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C4">
-        <v>1.333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>0.1176470588235294</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0.2941176470588235</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C6">
-        <v>1.666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0.2156862745098039</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C7">
-        <v>1.222222222222222</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09803921568627451</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C8">
-        <v>0.5555555555555556</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6520,84 +7291,84 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0.1764705882352941</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>0.1176470588235294</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C11">
-        <v>0.6666666666666666</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>0.196078431372549</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C12">
-        <v>1.111111111111111</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>0.09803921568627451</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C13">
-        <v>0.5555555555555556</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>0.05882352941176471</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C14">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>0.1176470588235294</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C15">
-        <v>0.6666666666666666</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>0.05882352941176471</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C16">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6608,73 +7379,73 @@
         <v>0.0392156862745098</v>
       </c>
       <c r="C17">
-        <v>0.2222222222222222</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>0.07843137254901961</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C18">
-        <v>0.4444444444444444</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>0.09803921568627451</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C19">
-        <v>0.5555555555555556</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>0.05882352941176471</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C20">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C21">
-        <v>1.02</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C22">
-        <v>1.02</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B23">
-        <v>0.07843137254901961</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0.08</v>
+        <v>1.108695652173913</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6685,29 +7456,29 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>1.02</v>
+        <v>1.108695652173913</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="C25">
-        <v>1.02</v>
+        <v>0.08695652173913043</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B26">
-        <v>0.6274509803921569</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0.64</v>
+        <v>1.108695652173913</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6718,29 +7489,29 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>1.02</v>
+        <v>1.108695652173913</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>0.2745098039215687</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C28">
-        <v>0.28</v>
+        <v>0.02173913043478261</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.4705882352941176</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="C29">
-        <v>0.48</v>
+        <v>0.6956521739130435</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6751,139 +7522,139 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>1.02</v>
+        <v>1.108695652173913</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31">
-        <v>0.3137254901960784</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C31">
-        <v>0.32</v>
+        <v>0.3043478260869565</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B32">
-        <v>0.4117647058823529</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C32">
-        <v>0.42</v>
+        <v>0.5217391304347826</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C33">
-        <v>1.02</v>
+        <v>0.7391304347826086</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.8823529411764706</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C34">
-        <v>0.9</v>
+        <v>0.8260869565217391</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B35">
-        <v>0.2352941176470588</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0.24</v>
+        <v>1.108695652173913</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>0.8627450980392157</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C36">
-        <v>0.88</v>
+        <v>0.3478260869565217</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B37">
-        <v>0.1372549019607843</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C37">
-        <v>0.1707317073170732</v>
+        <v>0.4565217391304348</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38">
-        <v>0.9607843137254902</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>1.195121951219512</v>
+        <v>1.108695652173913</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B39">
-        <v>0.3725490196078431</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C39">
-        <v>0.4634146341463415</v>
+        <v>0.5217391304347826</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B40">
-        <v>0.8431372549019608</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C40">
-        <v>1.048780487804878</v>
+        <v>0.5869565217391305</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C41">
-        <v>1.24390243902439</v>
+        <v>0.3260869565217391</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C42">
-        <v>1.24390243902439</v>
+        <v>0.6521739130434783</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6894,216 +7665,216 @@
         <v>0.6078431372549019</v>
       </c>
       <c r="C43">
-        <v>0.7560975609756098</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B44">
-        <v>0.6470588235294118</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C44">
-        <v>0.8048780487804879</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B45">
-        <v>0.0392156862745098</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C45">
-        <v>0.04878048780487805</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B46">
-        <v>0.8235294117647058</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="C46">
-        <v>1.024390243902439</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B47">
-        <v>0.9803921568627451</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C47">
-        <v>1.219512195121951</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B48">
-        <v>0.392156862745098</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C48">
-        <v>0.4878048780487805</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B49">
-        <v>0.7254901960784313</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C49">
-        <v>0.9024390243902439</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B50">
-        <v>0.1568627450980392</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="C50">
-        <v>0.1951219512195122</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B51">
-        <v>0.7254901960784313</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="C51">
-        <v>0.9024390243902439</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B52">
-        <v>0.9019607843137255</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="C52">
-        <v>1.121951219512195</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B53">
-        <v>0.9215686274509803</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="C53">
-        <v>1.146341463414634</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B54">
-        <v>0.9215686274509803</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="C54">
-        <v>1.146341463414634</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B55">
-        <v>0.7647058823529411</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C55">
-        <v>0.9512195121951219</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B56">
-        <v>0.4313725490196079</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="C56">
-        <v>0.5365853658536586</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B57">
-        <v>0.5294117647058824</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="C57">
-        <v>0.6585365853658537</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B58">
-        <v>0.803921568627451</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B59">
-        <v>0.2941176470588235</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C59">
-        <v>0.3658536585365854</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B60">
+        <v>0.7843137254901961</v>
+      </c>
+      <c r="C60">
         <v>1</v>
-      </c>
-      <c r="C60">
-        <v>1.24390243902439</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B61">
-        <v>0.8823529411764706</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C61">
-        <v>1.097560975609756</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B62">
-        <v>0.7843137254901961</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C62">
-        <v>0.975609756097561</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -7114,776 +7885,1370 @@
         <v>0.6862745098039216</v>
       </c>
       <c r="C63">
-        <v>0.8536585365853658</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C64">
-        <v>1.24390243902439</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B65">
-        <v>0.6078431372549019</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C65">
-        <v>0.7560975609756098</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C66">
-        <v>1.24390243902439</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B67">
-        <v>0.9607843137254902</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="C67">
-        <v>1.195121951219512</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B68">
-        <v>0.3137254901960784</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C68">
-        <v>0.3902439024390244</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B69">
-        <v>0.5490196078431373</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C69">
-        <v>0.6829268292682927</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B70">
-        <v>0.6470588235294118</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C70">
-        <v>0.8048780487804879</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B71">
-        <v>0.7254901960784313</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C71">
-        <v>0.9024390243902439</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B72">
-        <v>0.8627450980392157</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C72">
-        <v>1.073170731707317</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B73">
-        <v>0.09803921568627451</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C73">
-        <v>0.1219512195121951</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B74">
-        <v>0.3137254901960784</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C74">
-        <v>0.3902439024390244</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B75">
-        <v>0.09803921568627451</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="C75">
-        <v>0.1219512195121951</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B76">
-        <v>0.2549019607843137</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C76">
-        <v>0.3170731707317073</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B77">
-        <v>0.1176470588235294</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C77">
-        <v>0.1463414634146341</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B78">
-        <v>0.1176470588235294</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C78">
-        <v>0.1463414634146341</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B79">
-        <v>0.3529411764705883</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C79">
-        <v>0.4390243902439024</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B80">
-        <v>0.09803921568627451</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C80">
-        <v>0.1219512195121951</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B81">
-        <v>0.3137254901960784</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="C81">
-        <v>0.3902439024390244</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B82">
-        <v>0.4313725490196079</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="C82">
-        <v>0.5365853658536586</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B83">
-        <v>0.2941176470588235</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C83">
-        <v>0.3658536585365854</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B84">
-        <v>0.9215686274509803</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="C84">
-        <v>1.146341463414634</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B85">
-        <v>0.7058823529411765</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C85">
-        <v>0.8780487804878049</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B86">
-        <v>0.6666666666666666</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C86">
-        <v>0.8292682926829268</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B87">
-        <v>0.5686274509803921</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C87">
-        <v>0.7073170731707317</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B88">
-        <v>0.4901960784313725</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C88">
-        <v>0.6097560975609756</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B89">
-        <v>0.7843137254901961</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C89">
-        <v>0.975609756097561</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B90">
-        <v>0.7450980392156863</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C90">
-        <v>0.926829268292683</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B91">
-        <v>0.6666666666666666</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C91">
-        <v>0.8292682926829268</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B92">
-        <v>0.8431372549019608</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="C92">
-        <v>1.048780487804878</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B93">
-        <v>0.803921568627451</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B94">
-        <v>0.7647058823529411</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C94">
-        <v>0.9512195121951219</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B95">
-        <v>0.6862745098039216</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C95">
-        <v>0.8536585365853658</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B96">
-        <v>0.5882352941176471</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C96">
-        <v>0.7317073170731707</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B97">
-        <v>0.9215686274509803</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C97">
-        <v>1.146341463414634</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B98">
-        <v>0.8823529411764706</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C98">
-        <v>1.097560975609756</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B99">
-        <v>0.8431372549019608</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C99">
-        <v>1.048780487804878</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B100">
-        <v>0.7450980392156863</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C100">
-        <v>0.926829268292683</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B101">
-        <v>0.09803921568627451</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C101">
-        <v>0.1219512195121951</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B102">
-        <v>0.07843137254901961</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="C102">
-        <v>0.0975609756097561</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B103">
-        <v>0.196078431372549</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C103">
-        <v>0.2439024390243902</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B104">
-        <v>0.1176470588235294</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C104">
-        <v>0.1463414634146341</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B105">
-        <v>0.07843137254901961</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C105">
-        <v>0.0975609756097561</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B106">
-        <v>0.1176470588235294</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="C106">
-        <v>0.1463414634146341</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B107">
-        <v>0.1372549019607843</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C107">
-        <v>0.1707317073170732</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B108">
-        <v>0.2156862745098039</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C108">
-        <v>0.2682926829268293</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B109">
-        <v>0.2745098039215687</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C109">
-        <v>0.3414634146341464</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B110">
-        <v>0.4117647058823529</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C110">
-        <v>0.5121951219512195</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B111">
-        <v>0.1176470588235294</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C111">
-        <v>0.1463414634146341</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B112">
-        <v>0.1372549019607843</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C112">
-        <v>0.1707317073170732</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B113">
-        <v>0.7058823529411765</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="C113">
-        <v>0.8780487804878049</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B114">
-        <v>0.6078431372549019</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C114">
-        <v>0.7560975609756098</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B115">
-        <v>0.5490196078431373</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C115">
-        <v>0.6829268292682927</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B116">
-        <v>0.8823529411764706</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C116">
-        <v>1.097560975609756</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B117">
-        <v>0.8431372549019608</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C117">
-        <v>1.048780487804878</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B118">
-        <v>0.4117647058823529</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="C118">
-        <v>0.5121951219512195</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B119">
-        <v>0.803921568627451</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B120">
-        <v>0.7254901960784313</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C120">
-        <v>0.9024390243902439</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B121">
-        <v>0.6274509803921569</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C121">
-        <v>0.7804878048780488</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B122">
-        <v>0.3333333333333333</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C122">
-        <v>0.4146341463414634</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B123">
-        <v>0.4313725490196079</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C123">
-        <v>0.5365853658536586</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B124">
-        <v>0.392156862745098</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="C124">
-        <v>0.4878048780487805</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B125">
-        <v>0.07843137254901961</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C125">
-        <v>0.0975609756097561</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B126">
-        <v>0.7843137254901961</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="C126">
-        <v>0.975609756097561</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B127">
-        <v>0.9411764705882353</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="C127">
-        <v>1.170731707317073</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B128">
-        <v>0.8823529411764706</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="C128">
-        <v>1.097560975609756</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B129">
-        <v>0.8431372549019608</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="C129">
-        <v>1.048780487804878</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C130">
-        <v>1.02</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B131">
-        <v>0.7647058823529411</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C131">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B132">
-        <v>0.8823529411764706</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C132">
-        <v>0.9</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
+        <v>26</v>
+      </c>
+      <c r="B133">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="C133">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>26</v>
+      </c>
+      <c r="B134">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="C134">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>25</v>
+      </c>
+      <c r="B135">
+        <v>0.4901960784313725</v>
+      </c>
+      <c r="C135">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>21</v>
+      </c>
+      <c r="B136">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="C136">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>11</v>
+      </c>
+      <c r="B137">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="C137">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>33</v>
+      </c>
+      <c r="B138">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="C138">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>20</v>
+      </c>
+      <c r="B139">
+        <v>0.392156862745098</v>
+      </c>
+      <c r="C139">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>28</v>
+      </c>
+      <c r="B140">
+        <v>0.5490196078431373</v>
+      </c>
+      <c r="C140">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>26</v>
+      </c>
+      <c r="B141">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="C141">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>19</v>
+      </c>
+      <c r="B142">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="C142">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>15</v>
+      </c>
+      <c r="B143">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="C143">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>10</v>
+      </c>
+      <c r="B144">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="C144">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>13</v>
+      </c>
+      <c r="B145">
+        <v>0.2549019607843137</v>
+      </c>
+      <c r="C145">
+        <v>0.325</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>24</v>
+      </c>
+      <c r="B146">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="C146">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>11</v>
+      </c>
+      <c r="B147">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="C147">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>27</v>
+      </c>
+      <c r="B148">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="C148">
+        <v>0.675</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>20</v>
+      </c>
+      <c r="B149">
+        <v>0.392156862745098</v>
+      </c>
+      <c r="C149">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>17</v>
+      </c>
+      <c r="B150">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C150">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>7</v>
+      </c>
+      <c r="B151">
+        <v>0.1372549019607843</v>
+      </c>
+      <c r="C151">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>16</v>
+      </c>
+      <c r="B152">
+        <v>0.3137254901960784</v>
+      </c>
+      <c r="C152">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>18</v>
+      </c>
+      <c r="B153">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="C153">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>16</v>
+      </c>
+      <c r="B154">
+        <v>0.3137254901960784</v>
+      </c>
+      <c r="C154">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>25</v>
+      </c>
+      <c r="B155">
+        <v>0.4901960784313725</v>
+      </c>
+      <c r="C155">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>8</v>
+      </c>
+      <c r="B156">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="C156">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>25</v>
+      </c>
+      <c r="B157">
+        <v>0.4901960784313725</v>
+      </c>
+      <c r="C157">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>27</v>
+      </c>
+      <c r="B158">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="C158">
+        <v>0.675</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>34</v>
+      </c>
+      <c r="B159">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C159">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>33</v>
+      </c>
+      <c r="B160">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="C160">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>28</v>
+      </c>
+      <c r="B161">
+        <v>0.5490196078431373</v>
+      </c>
+      <c r="C161">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>35</v>
+      </c>
+      <c r="B162">
+        <v>0.6862745098039216</v>
+      </c>
+      <c r="C162">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>27</v>
+      </c>
+      <c r="B163">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="C163">
+        <v>0.675</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>32</v>
+      </c>
+      <c r="B164">
+        <v>0.6274509803921569</v>
+      </c>
+      <c r="C164">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>33</v>
+      </c>
+      <c r="B165">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="C165">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>33</v>
+      </c>
+      <c r="B166">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="C166">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>26</v>
+      </c>
+      <c r="B167">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="C167">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>27</v>
+      </c>
+      <c r="B168">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="C168">
+        <v>0.675</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>31</v>
+      </c>
+      <c r="B169">
+        <v>0.6078431372549019</v>
+      </c>
+      <c r="C169">
+        <v>0.775</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>19</v>
+      </c>
+      <c r="B170">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="C170">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>24</v>
+      </c>
+      <c r="B171">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="C171">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>31</v>
+      </c>
+      <c r="B172">
+        <v>0.6078431372549019</v>
+      </c>
+      <c r="C172">
+        <v>0.775</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>29</v>
+      </c>
+      <c r="B173">
+        <v>0.5686274509803921</v>
+      </c>
+      <c r="C173">
+        <v>0.725</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>30</v>
+      </c>
+      <c r="B174">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="C174">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>21</v>
+      </c>
+      <c r="B175">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="C175">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>29</v>
+      </c>
+      <c r="B176">
+        <v>0.5686274509803921</v>
+      </c>
+      <c r="C176">
+        <v>0.725</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
         <v>51</v>
       </c>
-      <c r="B133">
+      <c r="B177">
         <v>1</v>
       </c>
-      <c r="C133">
+      <c r="C177">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>51</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>33</v>
+      </c>
+      <c r="B179">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="C179">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>51</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>39</v>
+      </c>
+      <c r="B181">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="C181">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>51</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>45</v>
+      </c>
+      <c r="B183">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="C183">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>51</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>51</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>35</v>
+      </c>
+      <c r="B186">
+        <v>0.6862745098039216</v>
+      </c>
+      <c r="C186">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>51</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
         <v>1.02</v>
       </c>
     </row>
